--- a/file/resume/Sergii_Kotliarov_eng.xlsx
+++ b/file/resume/Sergii_Kotliarov_eng.xlsx
@@ -57,7 +57,7 @@
 </t>
   </si>
   <si>
-    <t>О СЕБЕ</t>
+    <t>ABOUT ME</t>
   </si>
   <si>
     <t>DTEK KRYMENERGO</t>
@@ -129,10 +129,16 @@
     <t>mrcat.adr.com.ua</t>
   </si>
   <si>
-    <t>НАВЫКИ</t>
+    <t>SKILLS</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Kamianske </t>
     </r>
     <r>
@@ -205,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -327,9 +333,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,19 +347,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,8 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,37 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,9 +407,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,10 +430,34 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,8 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,7 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,19 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +582,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,25 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,25 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,43 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +768,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -780,21 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -802,21 +808,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,21 +835,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,131 +876,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1100,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1164,10 +1173,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2091,8 +2100,8 @@
   <sheetPr/>
   <dimension ref="A1:CW150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118:AJ120"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="DC11" sqref="DC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="5.65" customHeight="1"/>
@@ -2201,7 +2210,7 @@
       <c r="CT1" s="17"/>
       <c r="CU1" s="17"/>
       <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
+      <c r="CW1" s="33"/>
     </row>
     <row r="2" customHeight="1" spans="1:101">
       <c r="A2" s="1"/>
@@ -2304,7 +2313,7 @@
       <c r="CT2" s="17"/>
       <c r="CU2" s="17"/>
       <c r="CV2" s="17"/>
-      <c r="CW2" s="17"/>
+      <c r="CW2" s="33"/>
     </row>
     <row r="3" customHeight="1" spans="1:101">
       <c r="A3" s="1"/>
@@ -2407,7 +2416,7 @@
       <c r="CT3" s="18"/>
       <c r="CU3" s="18"/>
       <c r="CV3" s="17"/>
-      <c r="CW3" s="17"/>
+      <c r="CW3" s="33"/>
     </row>
     <row r="4" customHeight="1" spans="1:101">
       <c r="A4" s="1"/>
@@ -2510,7 +2519,7 @@
       <c r="CT4" s="18"/>
       <c r="CU4" s="18"/>
       <c r="CV4" s="17"/>
-      <c r="CW4" s="17"/>
+      <c r="CW4" s="33"/>
     </row>
     <row r="5" customHeight="1" spans="1:101">
       <c r="A5" s="1"/>
@@ -2615,7 +2624,7 @@
       <c r="CT5" s="18"/>
       <c r="CU5" s="18"/>
       <c r="CV5" s="17"/>
-      <c r="CW5" s="17"/>
+      <c r="CW5" s="33"/>
     </row>
     <row r="6" customHeight="1" spans="1:101">
       <c r="A6" s="1"/>
@@ -2718,7 +2727,7 @@
       <c r="CT6" s="18"/>
       <c r="CU6" s="18"/>
       <c r="CV6" s="17"/>
-      <c r="CW6" s="17"/>
+      <c r="CW6" s="33"/>
     </row>
     <row r="7" customHeight="1" spans="1:101">
       <c r="A7" s="1"/>
@@ -2821,7 +2830,7 @@
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="17"/>
-      <c r="CW7" s="17"/>
+      <c r="CW7" s="33"/>
     </row>
     <row r="8" customHeight="1" spans="1:101">
       <c r="A8" s="1"/>
@@ -2924,7 +2933,7 @@
       <c r="CT8" s="18"/>
       <c r="CU8" s="18"/>
       <c r="CV8" s="17"/>
-      <c r="CW8" s="17"/>
+      <c r="CW8" s="33"/>
     </row>
     <row r="9" customHeight="1" spans="1:101">
       <c r="A9" s="1"/>
@@ -3027,7 +3036,7 @@
       <c r="CT9" s="18"/>
       <c r="CU9" s="18"/>
       <c r="CV9" s="17"/>
-      <c r="CW9" s="17"/>
+      <c r="CW9" s="33"/>
     </row>
     <row r="10" customHeight="1" spans="1:101">
       <c r="A10" s="1"/>
@@ -3130,7 +3139,7 @@
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="17"/>
-      <c r="CW10" s="17"/>
+      <c r="CW10" s="33"/>
     </row>
     <row r="11" customHeight="1" spans="1:101">
       <c r="A11" s="1"/>
@@ -3235,7 +3244,7 @@
       <c r="CT11" s="18"/>
       <c r="CU11" s="18"/>
       <c r="CV11" s="17"/>
-      <c r="CW11" s="17"/>
+      <c r="CW11" s="33"/>
     </row>
     <row r="12" customHeight="1" spans="1:101">
       <c r="A12" s="1"/>
@@ -3338,7 +3347,7 @@
       <c r="CT12" s="18"/>
       <c r="CU12" s="18"/>
       <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
+      <c r="CW12" s="33"/>
     </row>
     <row r="13" customHeight="1" spans="1:101">
       <c r="A13" s="1"/>
@@ -3441,7 +3450,7 @@
       <c r="CT13" s="18"/>
       <c r="CU13" s="18"/>
       <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
+      <c r="CW13" s="33"/>
     </row>
     <row r="14" customHeight="1" spans="1:101">
       <c r="A14" s="1"/>
@@ -3544,7 +3553,7 @@
       <c r="CT14" s="18"/>
       <c r="CU14" s="18"/>
       <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
+      <c r="CW14" s="33"/>
     </row>
     <row r="15" customHeight="1" spans="1:101">
       <c r="A15" s="1"/>
@@ -3651,7 +3660,7 @@
       <c r="CT15" s="18"/>
       <c r="CU15" s="18"/>
       <c r="CV15" s="17"/>
-      <c r="CW15" s="17"/>
+      <c r="CW15" s="33"/>
     </row>
     <row r="16" customHeight="1" spans="1:101">
       <c r="A16" s="1"/>
@@ -3754,7 +3763,7 @@
       <c r="CT16" s="18"/>
       <c r="CU16" s="18"/>
       <c r="CV16" s="17"/>
-      <c r="CW16" s="17"/>
+      <c r="CW16" s="33"/>
     </row>
     <row r="17" customHeight="1" spans="1:101">
       <c r="A17" s="1"/>
@@ -3857,7 +3866,7 @@
       <c r="CT17" s="18"/>
       <c r="CU17" s="18"/>
       <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
+      <c r="CW17" s="33"/>
     </row>
     <row r="18" customHeight="1" spans="1:101">
       <c r="A18" s="1"/>
@@ -3962,7 +3971,7 @@
       <c r="CT18" s="18"/>
       <c r="CU18" s="18"/>
       <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
+      <c r="CW18" s="33"/>
     </row>
     <row r="19" customHeight="1" spans="1:101">
       <c r="A19" s="1"/>
@@ -4069,7 +4078,7 @@
       <c r="CT19" s="18"/>
       <c r="CU19" s="18"/>
       <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
+      <c r="CW19" s="33"/>
     </row>
     <row r="20" customHeight="1" spans="1:101">
       <c r="A20" s="1"/>
@@ -4172,7 +4181,7 @@
       <c r="CT20" s="18"/>
       <c r="CU20" s="18"/>
       <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
+      <c r="CW20" s="33"/>
     </row>
     <row r="21" customHeight="1" spans="1:101">
       <c r="A21" s="1"/>
@@ -4275,7 +4284,7 @@
       <c r="CT21" s="18"/>
       <c r="CU21" s="18"/>
       <c r="CV21" s="17"/>
-      <c r="CW21" s="17"/>
+      <c r="CW21" s="33"/>
     </row>
     <row r="22" customHeight="1" spans="1:101">
       <c r="A22" s="1"/>
@@ -4378,7 +4387,7 @@
       <c r="CT22" s="18"/>
       <c r="CU22" s="18"/>
       <c r="CV22" s="17"/>
-      <c r="CW22" s="17"/>
+      <c r="CW22" s="33"/>
     </row>
     <row r="23" customHeight="1" spans="1:101">
       <c r="A23" s="1"/>
@@ -4481,7 +4490,7 @@
       <c r="CT23" s="18"/>
       <c r="CU23" s="18"/>
       <c r="CV23" s="17"/>
-      <c r="CW23" s="17"/>
+      <c r="CW23" s="33"/>
     </row>
     <row r="24" customHeight="1" spans="1:101">
       <c r="A24" s="1"/>
@@ -4584,7 +4593,7 @@
       <c r="CT24" s="18"/>
       <c r="CU24" s="18"/>
       <c r="CV24" s="17"/>
-      <c r="CW24" s="17"/>
+      <c r="CW24" s="33"/>
     </row>
     <row r="25" customHeight="1" spans="1:101">
       <c r="A25" s="1"/>
@@ -4691,7 +4700,7 @@
       <c r="CT25" s="18"/>
       <c r="CU25" s="18"/>
       <c r="CV25" s="17"/>
-      <c r="CW25" s="17"/>
+      <c r="CW25" s="33"/>
     </row>
     <row r="26" customHeight="1" spans="1:101">
       <c r="A26" s="1"/>
@@ -4794,7 +4803,7 @@
       <c r="CT26" s="18"/>
       <c r="CU26" s="18"/>
       <c r="CV26" s="17"/>
-      <c r="CW26" s="17"/>
+      <c r="CW26" s="33"/>
     </row>
     <row r="27" customHeight="1" spans="1:101">
       <c r="A27" s="1"/>
@@ -4899,7 +4908,7 @@
       <c r="CT27" s="18"/>
       <c r="CU27" s="18"/>
       <c r="CV27" s="17"/>
-      <c r="CW27" s="17"/>
+      <c r="CW27" s="33"/>
     </row>
     <row r="28" customHeight="1" spans="1:101">
       <c r="A28" s="1"/>
@@ -5002,7 +5011,7 @@
       <c r="CT28" s="18"/>
       <c r="CU28" s="18"/>
       <c r="CV28" s="17"/>
-      <c r="CW28" s="17"/>
+      <c r="CW28" s="33"/>
     </row>
     <row r="29" customHeight="1" spans="1:101">
       <c r="A29" s="1"/>
@@ -5105,7 +5114,7 @@
       <c r="CT29" s="18"/>
       <c r="CU29" s="18"/>
       <c r="CV29" s="17"/>
-      <c r="CW29" s="17"/>
+      <c r="CW29" s="33"/>
     </row>
     <row r="30" customHeight="1" spans="1:101">
       <c r="A30" s="1"/>
@@ -5208,7 +5217,7 @@
       <c r="CT30" s="18"/>
       <c r="CU30" s="18"/>
       <c r="CV30" s="17"/>
-      <c r="CW30" s="17"/>
+      <c r="CW30" s="33"/>
     </row>
     <row r="31" customHeight="1" spans="1:101">
       <c r="A31" s="1"/>
@@ -5315,7 +5324,7 @@
       <c r="CT31" s="18"/>
       <c r="CU31" s="18"/>
       <c r="CV31" s="17"/>
-      <c r="CW31" s="17"/>
+      <c r="CW31" s="33"/>
     </row>
     <row r="32" customHeight="1" spans="1:101">
       <c r="A32" s="1"/>
@@ -5418,7 +5427,7 @@
       <c r="CT32" s="18"/>
       <c r="CU32" s="18"/>
       <c r="CV32" s="17"/>
-      <c r="CW32" s="17"/>
+      <c r="CW32" s="33"/>
     </row>
     <row r="33" customHeight="1" spans="1:101">
       <c r="A33" s="1"/>
@@ -5523,7 +5532,7 @@
       <c r="CT33" s="18"/>
       <c r="CU33" s="18"/>
       <c r="CV33" s="17"/>
-      <c r="CW33" s="17"/>
+      <c r="CW33" s="33"/>
     </row>
     <row r="34" customHeight="1" spans="1:101">
       <c r="A34" s="1"/>
@@ -5630,7 +5639,7 @@
       <c r="CT34" s="18"/>
       <c r="CU34" s="18"/>
       <c r="CV34" s="17"/>
-      <c r="CW34" s="17"/>
+      <c r="CW34" s="33"/>
     </row>
     <row r="35" customHeight="1" spans="1:101">
       <c r="A35" s="1"/>
@@ -5733,7 +5742,7 @@
       <c r="CT35" s="18"/>
       <c r="CU35" s="18"/>
       <c r="CV35" s="17"/>
-      <c r="CW35" s="17"/>
+      <c r="CW35" s="33"/>
     </row>
     <row r="36" customHeight="1" spans="1:101">
       <c r="A36" s="1"/>
@@ -5836,7 +5845,7 @@
       <c r="CT36" s="18"/>
       <c r="CU36" s="18"/>
       <c r="CV36" s="17"/>
-      <c r="CW36" s="17"/>
+      <c r="CW36" s="33"/>
     </row>
     <row r="37" customHeight="1" spans="1:101">
       <c r="A37" s="1"/>
@@ -5939,7 +5948,7 @@
       <c r="CT37" s="18"/>
       <c r="CU37" s="18"/>
       <c r="CV37" s="17"/>
-      <c r="CW37" s="17"/>
+      <c r="CW37" s="33"/>
     </row>
     <row r="38" customHeight="1" spans="1:101">
       <c r="A38" s="8"/>
@@ -6042,7 +6051,7 @@
       <c r="CT38" s="18"/>
       <c r="CU38" s="18"/>
       <c r="CV38" s="17"/>
-      <c r="CW38" s="17"/>
+      <c r="CW38" s="33"/>
     </row>
     <row r="39" customHeight="1" spans="1:101">
       <c r="A39" s="9"/>
@@ -6145,7 +6154,7 @@
       <c r="CT39" s="18"/>
       <c r="CU39" s="18"/>
       <c r="CV39" s="17"/>
-      <c r="CW39" s="17"/>
+      <c r="CW39" s="33"/>
     </row>
     <row r="40" customHeight="1" spans="1:101">
       <c r="A40" s="9"/>
@@ -6248,7 +6257,7 @@
       <c r="CT40" s="18"/>
       <c r="CU40" s="18"/>
       <c r="CV40" s="17"/>
-      <c r="CW40" s="17"/>
+      <c r="CW40" s="33"/>
     </row>
     <row r="41" customHeight="1" spans="1:101">
       <c r="A41" s="9"/>
@@ -6351,7 +6360,7 @@
       <c r="CT41" s="18"/>
       <c r="CU41" s="18"/>
       <c r="CV41" s="17"/>
-      <c r="CW41" s="17"/>
+      <c r="CW41" s="33"/>
     </row>
     <row r="42" customHeight="1" spans="1:101">
       <c r="A42" s="9"/>
@@ -6456,7 +6465,7 @@
       <c r="CT42" s="18"/>
       <c r="CU42" s="18"/>
       <c r="CV42" s="17"/>
-      <c r="CW42" s="17"/>
+      <c r="CW42" s="33"/>
     </row>
     <row r="43" customHeight="1" spans="1:101">
       <c r="A43" s="9"/>
@@ -6559,7 +6568,7 @@
       <c r="CT43" s="18"/>
       <c r="CU43" s="18"/>
       <c r="CV43" s="17"/>
-      <c r="CW43" s="17"/>
+      <c r="CW43" s="33"/>
     </row>
     <row r="44" customHeight="1" spans="1:101">
       <c r="A44" s="9"/>
@@ -6664,7 +6673,7 @@
       <c r="CT44" s="18"/>
       <c r="CU44" s="18"/>
       <c r="CV44" s="17"/>
-      <c r="CW44" s="17"/>
+      <c r="CW44" s="33"/>
     </row>
     <row r="45" customHeight="1" spans="1:101">
       <c r="A45" s="9"/>
@@ -6767,7 +6776,7 @@
       <c r="CT45" s="18"/>
       <c r="CU45" s="18"/>
       <c r="CV45" s="17"/>
-      <c r="CW45" s="17"/>
+      <c r="CW45" s="33"/>
     </row>
     <row r="46" customHeight="1" spans="1:101">
       <c r="A46" s="9"/>
@@ -6870,7 +6879,7 @@
       <c r="CT46" s="18"/>
       <c r="CU46" s="18"/>
       <c r="CV46" s="17"/>
-      <c r="CW46" s="17"/>
+      <c r="CW46" s="33"/>
     </row>
     <row r="47" customHeight="1" spans="1:101">
       <c r="A47" s="9"/>
@@ -6975,7 +6984,7 @@
       <c r="CT47" s="18"/>
       <c r="CU47" s="18"/>
       <c r="CV47" s="17"/>
-      <c r="CW47" s="17"/>
+      <c r="CW47" s="33"/>
     </row>
     <row r="48" customHeight="1" spans="1:101">
       <c r="A48" s="9"/>
@@ -7082,7 +7091,7 @@
       <c r="CT48" s="18"/>
       <c r="CU48" s="18"/>
       <c r="CV48" s="17"/>
-      <c r="CW48" s="17"/>
+      <c r="CW48" s="33"/>
     </row>
     <row r="49" customHeight="1" spans="1:101">
       <c r="A49" s="9"/>
@@ -7185,7 +7194,7 @@
       <c r="CT49" s="18"/>
       <c r="CU49" s="18"/>
       <c r="CV49" s="17"/>
-      <c r="CW49" s="17"/>
+      <c r="CW49" s="33"/>
     </row>
     <row r="50" customHeight="1" spans="1:101">
       <c r="A50" s="9"/>
@@ -7288,7 +7297,7 @@
       <c r="CT50" s="18"/>
       <c r="CU50" s="18"/>
       <c r="CV50" s="17"/>
-      <c r="CW50" s="17"/>
+      <c r="CW50" s="33"/>
     </row>
     <row r="51" customHeight="1" spans="1:101">
       <c r="A51" s="9"/>
@@ -7393,7 +7402,7 @@
       <c r="CT51" s="18"/>
       <c r="CU51" s="18"/>
       <c r="CV51" s="17"/>
-      <c r="CW51" s="17"/>
+      <c r="CW51" s="33"/>
     </row>
     <row r="52" customHeight="1" spans="1:101">
       <c r="A52" s="9"/>
@@ -7500,7 +7509,7 @@
       <c r="CT52" s="18"/>
       <c r="CU52" s="18"/>
       <c r="CV52" s="17"/>
-      <c r="CW52" s="17"/>
+      <c r="CW52" s="33"/>
     </row>
     <row r="53" customHeight="1" spans="1:101">
       <c r="A53" s="9"/>
@@ -7603,7 +7612,7 @@
       <c r="CT53" s="18"/>
       <c r="CU53" s="18"/>
       <c r="CV53" s="17"/>
-      <c r="CW53" s="17"/>
+      <c r="CW53" s="33"/>
     </row>
     <row r="54" customHeight="1" spans="1:101">
       <c r="A54" s="9"/>
@@ -7706,7 +7715,7 @@
       <c r="CT54" s="18"/>
       <c r="CU54" s="18"/>
       <c r="CV54" s="17"/>
-      <c r="CW54" s="17"/>
+      <c r="CW54" s="33"/>
     </row>
     <row r="55" customHeight="1" spans="1:101">
       <c r="A55" s="9"/>
@@ -7813,7 +7822,7 @@
       <c r="CT55" s="18"/>
       <c r="CU55" s="18"/>
       <c r="CV55" s="17"/>
-      <c r="CW55" s="17"/>
+      <c r="CW55" s="33"/>
     </row>
     <row r="56" customHeight="1" spans="1:101">
       <c r="A56" s="9"/>
@@ -7916,7 +7925,7 @@
       <c r="CT56" s="18"/>
       <c r="CU56" s="18"/>
       <c r="CV56" s="17"/>
-      <c r="CW56" s="17"/>
+      <c r="CW56" s="33"/>
     </row>
     <row r="57" customHeight="1" spans="1:101">
       <c r="A57" s="9"/>
@@ -8019,7 +8028,7 @@
       <c r="CT57" s="18"/>
       <c r="CU57" s="18"/>
       <c r="CV57" s="17"/>
-      <c r="CW57" s="17"/>
+      <c r="CW57" s="33"/>
     </row>
     <row r="58" customHeight="1" spans="1:101">
       <c r="A58" s="9"/>
@@ -8126,7 +8135,7 @@
       <c r="CT58" s="18"/>
       <c r="CU58" s="18"/>
       <c r="CV58" s="17"/>
-      <c r="CW58" s="17"/>
+      <c r="CW58" s="33"/>
     </row>
     <row r="59" customHeight="1" spans="1:101">
       <c r="A59" s="9"/>
@@ -8229,7 +8238,7 @@
       <c r="CT59" s="18"/>
       <c r="CU59" s="18"/>
       <c r="CV59" s="17"/>
-      <c r="CW59" s="17"/>
+      <c r="CW59" s="33"/>
     </row>
     <row r="60" customHeight="1" spans="1:101">
       <c r="A60" s="9"/>
@@ -8332,7 +8341,7 @@
       <c r="CT60" s="18"/>
       <c r="CU60" s="18"/>
       <c r="CV60" s="17"/>
-      <c r="CW60" s="17"/>
+      <c r="CW60" s="33"/>
     </row>
     <row r="61" customHeight="1" spans="1:101">
       <c r="A61" s="9"/>
@@ -8439,7 +8448,7 @@
       <c r="CT61" s="18"/>
       <c r="CU61" s="18"/>
       <c r="CV61" s="17"/>
-      <c r="CW61" s="17"/>
+      <c r="CW61" s="33"/>
     </row>
     <row r="62" customHeight="1" spans="1:101">
       <c r="A62" s="9"/>
@@ -8542,7 +8551,7 @@
       <c r="CT62" s="18"/>
       <c r="CU62" s="18"/>
       <c r="CV62" s="17"/>
-      <c r="CW62" s="17"/>
+      <c r="CW62" s="33"/>
     </row>
     <row r="63" customHeight="1" spans="1:101">
       <c r="A63" s="9"/>
@@ -8645,7 +8654,7 @@
       <c r="CT63" s="18"/>
       <c r="CU63" s="18"/>
       <c r="CV63" s="17"/>
-      <c r="CW63" s="17"/>
+      <c r="CW63" s="33"/>
     </row>
     <row r="64" customHeight="1" spans="1:101">
       <c r="A64" s="9"/>
@@ -8752,7 +8761,7 @@
       <c r="CT64" s="18"/>
       <c r="CU64" s="18"/>
       <c r="CV64" s="17"/>
-      <c r="CW64" s="17"/>
+      <c r="CW64" s="33"/>
     </row>
     <row r="65" customHeight="1" spans="1:101">
       <c r="A65" s="9"/>
@@ -8791,7 +8800,7 @@
       <c r="AH65" s="15"/>
       <c r="AI65" s="15"/>
       <c r="AJ65" s="15"/>
-      <c r="AK65" s="46"/>
+      <c r="AK65" s="47"/>
       <c r="AL65" s="9"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
@@ -8855,7 +8864,7 @@
       <c r="CT65" s="18"/>
       <c r="CU65" s="18"/>
       <c r="CV65" s="17"/>
-      <c r="CW65" s="17"/>
+      <c r="CW65" s="33"/>
     </row>
     <row r="66" customHeight="1" spans="1:101">
       <c r="A66" s="9"/>
@@ -8958,7 +8967,7 @@
       <c r="CT66" s="18"/>
       <c r="CU66" s="18"/>
       <c r="CV66" s="17"/>
-      <c r="CW66" s="17"/>
+      <c r="CW66" s="33"/>
     </row>
     <row r="67" customHeight="1" spans="1:101">
       <c r="A67" s="9"/>
@@ -9065,7 +9074,7 @@
       <c r="CT67" s="18"/>
       <c r="CU67" s="18"/>
       <c r="CV67" s="17"/>
-      <c r="CW67" s="17"/>
+      <c r="CW67" s="33"/>
     </row>
     <row r="68" customHeight="1" spans="1:101">
       <c r="A68" s="9"/>
@@ -9168,7 +9177,7 @@
       <c r="CT68" s="18"/>
       <c r="CU68" s="18"/>
       <c r="CV68" s="17"/>
-      <c r="CW68" s="17"/>
+      <c r="CW68" s="33"/>
     </row>
     <row r="69" customHeight="1" spans="1:101">
       <c r="A69" s="9"/>
@@ -9271,7 +9280,7 @@
       <c r="CT69" s="18"/>
       <c r="CU69" s="18"/>
       <c r="CV69" s="17"/>
-      <c r="CW69" s="17"/>
+      <c r="CW69" s="33"/>
     </row>
     <row r="70" customHeight="1" spans="1:101">
       <c r="A70" s="9"/>
@@ -9378,7 +9387,7 @@
       <c r="CT70" s="18"/>
       <c r="CU70" s="18"/>
       <c r="CV70" s="17"/>
-      <c r="CW70" s="17"/>
+      <c r="CW70" s="33"/>
     </row>
     <row r="71" customHeight="1" spans="1:101">
       <c r="A71" s="9"/>
@@ -9481,7 +9490,7 @@
       <c r="CT71" s="18"/>
       <c r="CU71" s="18"/>
       <c r="CV71" s="17"/>
-      <c r="CW71" s="17"/>
+      <c r="CW71" s="33"/>
     </row>
     <row r="72" customHeight="1" spans="1:101">
       <c r="A72" s="9"/>
@@ -9584,7 +9593,7 @@
       <c r="CT72" s="18"/>
       <c r="CU72" s="18"/>
       <c r="CV72" s="17"/>
-      <c r="CW72" s="17"/>
+      <c r="CW72" s="33"/>
     </row>
     <row r="73" customHeight="1" spans="1:101">
       <c r="A73" s="9"/>
@@ -9687,7 +9696,7 @@
       <c r="CT73" s="18"/>
       <c r="CU73" s="18"/>
       <c r="CV73" s="17"/>
-      <c r="CW73" s="17"/>
+      <c r="CW73" s="33"/>
     </row>
     <row r="74" customHeight="1" spans="1:101">
       <c r="A74" s="9"/>
@@ -9790,7 +9799,7 @@
       <c r="CT74" s="18"/>
       <c r="CU74" s="18"/>
       <c r="CV74" s="17"/>
-      <c r="CW74" s="17"/>
+      <c r="CW74" s="33"/>
     </row>
     <row r="75" customHeight="1" spans="1:101">
       <c r="A75" s="9"/>
@@ -9833,67 +9842,67 @@
       <c r="AL75" s="9"/>
       <c r="AM75" s="17"/>
       <c r="AN75" s="17"/>
-      <c r="AO75" s="47"/>
-      <c r="AP75" s="47"/>
-      <c r="AQ75" s="47"/>
-      <c r="AR75" s="47"/>
-      <c r="AS75" s="47"/>
-      <c r="AT75" s="47"/>
-      <c r="AU75" s="47"/>
-      <c r="AV75" s="47"/>
-      <c r="AW75" s="47"/>
-      <c r="AX75" s="47"/>
-      <c r="AY75" s="47"/>
-      <c r="AZ75" s="47"/>
-      <c r="BA75" s="47"/>
-      <c r="BB75" s="47"/>
-      <c r="BC75" s="47"/>
-      <c r="BD75" s="47"/>
-      <c r="BE75" s="47"/>
-      <c r="BF75" s="47"/>
-      <c r="BG75" s="47"/>
-      <c r="BH75" s="47"/>
-      <c r="BI75" s="47"/>
-      <c r="BJ75" s="47"/>
-      <c r="BK75" s="47"/>
-      <c r="BL75" s="47"/>
-      <c r="BM75" s="47"/>
-      <c r="BN75" s="47"/>
-      <c r="BO75" s="47"/>
-      <c r="BP75" s="47"/>
-      <c r="BQ75" s="47"/>
-      <c r="BR75" s="47"/>
-      <c r="BS75" s="47"/>
-      <c r="BT75" s="47"/>
-      <c r="BU75" s="47"/>
-      <c r="BV75" s="47"/>
-      <c r="BW75" s="47"/>
-      <c r="BX75" s="47"/>
-      <c r="BY75" s="47"/>
-      <c r="BZ75" s="47"/>
-      <c r="CA75" s="47"/>
-      <c r="CB75" s="47"/>
-      <c r="CC75" s="47"/>
-      <c r="CD75" s="47"/>
-      <c r="CE75" s="47"/>
-      <c r="CF75" s="47"/>
-      <c r="CG75" s="47"/>
-      <c r="CH75" s="47"/>
-      <c r="CI75" s="47"/>
-      <c r="CJ75" s="47"/>
-      <c r="CK75" s="47"/>
-      <c r="CL75" s="47"/>
-      <c r="CM75" s="47"/>
-      <c r="CN75" s="47"/>
-      <c r="CO75" s="47"/>
-      <c r="CP75" s="47"/>
-      <c r="CQ75" s="47"/>
-      <c r="CR75" s="47"/>
-      <c r="CS75" s="47"/>
-      <c r="CT75" s="47"/>
-      <c r="CU75" s="47"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="48"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="48"/>
+      <c r="AU75" s="48"/>
+      <c r="AV75" s="48"/>
+      <c r="AW75" s="48"/>
+      <c r="AX75" s="48"/>
+      <c r="AY75" s="48"/>
+      <c r="AZ75" s="48"/>
+      <c r="BA75" s="48"/>
+      <c r="BB75" s="48"/>
+      <c r="BC75" s="48"/>
+      <c r="BD75" s="48"/>
+      <c r="BE75" s="48"/>
+      <c r="BF75" s="48"/>
+      <c r="BG75" s="48"/>
+      <c r="BH75" s="48"/>
+      <c r="BI75" s="48"/>
+      <c r="BJ75" s="48"/>
+      <c r="BK75" s="48"/>
+      <c r="BL75" s="48"/>
+      <c r="BM75" s="48"/>
+      <c r="BN75" s="48"/>
+      <c r="BO75" s="48"/>
+      <c r="BP75" s="48"/>
+      <c r="BQ75" s="48"/>
+      <c r="BR75" s="48"/>
+      <c r="BS75" s="48"/>
+      <c r="BT75" s="48"/>
+      <c r="BU75" s="48"/>
+      <c r="BV75" s="48"/>
+      <c r="BW75" s="48"/>
+      <c r="BX75" s="48"/>
+      <c r="BY75" s="48"/>
+      <c r="BZ75" s="48"/>
+      <c r="CA75" s="48"/>
+      <c r="CB75" s="48"/>
+      <c r="CC75" s="48"/>
+      <c r="CD75" s="48"/>
+      <c r="CE75" s="48"/>
+      <c r="CF75" s="48"/>
+      <c r="CG75" s="48"/>
+      <c r="CH75" s="48"/>
+      <c r="CI75" s="48"/>
+      <c r="CJ75" s="48"/>
+      <c r="CK75" s="48"/>
+      <c r="CL75" s="48"/>
+      <c r="CM75" s="48"/>
+      <c r="CN75" s="48"/>
+      <c r="CO75" s="48"/>
+      <c r="CP75" s="48"/>
+      <c r="CQ75" s="48"/>
+      <c r="CR75" s="48"/>
+      <c r="CS75" s="48"/>
+      <c r="CT75" s="48"/>
+      <c r="CU75" s="48"/>
       <c r="CV75" s="17"/>
-      <c r="CW75" s="17"/>
+      <c r="CW75" s="33"/>
     </row>
     <row r="76" customHeight="1" spans="1:101">
       <c r="A76" s="9"/>
@@ -9936,67 +9945,67 @@
       <c r="AL76" s="9"/>
       <c r="AM76" s="17"/>
       <c r="AN76" s="17"/>
-      <c r="AO76" s="47"/>
-      <c r="AP76" s="47"/>
-      <c r="AQ76" s="47"/>
-      <c r="AR76" s="47"/>
-      <c r="AS76" s="47"/>
-      <c r="AT76" s="47"/>
-      <c r="AU76" s="47"/>
-      <c r="AV76" s="47"/>
-      <c r="AW76" s="47"/>
-      <c r="AX76" s="47"/>
-      <c r="AY76" s="47"/>
-      <c r="AZ76" s="47"/>
-      <c r="BA76" s="47"/>
-      <c r="BB76" s="47"/>
-      <c r="BC76" s="47"/>
-      <c r="BD76" s="47"/>
-      <c r="BE76" s="47"/>
-      <c r="BF76" s="47"/>
-      <c r="BG76" s="47"/>
-      <c r="BH76" s="47"/>
-      <c r="BI76" s="47"/>
-      <c r="BJ76" s="47"/>
-      <c r="BK76" s="47"/>
-      <c r="BL76" s="47"/>
-      <c r="BM76" s="47"/>
-      <c r="BN76" s="47"/>
-      <c r="BO76" s="47"/>
-      <c r="BP76" s="47"/>
-      <c r="BQ76" s="47"/>
-      <c r="BR76" s="47"/>
-      <c r="BS76" s="47"/>
-      <c r="BT76" s="47"/>
-      <c r="BU76" s="47"/>
-      <c r="BV76" s="47"/>
-      <c r="BW76" s="47"/>
-      <c r="BX76" s="47"/>
-      <c r="BY76" s="47"/>
-      <c r="BZ76" s="47"/>
-      <c r="CA76" s="47"/>
-      <c r="CB76" s="47"/>
-      <c r="CC76" s="47"/>
-      <c r="CD76" s="47"/>
-      <c r="CE76" s="47"/>
-      <c r="CF76" s="47"/>
-      <c r="CG76" s="47"/>
-      <c r="CH76" s="47"/>
-      <c r="CI76" s="47"/>
-      <c r="CJ76" s="47"/>
-      <c r="CK76" s="47"/>
-      <c r="CL76" s="47"/>
-      <c r="CM76" s="47"/>
-      <c r="CN76" s="47"/>
-      <c r="CO76" s="47"/>
-      <c r="CP76" s="47"/>
-      <c r="CQ76" s="47"/>
-      <c r="CR76" s="47"/>
-      <c r="CS76" s="47"/>
-      <c r="CT76" s="47"/>
-      <c r="CU76" s="47"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="48"/>
+      <c r="AQ76" s="48"/>
+      <c r="AR76" s="48"/>
+      <c r="AS76" s="48"/>
+      <c r="AT76" s="48"/>
+      <c r="AU76" s="48"/>
+      <c r="AV76" s="48"/>
+      <c r="AW76" s="48"/>
+      <c r="AX76" s="48"/>
+      <c r="AY76" s="48"/>
+      <c r="AZ76" s="48"/>
+      <c r="BA76" s="48"/>
+      <c r="BB76" s="48"/>
+      <c r="BC76" s="48"/>
+      <c r="BD76" s="48"/>
+      <c r="BE76" s="48"/>
+      <c r="BF76" s="48"/>
+      <c r="BG76" s="48"/>
+      <c r="BH76" s="48"/>
+      <c r="BI76" s="48"/>
+      <c r="BJ76" s="48"/>
+      <c r="BK76" s="48"/>
+      <c r="BL76" s="48"/>
+      <c r="BM76" s="48"/>
+      <c r="BN76" s="48"/>
+      <c r="BO76" s="48"/>
+      <c r="BP76" s="48"/>
+      <c r="BQ76" s="48"/>
+      <c r="BR76" s="48"/>
+      <c r="BS76" s="48"/>
+      <c r="BT76" s="48"/>
+      <c r="BU76" s="48"/>
+      <c r="BV76" s="48"/>
+      <c r="BW76" s="48"/>
+      <c r="BX76" s="48"/>
+      <c r="BY76" s="48"/>
+      <c r="BZ76" s="48"/>
+      <c r="CA76" s="48"/>
+      <c r="CB76" s="48"/>
+      <c r="CC76" s="48"/>
+      <c r="CD76" s="48"/>
+      <c r="CE76" s="48"/>
+      <c r="CF76" s="48"/>
+      <c r="CG76" s="48"/>
+      <c r="CH76" s="48"/>
+      <c r="CI76" s="48"/>
+      <c r="CJ76" s="48"/>
+      <c r="CK76" s="48"/>
+      <c r="CL76" s="48"/>
+      <c r="CM76" s="48"/>
+      <c r="CN76" s="48"/>
+      <c r="CO76" s="48"/>
+      <c r="CP76" s="48"/>
+      <c r="CQ76" s="48"/>
+      <c r="CR76" s="48"/>
+      <c r="CS76" s="48"/>
+      <c r="CT76" s="48"/>
+      <c r="CU76" s="48"/>
       <c r="CV76" s="17"/>
-      <c r="CW76" s="17"/>
+      <c r="CW76" s="33"/>
     </row>
     <row r="77" customHeight="1" spans="1:101">
       <c r="A77" s="9"/>
@@ -10099,7 +10108,7 @@
       <c r="CT77" s="18"/>
       <c r="CU77" s="18"/>
       <c r="CV77" s="17"/>
-      <c r="CW77" s="17"/>
+      <c r="CW77" s="33"/>
     </row>
     <row r="78" customHeight="1" spans="1:101">
       <c r="A78" s="9"/>
@@ -10202,7 +10211,7 @@
       <c r="CT78" s="18"/>
       <c r="CU78" s="18"/>
       <c r="CV78" s="17"/>
-      <c r="CW78" s="17"/>
+      <c r="CW78" s="33"/>
     </row>
     <row r="79" customHeight="1" spans="1:101">
       <c r="A79" s="9"/>
@@ -10307,7 +10316,7 @@
       <c r="CT79" s="18"/>
       <c r="CU79" s="18"/>
       <c r="CV79" s="17"/>
-      <c r="CW79" s="17"/>
+      <c r="CW79" s="33"/>
     </row>
     <row r="80" customHeight="1" spans="1:101">
       <c r="A80" s="9"/>
@@ -10410,7 +10419,7 @@
       <c r="CT80" s="18"/>
       <c r="CU80" s="18"/>
       <c r="CV80" s="17"/>
-      <c r="CW80" s="17"/>
+      <c r="CW80" s="33"/>
     </row>
     <row r="81" customHeight="1" spans="1:101">
       <c r="A81" s="9"/>
@@ -10513,7 +10522,7 @@
       <c r="CT81" s="18"/>
       <c r="CU81" s="18"/>
       <c r="CV81" s="17"/>
-      <c r="CW81" s="17"/>
+      <c r="CW81" s="33"/>
     </row>
     <row r="82" customHeight="1" spans="1:101">
       <c r="A82" s="9"/>
@@ -10616,7 +10625,7 @@
       <c r="CT82" s="18"/>
       <c r="CU82" s="18"/>
       <c r="CV82" s="17"/>
-      <c r="CW82" s="17"/>
+      <c r="CW82" s="33"/>
     </row>
     <row r="83" customHeight="1" spans="1:101">
       <c r="A83" s="9"/>
@@ -10719,7 +10728,7 @@
       <c r="CT83" s="18"/>
       <c r="CU83" s="18"/>
       <c r="CV83" s="17"/>
-      <c r="CW83" s="17"/>
+      <c r="CW83" s="33"/>
     </row>
     <row r="84" customHeight="1" spans="1:101">
       <c r="A84" s="9"/>
@@ -10822,7 +10831,7 @@
       <c r="CT84" s="18"/>
       <c r="CU84" s="18"/>
       <c r="CV84" s="17"/>
-      <c r="CW84" s="17"/>
+      <c r="CW84" s="33"/>
     </row>
     <row r="85" customHeight="1" spans="1:101">
       <c r="A85" s="9"/>
@@ -10867,15 +10876,15 @@
       <c r="AN85" s="17"/>
       <c r="AO85" s="18"/>
       <c r="AP85" s="18"/>
-      <c r="AQ85" s="48">
+      <c r="AQ85" s="49">
         <v>2015</v>
       </c>
-      <c r="AR85" s="48"/>
-      <c r="AS85" s="48"/>
-      <c r="AT85" s="48"/>
-      <c r="AU85" s="48"/>
-      <c r="AV85" s="48"/>
-      <c r="AW85" s="48"/>
+      <c r="AR85" s="49"/>
+      <c r="AS85" s="49"/>
+      <c r="AT85" s="49"/>
+      <c r="AU85" s="49"/>
+      <c r="AV85" s="49"/>
+      <c r="AW85" s="49"/>
       <c r="AX85" s="18"/>
       <c r="AY85" s="18"/>
       <c r="AZ85" s="29" t="s">
@@ -10929,58 +10938,58 @@
       <c r="CT85" s="18"/>
       <c r="CU85" s="18"/>
       <c r="CV85" s="17"/>
-      <c r="CW85" s="17"/>
+      <c r="CW85" s="33"/>
     </row>
     <row r="86" customHeight="1" spans="1:101">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
-      <c r="AC86" s="33"/>
-      <c r="AD86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="33"/>
-      <c r="AG86" s="33"/>
-      <c r="AH86" s="33"/>
-      <c r="AI86" s="33"/>
-      <c r="AJ86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="34"/>
+      <c r="V86" s="34"/>
+      <c r="W86" s="34"/>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
+      <c r="AB86" s="34"/>
+      <c r="AC86" s="34"/>
+      <c r="AD86" s="34"/>
+      <c r="AE86" s="34"/>
+      <c r="AF86" s="34"/>
+      <c r="AG86" s="34"/>
+      <c r="AH86" s="34"/>
+      <c r="AI86" s="34"/>
+      <c r="AJ86" s="34"/>
       <c r="AK86" s="9"/>
       <c r="AL86" s="9"/>
       <c r="AM86" s="17"/>
       <c r="AN86" s="17"/>
       <c r="AO86" s="18"/>
       <c r="AP86" s="18"/>
-      <c r="AQ86" s="48"/>
-      <c r="AR86" s="48"/>
-      <c r="AS86" s="48"/>
-      <c r="AT86" s="48"/>
-      <c r="AU86" s="48"/>
-      <c r="AV86" s="48"/>
-      <c r="AW86" s="48"/>
+      <c r="AQ86" s="49"/>
+      <c r="AR86" s="49"/>
+      <c r="AS86" s="49"/>
+      <c r="AT86" s="49"/>
+      <c r="AU86" s="49"/>
+      <c r="AV86" s="49"/>
+      <c r="AW86" s="49"/>
       <c r="AX86" s="18"/>
       <c r="AY86" s="18"/>
       <c r="AZ86" s="29"/>
@@ -11032,58 +11041,58 @@
       <c r="CT86" s="18"/>
       <c r="CU86" s="18"/>
       <c r="CV86" s="17"/>
-      <c r="CW86" s="17"/>
+      <c r="CW86" s="33"/>
     </row>
     <row r="87" customHeight="1" spans="1:101">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="33"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
-      <c r="AC87" s="33"/>
-      <c r="AD87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="33"/>
-      <c r="AG87" s="33"/>
-      <c r="AH87" s="33"/>
-      <c r="AI87" s="33"/>
-      <c r="AJ87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
+      <c r="AB87" s="34"/>
+      <c r="AC87" s="34"/>
+      <c r="AD87" s="34"/>
+      <c r="AE87" s="34"/>
+      <c r="AF87" s="34"/>
+      <c r="AG87" s="34"/>
+      <c r="AH87" s="34"/>
+      <c r="AI87" s="34"/>
+      <c r="AJ87" s="34"/>
       <c r="AK87" s="9"/>
       <c r="AL87" s="9"/>
       <c r="AM87" s="17"/>
       <c r="AN87" s="17"/>
       <c r="AO87" s="18"/>
       <c r="AP87" s="18"/>
-      <c r="AQ87" s="48"/>
-      <c r="AR87" s="48"/>
-      <c r="AS87" s="48"/>
-      <c r="AT87" s="48"/>
-      <c r="AU87" s="48"/>
-      <c r="AV87" s="48"/>
-      <c r="AW87" s="48"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="49"/>
+      <c r="AT87" s="49"/>
+      <c r="AU87" s="49"/>
+      <c r="AV87" s="49"/>
+      <c r="AW87" s="49"/>
       <c r="AX87" s="18"/>
       <c r="AY87" s="18"/>
       <c r="AZ87" s="29"/>
@@ -11135,45 +11144,45 @@
       <c r="CT87" s="18"/>
       <c r="CU87" s="18"/>
       <c r="CV87" s="17"/>
-      <c r="CW87" s="17"/>
+      <c r="CW87" s="33"/>
     </row>
     <row r="88" customHeight="1" spans="1:101">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="33"/>
-      <c r="X88" s="33"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
-      <c r="AC88" s="33"/>
-      <c r="AD88" s="33"/>
-      <c r="AE88" s="33"/>
-      <c r="AF88" s="33"/>
-      <c r="AG88" s="33"/>
-      <c r="AH88" s="33"/>
-      <c r="AI88" s="33"/>
-      <c r="AJ88" s="33"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
+      <c r="AG88" s="34"/>
+      <c r="AH88" s="34"/>
+      <c r="AI88" s="34"/>
+      <c r="AJ88" s="34"/>
       <c r="AK88" s="9"/>
       <c r="AL88" s="9"/>
       <c r="AM88" s="17"/>
@@ -11189,96 +11198,96 @@
       <c r="AW88" s="18"/>
       <c r="AX88" s="18"/>
       <c r="AY88" s="18"/>
-      <c r="AZ88" s="52"/>
-      <c r="BA88" s="52"/>
-      <c r="BB88" s="52"/>
-      <c r="BC88" s="52"/>
-      <c r="BD88" s="52"/>
-      <c r="BE88" s="52"/>
-      <c r="BF88" s="52"/>
-      <c r="BG88" s="52"/>
-      <c r="BH88" s="52"/>
-      <c r="BI88" s="52"/>
-      <c r="BJ88" s="52"/>
-      <c r="BK88" s="52"/>
-      <c r="BL88" s="52"/>
-      <c r="BM88" s="52"/>
-      <c r="BN88" s="52"/>
-      <c r="BO88" s="52"/>
-      <c r="BP88" s="52"/>
-      <c r="BQ88" s="52"/>
-      <c r="BR88" s="52"/>
-      <c r="BS88" s="52"/>
-      <c r="BT88" s="52"/>
-      <c r="BU88" s="52"/>
-      <c r="BV88" s="52"/>
-      <c r="BW88" s="52"/>
-      <c r="BX88" s="52"/>
-      <c r="BY88" s="52"/>
-      <c r="BZ88" s="52"/>
-      <c r="CA88" s="52"/>
-      <c r="CB88" s="52"/>
-      <c r="CC88" s="52"/>
-      <c r="CD88" s="52"/>
-      <c r="CE88" s="52"/>
-      <c r="CF88" s="52"/>
-      <c r="CG88" s="52"/>
-      <c r="CH88" s="52"/>
-      <c r="CI88" s="52"/>
-      <c r="CJ88" s="52"/>
-      <c r="CK88" s="52"/>
-      <c r="CL88" s="52"/>
-      <c r="CM88" s="52"/>
-      <c r="CN88" s="52"/>
-      <c r="CO88" s="52"/>
-      <c r="CP88" s="52"/>
-      <c r="CQ88" s="52"/>
-      <c r="CR88" s="52"/>
-      <c r="CS88" s="52"/>
+      <c r="AZ88" s="53"/>
+      <c r="BA88" s="53"/>
+      <c r="BB88" s="53"/>
+      <c r="BC88" s="53"/>
+      <c r="BD88" s="53"/>
+      <c r="BE88" s="53"/>
+      <c r="BF88" s="53"/>
+      <c r="BG88" s="53"/>
+      <c r="BH88" s="53"/>
+      <c r="BI88" s="53"/>
+      <c r="BJ88" s="53"/>
+      <c r="BK88" s="53"/>
+      <c r="BL88" s="53"/>
+      <c r="BM88" s="53"/>
+      <c r="BN88" s="53"/>
+      <c r="BO88" s="53"/>
+      <c r="BP88" s="53"/>
+      <c r="BQ88" s="53"/>
+      <c r="BR88" s="53"/>
+      <c r="BS88" s="53"/>
+      <c r="BT88" s="53"/>
+      <c r="BU88" s="53"/>
+      <c r="BV88" s="53"/>
+      <c r="BW88" s="53"/>
+      <c r="BX88" s="53"/>
+      <c r="BY88" s="53"/>
+      <c r="BZ88" s="53"/>
+      <c r="CA88" s="53"/>
+      <c r="CB88" s="53"/>
+      <c r="CC88" s="53"/>
+      <c r="CD88" s="53"/>
+      <c r="CE88" s="53"/>
+      <c r="CF88" s="53"/>
+      <c r="CG88" s="53"/>
+      <c r="CH88" s="53"/>
+      <c r="CI88" s="53"/>
+      <c r="CJ88" s="53"/>
+      <c r="CK88" s="53"/>
+      <c r="CL88" s="53"/>
+      <c r="CM88" s="53"/>
+      <c r="CN88" s="53"/>
+      <c r="CO88" s="53"/>
+      <c r="CP88" s="53"/>
+      <c r="CQ88" s="53"/>
+      <c r="CR88" s="53"/>
+      <c r="CS88" s="53"/>
       <c r="CT88" s="18"/>
       <c r="CU88" s="18"/>
       <c r="CV88" s="17"/>
-      <c r="CW88" s="17"/>
+      <c r="CW88" s="33"/>
     </row>
     <row r="89" customHeight="1" spans="1:101">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="35" t="s">
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35"/>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
-      <c r="AI89" s="35"/>
-      <c r="AJ89" s="35"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
+      <c r="AC89" s="36"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="36"/>
+      <c r="AI89" s="36"/>
+      <c r="AJ89" s="36"/>
       <c r="AK89" s="9"/>
       <c r="AL89" s="9"/>
       <c r="AM89" s="17"/>
@@ -11294,109 +11303,109 @@
       <c r="AW89" s="18"/>
       <c r="AX89" s="18"/>
       <c r="AY89" s="18"/>
-      <c r="AZ89" s="52"/>
-      <c r="BA89" s="52"/>
-      <c r="BB89" s="52"/>
-      <c r="BC89" s="52"/>
-      <c r="BD89" s="52"/>
-      <c r="BE89" s="52"/>
-      <c r="BF89" s="52"/>
-      <c r="BG89" s="52"/>
-      <c r="BH89" s="52"/>
-      <c r="BI89" s="52"/>
-      <c r="BJ89" s="52"/>
-      <c r="BK89" s="52"/>
-      <c r="BL89" s="52"/>
-      <c r="BM89" s="52"/>
-      <c r="BN89" s="52"/>
-      <c r="BO89" s="52"/>
-      <c r="BP89" s="52"/>
-      <c r="BQ89" s="52"/>
-      <c r="BR89" s="52"/>
-      <c r="BS89" s="52"/>
-      <c r="BT89" s="52"/>
-      <c r="BU89" s="52"/>
-      <c r="BV89" s="52"/>
-      <c r="BW89" s="52"/>
-      <c r="BX89" s="52"/>
-      <c r="BY89" s="52"/>
-      <c r="BZ89" s="52"/>
-      <c r="CA89" s="52"/>
-      <c r="CB89" s="52"/>
-      <c r="CC89" s="52"/>
-      <c r="CD89" s="52"/>
-      <c r="CE89" s="52"/>
-      <c r="CF89" s="52"/>
-      <c r="CG89" s="52"/>
-      <c r="CH89" s="52"/>
-      <c r="CI89" s="52"/>
-      <c r="CJ89" s="52"/>
-      <c r="CK89" s="52"/>
-      <c r="CL89" s="52"/>
-      <c r="CM89" s="52"/>
-      <c r="CN89" s="52"/>
-      <c r="CO89" s="52"/>
-      <c r="CP89" s="52"/>
-      <c r="CQ89" s="52"/>
-      <c r="CR89" s="52"/>
-      <c r="CS89" s="52"/>
+      <c r="AZ89" s="53"/>
+      <c r="BA89" s="53"/>
+      <c r="BB89" s="53"/>
+      <c r="BC89" s="53"/>
+      <c r="BD89" s="53"/>
+      <c r="BE89" s="53"/>
+      <c r="BF89" s="53"/>
+      <c r="BG89" s="53"/>
+      <c r="BH89" s="53"/>
+      <c r="BI89" s="53"/>
+      <c r="BJ89" s="53"/>
+      <c r="BK89" s="53"/>
+      <c r="BL89" s="53"/>
+      <c r="BM89" s="53"/>
+      <c r="BN89" s="53"/>
+      <c r="BO89" s="53"/>
+      <c r="BP89" s="53"/>
+      <c r="BQ89" s="53"/>
+      <c r="BR89" s="53"/>
+      <c r="BS89" s="53"/>
+      <c r="BT89" s="53"/>
+      <c r="BU89" s="53"/>
+      <c r="BV89" s="53"/>
+      <c r="BW89" s="53"/>
+      <c r="BX89" s="53"/>
+      <c r="BY89" s="53"/>
+      <c r="BZ89" s="53"/>
+      <c r="CA89" s="53"/>
+      <c r="CB89" s="53"/>
+      <c r="CC89" s="53"/>
+      <c r="CD89" s="53"/>
+      <c r="CE89" s="53"/>
+      <c r="CF89" s="53"/>
+      <c r="CG89" s="53"/>
+      <c r="CH89" s="53"/>
+      <c r="CI89" s="53"/>
+      <c r="CJ89" s="53"/>
+      <c r="CK89" s="53"/>
+      <c r="CL89" s="53"/>
+      <c r="CM89" s="53"/>
+      <c r="CN89" s="53"/>
+      <c r="CO89" s="53"/>
+      <c r="CP89" s="53"/>
+      <c r="CQ89" s="53"/>
+      <c r="CR89" s="53"/>
+      <c r="CS89" s="53"/>
       <c r="CT89" s="18"/>
       <c r="CU89" s="18"/>
       <c r="CV89" s="17"/>
-      <c r="CW89" s="17"/>
+      <c r="CW89" s="33"/>
     </row>
     <row r="90" customHeight="1" spans="1:101">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="35"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="35"/>
-      <c r="Y90" s="35"/>
-      <c r="Z90" s="35"/>
-      <c r="AA90" s="35"/>
-      <c r="AB90" s="35"/>
-      <c r="AC90" s="35"/>
-      <c r="AD90" s="35"/>
-      <c r="AE90" s="35"/>
-      <c r="AF90" s="35"/>
-      <c r="AG90" s="35"/>
-      <c r="AH90" s="35"/>
-      <c r="AI90" s="35"/>
-      <c r="AJ90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
+      <c r="AC90" s="36"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="36"/>
+      <c r="AH90" s="36"/>
+      <c r="AI90" s="36"/>
+      <c r="AJ90" s="36"/>
       <c r="AK90" s="9"/>
       <c r="AL90" s="9"/>
       <c r="AM90" s="17"/>
       <c r="AN90" s="17"/>
       <c r="AO90" s="18"/>
       <c r="AP90" s="18"/>
-      <c r="AQ90" s="48">
+      <c r="AQ90" s="49">
         <v>2012</v>
       </c>
-      <c r="AR90" s="48"/>
-      <c r="AS90" s="48"/>
-      <c r="AT90" s="48"/>
-      <c r="AU90" s="48"/>
-      <c r="AV90" s="48"/>
-      <c r="AW90" s="48"/>
+      <c r="AR90" s="49"/>
+      <c r="AS90" s="49"/>
+      <c r="AT90" s="49"/>
+      <c r="AU90" s="49"/>
+      <c r="AV90" s="49"/>
+      <c r="AW90" s="49"/>
       <c r="AX90" s="18"/>
       <c r="AY90" s="18"/>
       <c r="AZ90" s="28" t="s">
@@ -11450,58 +11459,58 @@
       <c r="CT90" s="18"/>
       <c r="CU90" s="18"/>
       <c r="CV90" s="17"/>
-      <c r="CW90" s="17"/>
+      <c r="CW90" s="33"/>
     </row>
     <row r="91" customHeight="1" spans="1:101">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
-      <c r="AG91" s="35"/>
-      <c r="AH91" s="35"/>
-      <c r="AI91" s="35"/>
-      <c r="AJ91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="36"/>
+      <c r="AC91" s="36"/>
+      <c r="AD91" s="36"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="36"/>
+      <c r="AH91" s="36"/>
+      <c r="AI91" s="36"/>
+      <c r="AJ91" s="36"/>
       <c r="AK91" s="9"/>
       <c r="AL91" s="9"/>
       <c r="AM91" s="17"/>
       <c r="AN91" s="17"/>
       <c r="AO91" s="18"/>
       <c r="AP91" s="18"/>
-      <c r="AQ91" s="48"/>
-      <c r="AR91" s="48"/>
-      <c r="AS91" s="48"/>
-      <c r="AT91" s="48"/>
-      <c r="AU91" s="48"/>
-      <c r="AV91" s="48"/>
-      <c r="AW91" s="48"/>
+      <c r="AQ91" s="49"/>
+      <c r="AR91" s="49"/>
+      <c r="AS91" s="49"/>
+      <c r="AT91" s="49"/>
+      <c r="AU91" s="49"/>
+      <c r="AV91" s="49"/>
+      <c r="AW91" s="49"/>
       <c r="AX91" s="18"/>
       <c r="AY91" s="18"/>
       <c r="AZ91" s="29"/>
@@ -11553,58 +11562,58 @@
       <c r="CT91" s="18"/>
       <c r="CU91" s="18"/>
       <c r="CV91" s="17"/>
-      <c r="CW91" s="17"/>
+      <c r="CW91" s="33"/>
     </row>
     <row r="92" customHeight="1" spans="1:101">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="35"/>
-      <c r="AI92" s="35"/>
-      <c r="AJ92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
+      <c r="AC92" s="36"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="36"/>
+      <c r="AI92" s="36"/>
+      <c r="AJ92" s="36"/>
       <c r="AK92" s="9"/>
       <c r="AL92" s="9"/>
       <c r="AM92" s="17"/>
       <c r="AN92" s="17"/>
       <c r="AO92" s="18"/>
       <c r="AP92" s="18"/>
-      <c r="AQ92" s="48"/>
-      <c r="AR92" s="48"/>
-      <c r="AS92" s="48"/>
-      <c r="AT92" s="48"/>
-      <c r="AU92" s="48"/>
-      <c r="AV92" s="48"/>
-      <c r="AW92" s="48"/>
+      <c r="AQ92" s="49"/>
+      <c r="AR92" s="49"/>
+      <c r="AS92" s="49"/>
+      <c r="AT92" s="49"/>
+      <c r="AU92" s="49"/>
+      <c r="AV92" s="49"/>
+      <c r="AW92" s="49"/>
       <c r="AX92" s="18"/>
       <c r="AY92" s="18"/>
       <c r="AZ92" s="29"/>
@@ -11656,60 +11665,60 @@
       <c r="CT92" s="18"/>
       <c r="CU92" s="18"/>
       <c r="CV92" s="17"/>
-      <c r="CW92" s="17"/>
+      <c r="CW92" s="33"/>
     </row>
     <row r="93" customHeight="1" spans="1:101">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
-      <c r="Z93" s="37"/>
-      <c r="AA93" s="37"/>
-      <c r="AB93" s="37"/>
-      <c r="AC93" s="37"/>
-      <c r="AD93" s="37"/>
-      <c r="AE93" s="37"/>
-      <c r="AF93" s="37"/>
-      <c r="AG93" s="37"/>
-      <c r="AH93" s="37"/>
-      <c r="AI93" s="37"/>
-      <c r="AJ93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="38"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="38"/>
+      <c r="AG93" s="38"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="38"/>
       <c r="AK93" s="9"/>
       <c r="AL93" s="9"/>
       <c r="AM93" s="17"/>
       <c r="AN93" s="17"/>
       <c r="AO93" s="18"/>
       <c r="AP93" s="18"/>
-      <c r="AQ93" s="48">
+      <c r="AQ93" s="49">
         <v>2007</v>
       </c>
-      <c r="AR93" s="48"/>
-      <c r="AS93" s="48"/>
-      <c r="AT93" s="48"/>
-      <c r="AU93" s="48"/>
-      <c r="AV93" s="48"/>
-      <c r="AW93" s="48"/>
+      <c r="AR93" s="49"/>
+      <c r="AS93" s="49"/>
+      <c r="AT93" s="49"/>
+      <c r="AU93" s="49"/>
+      <c r="AV93" s="49"/>
+      <c r="AW93" s="49"/>
       <c r="AX93" s="18"/>
       <c r="AY93" s="18"/>
       <c r="AZ93" s="29" t="s">
@@ -11763,60 +11772,60 @@
       <c r="CT93" s="18"/>
       <c r="CU93" s="18"/>
       <c r="CV93" s="17"/>
-      <c r="CW93" s="17"/>
+      <c r="CW93" s="33"/>
     </row>
     <row r="94" customHeight="1" spans="1:101">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="39" t="s">
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="40"/>
-      <c r="AJ94" s="40"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="41"/>
+      <c r="S94" s="41"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="41"/>
+      <c r="Z94" s="41"/>
+      <c r="AA94" s="41"/>
+      <c r="AB94" s="41"/>
+      <c r="AC94" s="41"/>
+      <c r="AD94" s="41"/>
+      <c r="AE94" s="41"/>
+      <c r="AF94" s="41"/>
+      <c r="AG94" s="41"/>
+      <c r="AH94" s="41"/>
+      <c r="AI94" s="41"/>
+      <c r="AJ94" s="41"/>
       <c r="AK94" s="9"/>
       <c r="AL94" s="9"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="17"/>
       <c r="AO94" s="18"/>
       <c r="AP94" s="18"/>
-      <c r="AQ94" s="48"/>
-      <c r="AR94" s="48"/>
-      <c r="AS94" s="48"/>
-      <c r="AT94" s="48"/>
-      <c r="AU94" s="48"/>
-      <c r="AV94" s="48"/>
-      <c r="AW94" s="48"/>
+      <c r="AQ94" s="49"/>
+      <c r="AR94" s="49"/>
+      <c r="AS94" s="49"/>
+      <c r="AT94" s="49"/>
+      <c r="AU94" s="49"/>
+      <c r="AV94" s="49"/>
+      <c r="AW94" s="49"/>
       <c r="AX94" s="18"/>
       <c r="AY94" s="18"/>
       <c r="AZ94" s="29"/>
@@ -11868,58 +11877,58 @@
       <c r="CT94" s="18"/>
       <c r="CU94" s="18"/>
       <c r="CV94" s="17"/>
-      <c r="CW94" s="17"/>
+      <c r="CW94" s="33"/>
     </row>
     <row r="95" customHeight="1" spans="1:101">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
-      <c r="Z95" s="40"/>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="40"/>
-      <c r="AE95" s="40"/>
-      <c r="AF95" s="40"/>
-      <c r="AG95" s="40"/>
-      <c r="AH95" s="40"/>
-      <c r="AI95" s="40"/>
-      <c r="AJ95" s="40"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="41"/>
+      <c r="W95" s="41"/>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+      <c r="AA95" s="41"/>
+      <c r="AB95" s="41"/>
+      <c r="AC95" s="41"/>
+      <c r="AD95" s="41"/>
+      <c r="AE95" s="41"/>
+      <c r="AF95" s="41"/>
+      <c r="AG95" s="41"/>
+      <c r="AH95" s="41"/>
+      <c r="AI95" s="41"/>
+      <c r="AJ95" s="41"/>
       <c r="AK95" s="9"/>
       <c r="AL95" s="9"/>
       <c r="AM95" s="17"/>
       <c r="AN95" s="17"/>
       <c r="AO95" s="18"/>
       <c r="AP95" s="18"/>
-      <c r="AQ95" s="48"/>
-      <c r="AR95" s="48"/>
-      <c r="AS95" s="48"/>
-      <c r="AT95" s="48"/>
-      <c r="AU95" s="48"/>
-      <c r="AV95" s="48"/>
-      <c r="AW95" s="48"/>
+      <c r="AQ95" s="49"/>
+      <c r="AR95" s="49"/>
+      <c r="AS95" s="49"/>
+      <c r="AT95" s="49"/>
+      <c r="AU95" s="49"/>
+      <c r="AV95" s="49"/>
+      <c r="AW95" s="49"/>
       <c r="AX95" s="18"/>
       <c r="AY95" s="18"/>
       <c r="AZ95" s="29"/>
@@ -11971,45 +11980,45 @@
       <c r="CT95" s="18"/>
       <c r="CU95" s="18"/>
       <c r="CV95" s="17"/>
-      <c r="CW95" s="17"/>
+      <c r="CW95" s="33"/>
     </row>
     <row r="96" customHeight="1" spans="1:101">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="40"/>
-      <c r="AJ96" s="40"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="41"/>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="41"/>
+      <c r="AH96" s="41"/>
+      <c r="AI96" s="41"/>
+      <c r="AJ96" s="41"/>
       <c r="AK96" s="9"/>
       <c r="AL96" s="9"/>
       <c r="AM96" s="17"/>
@@ -12074,45 +12083,45 @@
       <c r="CT96" s="18"/>
       <c r="CU96" s="18"/>
       <c r="CV96" s="17"/>
-      <c r="CW96" s="17"/>
+      <c r="CW96" s="33"/>
     </row>
     <row r="97" customHeight="1" spans="1:101">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
-      <c r="Z97" s="40"/>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="40"/>
-      <c r="AE97" s="40"/>
-      <c r="AF97" s="40"/>
-      <c r="AG97" s="40"/>
-      <c r="AH97" s="40"/>
-      <c r="AI97" s="40"/>
-      <c r="AJ97" s="40"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="41"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="41"/>
+      <c r="AA97" s="41"/>
+      <c r="AB97" s="41"/>
+      <c r="AC97" s="41"/>
+      <c r="AD97" s="41"/>
+      <c r="AE97" s="41"/>
+      <c r="AF97" s="41"/>
+      <c r="AG97" s="41"/>
+      <c r="AH97" s="41"/>
+      <c r="AI97" s="41"/>
+      <c r="AJ97" s="41"/>
       <c r="AK97" s="9"/>
       <c r="AL97" s="9"/>
       <c r="AM97" s="17"/>
@@ -12177,62 +12186,62 @@
       <c r="CT97" s="18"/>
       <c r="CU97" s="18"/>
       <c r="CV97" s="17"/>
-      <c r="CW97" s="17"/>
+      <c r="CW97" s="33"/>
     </row>
     <row r="98" customHeight="1" spans="1:101">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="41" t="s">
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
-      <c r="W98" s="41"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41"/>
-      <c r="Z98" s="41"/>
-      <c r="AA98" s="41"/>
-      <c r="AB98" s="41"/>
-      <c r="AC98" s="41"/>
-      <c r="AD98" s="41"/>
-      <c r="AE98" s="41"/>
-      <c r="AF98" s="41"/>
-      <c r="AG98" s="41"/>
-      <c r="AH98" s="41"/>
-      <c r="AI98" s="41"/>
-      <c r="AJ98" s="41"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="42"/>
+      <c r="W98" s="42"/>
+      <c r="X98" s="42"/>
+      <c r="Y98" s="42"/>
+      <c r="Z98" s="42"/>
+      <c r="AA98" s="42"/>
+      <c r="AB98" s="42"/>
+      <c r="AC98" s="42"/>
+      <c r="AD98" s="42"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="42"/>
+      <c r="AG98" s="42"/>
+      <c r="AH98" s="42"/>
+      <c r="AI98" s="42"/>
+      <c r="AJ98" s="42"/>
       <c r="AK98" s="9"/>
       <c r="AL98" s="9"/>
       <c r="AM98" s="17"/>
       <c r="AN98" s="17"/>
       <c r="AO98" s="18"/>
       <c r="AP98" s="18"/>
-      <c r="AQ98" s="48">
+      <c r="AQ98" s="49">
         <v>2007</v>
       </c>
-      <c r="AR98" s="48"/>
-      <c r="AS98" s="48"/>
-      <c r="AT98" s="48"/>
-      <c r="AU98" s="48"/>
-      <c r="AV98" s="48"/>
-      <c r="AW98" s="48"/>
+      <c r="AR98" s="49"/>
+      <c r="AS98" s="49"/>
+      <c r="AT98" s="49"/>
+      <c r="AU98" s="49"/>
+      <c r="AV98" s="49"/>
+      <c r="AW98" s="49"/>
       <c r="AX98" s="18"/>
       <c r="AY98" s="18"/>
       <c r="AZ98" s="28" t="s">
@@ -12286,58 +12295,58 @@
       <c r="CT98" s="18"/>
       <c r="CU98" s="18"/>
       <c r="CV98" s="17"/>
-      <c r="CW98" s="17"/>
+      <c r="CW98" s="33"/>
     </row>
     <row r="99" customHeight="1" spans="1:101">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="41"/>
-      <c r="Z99" s="41"/>
-      <c r="AA99" s="41"/>
-      <c r="AB99" s="41"/>
-      <c r="AC99" s="41"/>
-      <c r="AD99" s="41"/>
-      <c r="AE99" s="41"/>
-      <c r="AF99" s="41"/>
-      <c r="AG99" s="41"/>
-      <c r="AH99" s="41"/>
-      <c r="AI99" s="41"/>
-      <c r="AJ99" s="41"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="42"/>
+      <c r="W99" s="42"/>
+      <c r="X99" s="42"/>
+      <c r="Y99" s="42"/>
+      <c r="Z99" s="42"/>
+      <c r="AA99" s="42"/>
+      <c r="AB99" s="42"/>
+      <c r="AC99" s="42"/>
+      <c r="AD99" s="42"/>
+      <c r="AE99" s="42"/>
+      <c r="AF99" s="42"/>
+      <c r="AG99" s="42"/>
+      <c r="AH99" s="42"/>
+      <c r="AI99" s="42"/>
+      <c r="AJ99" s="42"/>
       <c r="AK99" s="9"/>
       <c r="AL99" s="9"/>
       <c r="AM99" s="17"/>
       <c r="AN99" s="17"/>
       <c r="AO99" s="18"/>
       <c r="AP99" s="18"/>
-      <c r="AQ99" s="48"/>
-      <c r="AR99" s="48"/>
-      <c r="AS99" s="48"/>
-      <c r="AT99" s="48"/>
-      <c r="AU99" s="48"/>
-      <c r="AV99" s="48"/>
-      <c r="AW99" s="48"/>
+      <c r="AQ99" s="49"/>
+      <c r="AR99" s="49"/>
+      <c r="AS99" s="49"/>
+      <c r="AT99" s="49"/>
+      <c r="AU99" s="49"/>
+      <c r="AV99" s="49"/>
+      <c r="AW99" s="49"/>
       <c r="AX99" s="18"/>
       <c r="AY99" s="18"/>
       <c r="AZ99" s="28"/>
@@ -12389,58 +12398,58 @@
       <c r="CT99" s="18"/>
       <c r="CU99" s="18"/>
       <c r="CV99" s="17"/>
-      <c r="CW99" s="17"/>
+      <c r="CW99" s="33"/>
     </row>
     <row r="100" customHeight="1" spans="1:101">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
-      <c r="V100" s="41"/>
-      <c r="W100" s="41"/>
-      <c r="X100" s="41"/>
-      <c r="Y100" s="41"/>
-      <c r="Z100" s="41"/>
-      <c r="AA100" s="41"/>
-      <c r="AB100" s="41"/>
-      <c r="AC100" s="41"/>
-      <c r="AD100" s="41"/>
-      <c r="AE100" s="41"/>
-      <c r="AF100" s="41"/>
-      <c r="AG100" s="41"/>
-      <c r="AH100" s="41"/>
-      <c r="AI100" s="41"/>
-      <c r="AJ100" s="41"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="42"/>
+      <c r="W100" s="42"/>
+      <c r="X100" s="42"/>
+      <c r="Y100" s="42"/>
+      <c r="Z100" s="42"/>
+      <c r="AA100" s="42"/>
+      <c r="AB100" s="42"/>
+      <c r="AC100" s="42"/>
+      <c r="AD100" s="42"/>
+      <c r="AE100" s="42"/>
+      <c r="AF100" s="42"/>
+      <c r="AG100" s="42"/>
+      <c r="AH100" s="42"/>
+      <c r="AI100" s="42"/>
+      <c r="AJ100" s="42"/>
       <c r="AK100" s="9"/>
       <c r="AL100" s="9"/>
       <c r="AM100" s="17"/>
       <c r="AN100" s="17"/>
       <c r="AO100" s="18"/>
       <c r="AP100" s="18"/>
-      <c r="AQ100" s="48"/>
-      <c r="AR100" s="48"/>
-      <c r="AS100" s="48"/>
-      <c r="AT100" s="48"/>
-      <c r="AU100" s="48"/>
-      <c r="AV100" s="48"/>
-      <c r="AW100" s="48"/>
+      <c r="AQ100" s="49"/>
+      <c r="AR100" s="49"/>
+      <c r="AS100" s="49"/>
+      <c r="AT100" s="49"/>
+      <c r="AU100" s="49"/>
+      <c r="AV100" s="49"/>
+      <c r="AW100" s="49"/>
       <c r="AX100" s="18"/>
       <c r="AY100" s="18"/>
       <c r="AZ100" s="28"/>
@@ -12492,7 +12501,7 @@
       <c r="CT100" s="18"/>
       <c r="CU100" s="18"/>
       <c r="CV100" s="17"/>
-      <c r="CW100" s="17"/>
+      <c r="CW100" s="33"/>
     </row>
     <row r="101" customHeight="1" spans="1:101">
       <c r="A101" s="9"/>
@@ -12501,51 +12510,51 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
-      <c r="Q101" s="42"/>
-      <c r="R101" s="42"/>
-      <c r="S101" s="42"/>
-      <c r="T101" s="42"/>
-      <c r="U101" s="42"/>
-      <c r="V101" s="42"/>
-      <c r="W101" s="42"/>
-      <c r="X101" s="42"/>
-      <c r="Y101" s="42"/>
-      <c r="Z101" s="42"/>
-      <c r="AA101" s="42"/>
-      <c r="AB101" s="42"/>
-      <c r="AC101" s="42"/>
-      <c r="AD101" s="42"/>
-      <c r="AE101" s="42"/>
-      <c r="AF101" s="42"/>
-      <c r="AG101" s="42"/>
-      <c r="AH101" s="42"/>
-      <c r="AI101" s="42"/>
-      <c r="AJ101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="43"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="43"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="43"/>
+      <c r="AF101" s="43"/>
+      <c r="AG101" s="43"/>
+      <c r="AH101" s="43"/>
+      <c r="AI101" s="43"/>
+      <c r="AJ101" s="43"/>
       <c r="AK101" s="9"/>
       <c r="AL101" s="9"/>
       <c r="AM101" s="17"/>
       <c r="AN101" s="17"/>
       <c r="AO101" s="18"/>
       <c r="AP101" s="18"/>
-      <c r="AQ101" s="48">
+      <c r="AQ101" s="49">
         <v>2006</v>
       </c>
-      <c r="AR101" s="48"/>
-      <c r="AS101" s="48"/>
-      <c r="AT101" s="48"/>
-      <c r="AU101" s="48"/>
-      <c r="AV101" s="48"/>
-      <c r="AW101" s="48"/>
+      <c r="AR101" s="49"/>
+      <c r="AS101" s="49"/>
+      <c r="AT101" s="49"/>
+      <c r="AU101" s="49"/>
+      <c r="AV101" s="49"/>
+      <c r="AW101" s="49"/>
       <c r="AX101" s="18"/>
       <c r="AY101" s="18"/>
       <c r="AZ101" s="28"/>
@@ -12597,7 +12606,7 @@
       <c r="CT101" s="18"/>
       <c r="CU101" s="18"/>
       <c r="CV101" s="17"/>
-      <c r="CW101" s="17"/>
+      <c r="CW101" s="33"/>
     </row>
     <row r="102" customHeight="1" spans="1:101">
       <c r="A102" s="9"/>
@@ -12606,51 +12615,51 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="59" t="s">
+      <c r="G102" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
-      <c r="V102" s="41"/>
-      <c r="W102" s="41"/>
-      <c r="X102" s="41"/>
-      <c r="Y102" s="41"/>
-      <c r="Z102" s="41"/>
-      <c r="AA102" s="41"/>
-      <c r="AB102" s="41"/>
-      <c r="AC102" s="41"/>
-      <c r="AD102" s="41"/>
-      <c r="AE102" s="41"/>
-      <c r="AF102" s="41"/>
-      <c r="AG102" s="41"/>
-      <c r="AH102" s="41"/>
-      <c r="AI102" s="41"/>
-      <c r="AJ102" s="41"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="42"/>
+      <c r="W102" s="42"/>
+      <c r="X102" s="42"/>
+      <c r="Y102" s="42"/>
+      <c r="Z102" s="42"/>
+      <c r="AA102" s="42"/>
+      <c r="AB102" s="42"/>
+      <c r="AC102" s="42"/>
+      <c r="AD102" s="42"/>
+      <c r="AE102" s="42"/>
+      <c r="AF102" s="42"/>
+      <c r="AG102" s="42"/>
+      <c r="AH102" s="42"/>
+      <c r="AI102" s="42"/>
+      <c r="AJ102" s="42"/>
       <c r="AK102" s="9"/>
       <c r="AL102" s="9"/>
       <c r="AM102" s="17"/>
       <c r="AN102" s="17"/>
       <c r="AO102" s="18"/>
       <c r="AP102" s="18"/>
-      <c r="AQ102" s="48"/>
-      <c r="AR102" s="48"/>
-      <c r="AS102" s="48"/>
-      <c r="AT102" s="48"/>
-      <c r="AU102" s="48"/>
-      <c r="AV102" s="48"/>
-      <c r="AW102" s="48"/>
+      <c r="AQ102" s="49"/>
+      <c r="AR102" s="49"/>
+      <c r="AS102" s="49"/>
+      <c r="AT102" s="49"/>
+      <c r="AU102" s="49"/>
+      <c r="AV102" s="49"/>
+      <c r="AW102" s="49"/>
       <c r="AX102" s="18"/>
       <c r="AY102" s="18"/>
       <c r="AZ102" s="28"/>
@@ -12702,7 +12711,7 @@
       <c r="CT102" s="18"/>
       <c r="CU102" s="18"/>
       <c r="CV102" s="17"/>
-      <c r="CW102" s="17"/>
+      <c r="CW102" s="33"/>
     </row>
     <row r="103" customHeight="1" spans="1:101">
       <c r="A103" s="9"/>
@@ -12711,49 +12720,49 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-      <c r="W103" s="41"/>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="41"/>
-      <c r="Z103" s="41"/>
-      <c r="AA103" s="41"/>
-      <c r="AB103" s="41"/>
-      <c r="AC103" s="41"/>
-      <c r="AD103" s="41"/>
-      <c r="AE103" s="41"/>
-      <c r="AF103" s="41"/>
-      <c r="AG103" s="41"/>
-      <c r="AH103" s="41"/>
-      <c r="AI103" s="41"/>
-      <c r="AJ103" s="41"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="42"/>
+      <c r="X103" s="42"/>
+      <c r="Y103" s="42"/>
+      <c r="Z103" s="42"/>
+      <c r="AA103" s="42"/>
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="42"/>
+      <c r="AD103" s="42"/>
+      <c r="AE103" s="42"/>
+      <c r="AF103" s="42"/>
+      <c r="AG103" s="42"/>
+      <c r="AH103" s="42"/>
+      <c r="AI103" s="42"/>
+      <c r="AJ103" s="42"/>
       <c r="AK103" s="9"/>
       <c r="AL103" s="9"/>
       <c r="AM103" s="17"/>
       <c r="AN103" s="17"/>
       <c r="AO103" s="18"/>
       <c r="AP103" s="18"/>
-      <c r="AQ103" s="48"/>
-      <c r="AR103" s="48"/>
-      <c r="AS103" s="48"/>
-      <c r="AT103" s="48"/>
-      <c r="AU103" s="48"/>
-      <c r="AV103" s="48"/>
-      <c r="AW103" s="48"/>
+      <c r="AQ103" s="49"/>
+      <c r="AR103" s="49"/>
+      <c r="AS103" s="49"/>
+      <c r="AT103" s="49"/>
+      <c r="AU103" s="49"/>
+      <c r="AV103" s="49"/>
+      <c r="AW103" s="49"/>
       <c r="AX103" s="18"/>
       <c r="AY103" s="18"/>
       <c r="AZ103" s="28"/>
@@ -12805,7 +12814,7 @@
       <c r="CT103" s="18"/>
       <c r="CU103" s="18"/>
       <c r="CV103" s="17"/>
-      <c r="CW103" s="17"/>
+      <c r="CW103" s="33"/>
     </row>
     <row r="104" customHeight="1" spans="1:101">
       <c r="A104" s="9"/>
@@ -12814,36 +12823,36 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="41"/>
-      <c r="S104" s="41"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="41"/>
-      <c r="V104" s="41"/>
-      <c r="W104" s="41"/>
-      <c r="X104" s="41"/>
-      <c r="Y104" s="41"/>
-      <c r="Z104" s="41"/>
-      <c r="AA104" s="41"/>
-      <c r="AB104" s="41"/>
-      <c r="AC104" s="41"/>
-      <c r="AD104" s="41"/>
-      <c r="AE104" s="41"/>
-      <c r="AF104" s="41"/>
-      <c r="AG104" s="41"/>
-      <c r="AH104" s="41"/>
-      <c r="AI104" s="41"/>
-      <c r="AJ104" s="41"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
+      <c r="X104" s="42"/>
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="42"/>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AC104" s="42"/>
+      <c r="AD104" s="42"/>
+      <c r="AE104" s="42"/>
+      <c r="AF104" s="42"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="42"/>
+      <c r="AI104" s="42"/>
+      <c r="AJ104" s="42"/>
       <c r="AK104" s="9"/>
       <c r="AL104" s="9"/>
       <c r="AM104" s="17"/>
@@ -12859,58 +12868,58 @@
       <c r="AW104" s="31"/>
       <c r="AX104" s="18"/>
       <c r="AY104" s="18"/>
-      <c r="AZ104" s="53" t="s">
+      <c r="AZ104" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BA104" s="53"/>
-      <c r="BB104" s="53"/>
-      <c r="BC104" s="53"/>
-      <c r="BD104" s="53"/>
-      <c r="BE104" s="53"/>
-      <c r="BF104" s="53"/>
-      <c r="BG104" s="53"/>
-      <c r="BH104" s="53"/>
-      <c r="BI104" s="53"/>
-      <c r="BJ104" s="53"/>
-      <c r="BK104" s="53"/>
-      <c r="BL104" s="53"/>
-      <c r="BM104" s="53"/>
-      <c r="BN104" s="53"/>
-      <c r="BO104" s="53"/>
-      <c r="BP104" s="53"/>
-      <c r="BQ104" s="53"/>
-      <c r="BR104" s="53"/>
-      <c r="BS104" s="53"/>
-      <c r="BT104" s="53"/>
-      <c r="BU104" s="53"/>
-      <c r="BV104" s="53"/>
-      <c r="BW104" s="53"/>
-      <c r="BX104" s="53"/>
-      <c r="BY104" s="53"/>
-      <c r="BZ104" s="53"/>
-      <c r="CA104" s="53"/>
-      <c r="CB104" s="53"/>
-      <c r="CC104" s="53"/>
-      <c r="CD104" s="53"/>
-      <c r="CE104" s="53"/>
-      <c r="CF104" s="53"/>
-      <c r="CG104" s="53"/>
-      <c r="CH104" s="53"/>
-      <c r="CI104" s="53"/>
-      <c r="CJ104" s="53"/>
-      <c r="CK104" s="53"/>
-      <c r="CL104" s="53"/>
-      <c r="CM104" s="53"/>
-      <c r="CN104" s="53"/>
-      <c r="CO104" s="53"/>
-      <c r="CP104" s="53"/>
-      <c r="CQ104" s="53"/>
-      <c r="CR104" s="53"/>
-      <c r="CS104" s="53"/>
+      <c r="BA104" s="54"/>
+      <c r="BB104" s="54"/>
+      <c r="BC104" s="54"/>
+      <c r="BD104" s="54"/>
+      <c r="BE104" s="54"/>
+      <c r="BF104" s="54"/>
+      <c r="BG104" s="54"/>
+      <c r="BH104" s="54"/>
+      <c r="BI104" s="54"/>
+      <c r="BJ104" s="54"/>
+      <c r="BK104" s="54"/>
+      <c r="BL104" s="54"/>
+      <c r="BM104" s="54"/>
+      <c r="BN104" s="54"/>
+      <c r="BO104" s="54"/>
+      <c r="BP104" s="54"/>
+      <c r="BQ104" s="54"/>
+      <c r="BR104" s="54"/>
+      <c r="BS104" s="54"/>
+      <c r="BT104" s="54"/>
+      <c r="BU104" s="54"/>
+      <c r="BV104" s="54"/>
+      <c r="BW104" s="54"/>
+      <c r="BX104" s="54"/>
+      <c r="BY104" s="54"/>
+      <c r="BZ104" s="54"/>
+      <c r="CA104" s="54"/>
+      <c r="CB104" s="54"/>
+      <c r="CC104" s="54"/>
+      <c r="CD104" s="54"/>
+      <c r="CE104" s="54"/>
+      <c r="CF104" s="54"/>
+      <c r="CG104" s="54"/>
+      <c r="CH104" s="54"/>
+      <c r="CI104" s="54"/>
+      <c r="CJ104" s="54"/>
+      <c r="CK104" s="54"/>
+      <c r="CL104" s="54"/>
+      <c r="CM104" s="54"/>
+      <c r="CN104" s="54"/>
+      <c r="CO104" s="54"/>
+      <c r="CP104" s="54"/>
+      <c r="CQ104" s="54"/>
+      <c r="CR104" s="54"/>
+      <c r="CS104" s="54"/>
       <c r="CT104" s="18"/>
       <c r="CU104" s="18"/>
       <c r="CV104" s="17"/>
-      <c r="CW104" s="17"/>
+      <c r="CW104" s="33"/>
     </row>
     <row r="105" customHeight="1" spans="1:101">
       <c r="A105" s="9"/>
@@ -12919,36 +12928,36 @@
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="42"/>
-      <c r="T105" s="42"/>
-      <c r="U105" s="42"/>
-      <c r="V105" s="42"/>
-      <c r="W105" s="42"/>
-      <c r="X105" s="42"/>
-      <c r="Y105" s="42"/>
-      <c r="Z105" s="42"/>
-      <c r="AA105" s="42"/>
-      <c r="AB105" s="42"/>
-      <c r="AC105" s="42"/>
-      <c r="AD105" s="42"/>
-      <c r="AE105" s="42"/>
-      <c r="AF105" s="42"/>
-      <c r="AG105" s="42"/>
-      <c r="AH105" s="42"/>
-      <c r="AI105" s="42"/>
-      <c r="AJ105" s="42"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="43"/>
+      <c r="Y105" s="43"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="43"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="43"/>
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="43"/>
+      <c r="AH105" s="43"/>
+      <c r="AI105" s="43"/>
+      <c r="AJ105" s="43"/>
       <c r="AK105" s="9"/>
       <c r="AL105" s="9"/>
       <c r="AM105" s="17"/>
@@ -12964,56 +12973,56 @@
       <c r="AW105" s="31"/>
       <c r="AX105" s="18"/>
       <c r="AY105" s="18"/>
-      <c r="AZ105" s="53"/>
-      <c r="BA105" s="53"/>
-      <c r="BB105" s="53"/>
-      <c r="BC105" s="53"/>
-      <c r="BD105" s="53"/>
-      <c r="BE105" s="53"/>
-      <c r="BF105" s="53"/>
-      <c r="BG105" s="53"/>
-      <c r="BH105" s="53"/>
-      <c r="BI105" s="53"/>
-      <c r="BJ105" s="53"/>
-      <c r="BK105" s="53"/>
-      <c r="BL105" s="53"/>
-      <c r="BM105" s="53"/>
-      <c r="BN105" s="53"/>
-      <c r="BO105" s="53"/>
-      <c r="BP105" s="53"/>
-      <c r="BQ105" s="53"/>
-      <c r="BR105" s="53"/>
-      <c r="BS105" s="53"/>
-      <c r="BT105" s="53"/>
-      <c r="BU105" s="53"/>
-      <c r="BV105" s="53"/>
-      <c r="BW105" s="53"/>
-      <c r="BX105" s="53"/>
-      <c r="BY105" s="53"/>
-      <c r="BZ105" s="53"/>
-      <c r="CA105" s="53"/>
-      <c r="CB105" s="53"/>
-      <c r="CC105" s="53"/>
-      <c r="CD105" s="53"/>
-      <c r="CE105" s="53"/>
-      <c r="CF105" s="53"/>
-      <c r="CG105" s="53"/>
-      <c r="CH105" s="53"/>
-      <c r="CI105" s="53"/>
-      <c r="CJ105" s="53"/>
-      <c r="CK105" s="53"/>
-      <c r="CL105" s="53"/>
-      <c r="CM105" s="53"/>
-      <c r="CN105" s="53"/>
-      <c r="CO105" s="53"/>
-      <c r="CP105" s="53"/>
-      <c r="CQ105" s="53"/>
-      <c r="CR105" s="53"/>
-      <c r="CS105" s="53"/>
+      <c r="AZ105" s="54"/>
+      <c r="BA105" s="54"/>
+      <c r="BB105" s="54"/>
+      <c r="BC105" s="54"/>
+      <c r="BD105" s="54"/>
+      <c r="BE105" s="54"/>
+      <c r="BF105" s="54"/>
+      <c r="BG105" s="54"/>
+      <c r="BH105" s="54"/>
+      <c r="BI105" s="54"/>
+      <c r="BJ105" s="54"/>
+      <c r="BK105" s="54"/>
+      <c r="BL105" s="54"/>
+      <c r="BM105" s="54"/>
+      <c r="BN105" s="54"/>
+      <c r="BO105" s="54"/>
+      <c r="BP105" s="54"/>
+      <c r="BQ105" s="54"/>
+      <c r="BR105" s="54"/>
+      <c r="BS105" s="54"/>
+      <c r="BT105" s="54"/>
+      <c r="BU105" s="54"/>
+      <c r="BV105" s="54"/>
+      <c r="BW105" s="54"/>
+      <c r="BX105" s="54"/>
+      <c r="BY105" s="54"/>
+      <c r="BZ105" s="54"/>
+      <c r="CA105" s="54"/>
+      <c r="CB105" s="54"/>
+      <c r="CC105" s="54"/>
+      <c r="CD105" s="54"/>
+      <c r="CE105" s="54"/>
+      <c r="CF105" s="54"/>
+      <c r="CG105" s="54"/>
+      <c r="CH105" s="54"/>
+      <c r="CI105" s="54"/>
+      <c r="CJ105" s="54"/>
+      <c r="CK105" s="54"/>
+      <c r="CL105" s="54"/>
+      <c r="CM105" s="54"/>
+      <c r="CN105" s="54"/>
+      <c r="CO105" s="54"/>
+      <c r="CP105" s="54"/>
+      <c r="CQ105" s="54"/>
+      <c r="CR105" s="54"/>
+      <c r="CS105" s="54"/>
       <c r="CT105" s="18"/>
       <c r="CU105" s="18"/>
       <c r="CV105" s="17"/>
-      <c r="CW105" s="17"/>
+      <c r="CW105" s="33"/>
     </row>
     <row r="106" customHeight="1" spans="1:101">
       <c r="A106" s="9"/>
@@ -13022,38 +13031,38 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="43" t="s">
+      <c r="G106" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="43"/>
-      <c r="U106" s="43"/>
-      <c r="V106" s="43"/>
-      <c r="W106" s="43"/>
-      <c r="X106" s="43"/>
-      <c r="Y106" s="43"/>
-      <c r="Z106" s="43"/>
-      <c r="AA106" s="43"/>
-      <c r="AB106" s="43"/>
-      <c r="AC106" s="43"/>
-      <c r="AD106" s="43"/>
-      <c r="AE106" s="43"/>
-      <c r="AF106" s="43"/>
-      <c r="AG106" s="43"/>
-      <c r="AH106" s="43"/>
-      <c r="AI106" s="43"/>
-      <c r="AJ106" s="43"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="44"/>
+      <c r="U106" s="44"/>
+      <c r="V106" s="44"/>
+      <c r="W106" s="44"/>
+      <c r="X106" s="44"/>
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="44"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="44"/>
+      <c r="AC106" s="44"/>
+      <c r="AD106" s="44"/>
+      <c r="AE106" s="44"/>
+      <c r="AF106" s="44"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="44"/>
+      <c r="AI106" s="44"/>
+      <c r="AJ106" s="44"/>
       <c r="AK106" s="9"/>
       <c r="AL106" s="9"/>
       <c r="AM106" s="17"/>
@@ -13069,56 +13078,56 @@
       <c r="AW106" s="31"/>
       <c r="AX106" s="18"/>
       <c r="AY106" s="18"/>
-      <c r="AZ106" s="53"/>
-      <c r="BA106" s="53"/>
-      <c r="BB106" s="53"/>
-      <c r="BC106" s="53"/>
-      <c r="BD106" s="53"/>
-      <c r="BE106" s="53"/>
-      <c r="BF106" s="53"/>
-      <c r="BG106" s="53"/>
-      <c r="BH106" s="53"/>
-      <c r="BI106" s="53"/>
-      <c r="BJ106" s="53"/>
-      <c r="BK106" s="53"/>
-      <c r="BL106" s="53"/>
-      <c r="BM106" s="53"/>
-      <c r="BN106" s="53"/>
-      <c r="BO106" s="53"/>
-      <c r="BP106" s="53"/>
-      <c r="BQ106" s="53"/>
-      <c r="BR106" s="53"/>
-      <c r="BS106" s="53"/>
-      <c r="BT106" s="53"/>
-      <c r="BU106" s="53"/>
-      <c r="BV106" s="53"/>
-      <c r="BW106" s="53"/>
-      <c r="BX106" s="53"/>
-      <c r="BY106" s="53"/>
-      <c r="BZ106" s="53"/>
-      <c r="CA106" s="53"/>
-      <c r="CB106" s="53"/>
-      <c r="CC106" s="53"/>
-      <c r="CD106" s="53"/>
-      <c r="CE106" s="53"/>
-      <c r="CF106" s="53"/>
-      <c r="CG106" s="53"/>
-      <c r="CH106" s="53"/>
-      <c r="CI106" s="53"/>
-      <c r="CJ106" s="53"/>
-      <c r="CK106" s="53"/>
-      <c r="CL106" s="53"/>
-      <c r="CM106" s="53"/>
-      <c r="CN106" s="53"/>
-      <c r="CO106" s="53"/>
-      <c r="CP106" s="53"/>
-      <c r="CQ106" s="53"/>
-      <c r="CR106" s="53"/>
-      <c r="CS106" s="53"/>
+      <c r="AZ106" s="54"/>
+      <c r="BA106" s="54"/>
+      <c r="BB106" s="54"/>
+      <c r="BC106" s="54"/>
+      <c r="BD106" s="54"/>
+      <c r="BE106" s="54"/>
+      <c r="BF106" s="54"/>
+      <c r="BG106" s="54"/>
+      <c r="BH106" s="54"/>
+      <c r="BI106" s="54"/>
+      <c r="BJ106" s="54"/>
+      <c r="BK106" s="54"/>
+      <c r="BL106" s="54"/>
+      <c r="BM106" s="54"/>
+      <c r="BN106" s="54"/>
+      <c r="BO106" s="54"/>
+      <c r="BP106" s="54"/>
+      <c r="BQ106" s="54"/>
+      <c r="BR106" s="54"/>
+      <c r="BS106" s="54"/>
+      <c r="BT106" s="54"/>
+      <c r="BU106" s="54"/>
+      <c r="BV106" s="54"/>
+      <c r="BW106" s="54"/>
+      <c r="BX106" s="54"/>
+      <c r="BY106" s="54"/>
+      <c r="BZ106" s="54"/>
+      <c r="CA106" s="54"/>
+      <c r="CB106" s="54"/>
+      <c r="CC106" s="54"/>
+      <c r="CD106" s="54"/>
+      <c r="CE106" s="54"/>
+      <c r="CF106" s="54"/>
+      <c r="CG106" s="54"/>
+      <c r="CH106" s="54"/>
+      <c r="CI106" s="54"/>
+      <c r="CJ106" s="54"/>
+      <c r="CK106" s="54"/>
+      <c r="CL106" s="54"/>
+      <c r="CM106" s="54"/>
+      <c r="CN106" s="54"/>
+      <c r="CO106" s="54"/>
+      <c r="CP106" s="54"/>
+      <c r="CQ106" s="54"/>
+      <c r="CR106" s="54"/>
+      <c r="CS106" s="54"/>
       <c r="CT106" s="18"/>
       <c r="CU106" s="18"/>
       <c r="CV106" s="17"/>
-      <c r="CW106" s="17"/>
+      <c r="CW106" s="33"/>
     </row>
     <row r="107" customHeight="1" spans="1:101">
       <c r="A107" s="9"/>
@@ -13127,36 +13136,36 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
-      <c r="Q107" s="43"/>
-      <c r="R107" s="43"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="43"/>
-      <c r="U107" s="43"/>
-      <c r="V107" s="43"/>
-      <c r="W107" s="43"/>
-      <c r="X107" s="43"/>
-      <c r="Y107" s="43"/>
-      <c r="Z107" s="43"/>
-      <c r="AA107" s="43"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="43"/>
-      <c r="AJ107" s="43"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="44"/>
+      <c r="T107" s="44"/>
+      <c r="U107" s="44"/>
+      <c r="V107" s="44"/>
+      <c r="W107" s="44"/>
+      <c r="X107" s="44"/>
+      <c r="Y107" s="44"/>
+      <c r="Z107" s="44"/>
+      <c r="AA107" s="44"/>
+      <c r="AB107" s="44"/>
+      <c r="AC107" s="44"/>
+      <c r="AD107" s="44"/>
+      <c r="AE107" s="44"/>
+      <c r="AF107" s="44"/>
+      <c r="AG107" s="44"/>
+      <c r="AH107" s="44"/>
+      <c r="AI107" s="44"/>
+      <c r="AJ107" s="44"/>
       <c r="AK107" s="9"/>
       <c r="AL107" s="9"/>
       <c r="AM107" s="17"/>
@@ -13221,7 +13230,7 @@
       <c r="CT107" s="18"/>
       <c r="CU107" s="18"/>
       <c r="CV107" s="17"/>
-      <c r="CW107" s="17"/>
+      <c r="CW107" s="33"/>
     </row>
     <row r="108" customHeight="1" spans="1:101">
       <c r="A108" s="9"/>
@@ -13230,36 +13239,36 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
-      <c r="R108" s="43"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="43"/>
-      <c r="U108" s="43"/>
-      <c r="V108" s="43"/>
-      <c r="W108" s="43"/>
-      <c r="X108" s="43"/>
-      <c r="Y108" s="43"/>
-      <c r="Z108" s="43"/>
-      <c r="AA108" s="43"/>
-      <c r="AB108" s="43"/>
-      <c r="AC108" s="43"/>
-      <c r="AD108" s="43"/>
-      <c r="AE108" s="43"/>
-      <c r="AF108" s="43"/>
-      <c r="AG108" s="43"/>
-      <c r="AH108" s="43"/>
-      <c r="AI108" s="43"/>
-      <c r="AJ108" s="43"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="44"/>
+      <c r="N108" s="44"/>
+      <c r="O108" s="44"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="44"/>
+      <c r="T108" s="44"/>
+      <c r="U108" s="44"/>
+      <c r="V108" s="44"/>
+      <c r="W108" s="44"/>
+      <c r="X108" s="44"/>
+      <c r="Y108" s="44"/>
+      <c r="Z108" s="44"/>
+      <c r="AA108" s="44"/>
+      <c r="AB108" s="44"/>
+      <c r="AC108" s="44"/>
+      <c r="AD108" s="44"/>
+      <c r="AE108" s="44"/>
+      <c r="AF108" s="44"/>
+      <c r="AG108" s="44"/>
+      <c r="AH108" s="44"/>
+      <c r="AI108" s="44"/>
+      <c r="AJ108" s="44"/>
       <c r="AK108" s="9"/>
       <c r="AL108" s="9"/>
       <c r="AM108" s="17"/>
@@ -13324,7 +13333,7 @@
       <c r="CT108" s="18"/>
       <c r="CU108" s="18"/>
       <c r="CV108" s="17"/>
-      <c r="CW108" s="17"/>
+      <c r="CW108" s="33"/>
     </row>
     <row r="109" customHeight="1" spans="1:101">
       <c r="A109" s="9"/>
@@ -13333,36 +13342,36 @@
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="42"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="42"/>
-      <c r="V109" s="42"/>
-      <c r="W109" s="42"/>
-      <c r="X109" s="42"/>
-      <c r="Y109" s="42"/>
-      <c r="Z109" s="42"/>
-      <c r="AA109" s="42"/>
-      <c r="AB109" s="42"/>
-      <c r="AC109" s="42"/>
-      <c r="AD109" s="42"/>
-      <c r="AE109" s="42"/>
-      <c r="AF109" s="42"/>
-      <c r="AG109" s="42"/>
-      <c r="AH109" s="42"/>
-      <c r="AI109" s="42"/>
-      <c r="AJ109" s="42"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="43"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="43"/>
+      <c r="T109" s="43"/>
+      <c r="U109" s="43"/>
+      <c r="V109" s="43"/>
+      <c r="W109" s="43"/>
+      <c r="X109" s="43"/>
+      <c r="Y109" s="43"/>
+      <c r="Z109" s="43"/>
+      <c r="AA109" s="43"/>
+      <c r="AB109" s="43"/>
+      <c r="AC109" s="43"/>
+      <c r="AD109" s="43"/>
+      <c r="AE109" s="43"/>
+      <c r="AF109" s="43"/>
+      <c r="AG109" s="43"/>
+      <c r="AH109" s="43"/>
+      <c r="AI109" s="43"/>
+      <c r="AJ109" s="43"/>
       <c r="AK109" s="9"/>
       <c r="AL109" s="9"/>
       <c r="AM109" s="17"/>
@@ -13427,7 +13436,7 @@
       <c r="CT109" s="17"/>
       <c r="CU109" s="17"/>
       <c r="CV109" s="17"/>
-      <c r="CW109" s="17"/>
+      <c r="CW109" s="33"/>
     </row>
     <row r="110" customHeight="1" spans="1:101">
       <c r="A110" s="9"/>
@@ -13436,38 +13445,38 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="44" t="s">
+      <c r="G110" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="44"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-      <c r="S110" s="44"/>
-      <c r="T110" s="44"/>
-      <c r="U110" s="44"/>
-      <c r="V110" s="44"/>
-      <c r="W110" s="44"/>
-      <c r="X110" s="44"/>
-      <c r="Y110" s="44"/>
-      <c r="Z110" s="44"/>
-      <c r="AA110" s="44"/>
-      <c r="AB110" s="44"/>
-      <c r="AC110" s="44"/>
-      <c r="AD110" s="44"/>
-      <c r="AE110" s="44"/>
-      <c r="AF110" s="44"/>
-      <c r="AG110" s="44"/>
-      <c r="AH110" s="44"/>
-      <c r="AI110" s="44"/>
-      <c r="AJ110" s="44"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="45"/>
+      <c r="U110" s="45"/>
+      <c r="V110" s="45"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="45"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="45"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
+      <c r="AE110" s="45"/>
+      <c r="AF110" s="45"/>
+      <c r="AG110" s="45"/>
+      <c r="AH110" s="45"/>
+      <c r="AI110" s="45"/>
+      <c r="AJ110" s="45"/>
       <c r="AK110" s="9"/>
       <c r="AL110" s="9"/>
       <c r="AM110" s="17"/>
@@ -13532,7 +13541,7 @@
       <c r="CT110" s="17"/>
       <c r="CU110" s="17"/>
       <c r="CV110" s="17"/>
-      <c r="CW110" s="17"/>
+      <c r="CW110" s="33"/>
     </row>
     <row r="111" customHeight="1" spans="1:101">
       <c r="A111" s="9"/>
@@ -13541,36 +13550,36 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-      <c r="S111" s="44"/>
-      <c r="T111" s="44"/>
-      <c r="U111" s="44"/>
-      <c r="V111" s="44"/>
-      <c r="W111" s="44"/>
-      <c r="X111" s="44"/>
-      <c r="Y111" s="44"/>
-      <c r="Z111" s="44"/>
-      <c r="AA111" s="44"/>
-      <c r="AB111" s="44"/>
-      <c r="AC111" s="44"/>
-      <c r="AD111" s="44"/>
-      <c r="AE111" s="44"/>
-      <c r="AF111" s="44"/>
-      <c r="AG111" s="44"/>
-      <c r="AH111" s="44"/>
-      <c r="AI111" s="44"/>
-      <c r="AJ111" s="44"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="45"/>
+      <c r="X111" s="45"/>
+      <c r="Y111" s="45"/>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="45"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
+      <c r="AF111" s="45"/>
+      <c r="AG111" s="45"/>
+      <c r="AH111" s="45"/>
+      <c r="AI111" s="45"/>
+      <c r="AJ111" s="45"/>
       <c r="AK111" s="9"/>
       <c r="AL111" s="9"/>
       <c r="AM111" s="17"/>
@@ -13635,7 +13644,7 @@
       <c r="CT111" s="18"/>
       <c r="CU111" s="18"/>
       <c r="CV111" s="17"/>
-      <c r="CW111" s="17"/>
+      <c r="CW111" s="33"/>
     </row>
     <row r="112" customHeight="1" spans="1:101">
       <c r="A112" s="9"/>
@@ -13644,36 +13653,36 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-      <c r="S112" s="44"/>
-      <c r="T112" s="44"/>
-      <c r="U112" s="44"/>
-      <c r="V112" s="44"/>
-      <c r="W112" s="44"/>
-      <c r="X112" s="44"/>
-      <c r="Y112" s="44"/>
-      <c r="Z112" s="44"/>
-      <c r="AA112" s="44"/>
-      <c r="AB112" s="44"/>
-      <c r="AC112" s="44"/>
-      <c r="AD112" s="44"/>
-      <c r="AE112" s="44"/>
-      <c r="AF112" s="44"/>
-      <c r="AG112" s="44"/>
-      <c r="AH112" s="44"/>
-      <c r="AI112" s="44"/>
-      <c r="AJ112" s="44"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="45"/>
+      <c r="Q112" s="45"/>
+      <c r="R112" s="45"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="45"/>
+      <c r="V112" s="45"/>
+      <c r="W112" s="45"/>
+      <c r="X112" s="45"/>
+      <c r="Y112" s="45"/>
+      <c r="Z112" s="45"/>
+      <c r="AA112" s="45"/>
+      <c r="AB112" s="45"/>
+      <c r="AC112" s="45"/>
+      <c r="AD112" s="45"/>
+      <c r="AE112" s="45"/>
+      <c r="AF112" s="45"/>
+      <c r="AG112" s="45"/>
+      <c r="AH112" s="45"/>
+      <c r="AI112" s="45"/>
+      <c r="AJ112" s="45"/>
       <c r="AK112" s="9"/>
       <c r="AL112" s="9"/>
       <c r="AM112" s="17"/>
@@ -13738,7 +13747,7 @@
       <c r="CT112" s="18"/>
       <c r="CU112" s="18"/>
       <c r="CV112" s="17"/>
-      <c r="CW112" s="17"/>
+      <c r="CW112" s="33"/>
     </row>
     <row r="113" customHeight="1" spans="1:101">
       <c r="A113" s="9"/>
@@ -13747,36 +13756,36 @@
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
-      <c r="T113" s="42"/>
-      <c r="U113" s="42"/>
-      <c r="V113" s="42"/>
-      <c r="W113" s="42"/>
-      <c r="X113" s="42"/>
-      <c r="Y113" s="42"/>
-      <c r="Z113" s="42"/>
-      <c r="AA113" s="42"/>
-      <c r="AB113" s="42"/>
-      <c r="AC113" s="42"/>
-      <c r="AD113" s="42"/>
-      <c r="AE113" s="42"/>
-      <c r="AF113" s="42"/>
-      <c r="AG113" s="42"/>
-      <c r="AH113" s="42"/>
-      <c r="AI113" s="42"/>
-      <c r="AJ113" s="42"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
+      <c r="Q113" s="43"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="43"/>
+      <c r="T113" s="43"/>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="43"/>
+      <c r="X113" s="43"/>
+      <c r="Y113" s="43"/>
+      <c r="Z113" s="43"/>
+      <c r="AA113" s="43"/>
+      <c r="AB113" s="43"/>
+      <c r="AC113" s="43"/>
+      <c r="AD113" s="43"/>
+      <c r="AE113" s="43"/>
+      <c r="AF113" s="43"/>
+      <c r="AG113" s="43"/>
+      <c r="AH113" s="43"/>
+      <c r="AI113" s="43"/>
+      <c r="AJ113" s="43"/>
       <c r="AK113" s="9"/>
       <c r="AL113" s="9"/>
       <c r="AM113" s="17"/>
@@ -13843,7 +13852,7 @@
       <c r="CT113" s="18"/>
       <c r="CU113" s="18"/>
       <c r="CV113" s="17"/>
-      <c r="CW113" s="17"/>
+      <c r="CW113" s="33"/>
     </row>
     <row r="114" customHeight="1" spans="1:101">
       <c r="A114" s="9"/>
@@ -13852,38 +13861,38 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="45" t="s">
+      <c r="G114" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="42"/>
-      <c r="S114" s="42"/>
-      <c r="T114" s="42"/>
-      <c r="U114" s="42"/>
-      <c r="V114" s="42"/>
-      <c r="W114" s="42"/>
-      <c r="X114" s="42"/>
-      <c r="Y114" s="42"/>
-      <c r="Z114" s="42"/>
-      <c r="AA114" s="42"/>
-      <c r="AB114" s="42"/>
-      <c r="AC114" s="42"/>
-      <c r="AD114" s="42"/>
-      <c r="AE114" s="42"/>
-      <c r="AF114" s="42"/>
-      <c r="AG114" s="42"/>
-      <c r="AH114" s="42"/>
-      <c r="AI114" s="42"/>
-      <c r="AJ114" s="42"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
+      <c r="O114" s="43"/>
+      <c r="P114" s="43"/>
+      <c r="Q114" s="43"/>
+      <c r="R114" s="43"/>
+      <c r="S114" s="43"/>
+      <c r="T114" s="43"/>
+      <c r="U114" s="43"/>
+      <c r="V114" s="43"/>
+      <c r="W114" s="43"/>
+      <c r="X114" s="43"/>
+      <c r="Y114" s="43"/>
+      <c r="Z114" s="43"/>
+      <c r="AA114" s="43"/>
+      <c r="AB114" s="43"/>
+      <c r="AC114" s="43"/>
+      <c r="AD114" s="43"/>
+      <c r="AE114" s="43"/>
+      <c r="AF114" s="43"/>
+      <c r="AG114" s="43"/>
+      <c r="AH114" s="43"/>
+      <c r="AI114" s="43"/>
+      <c r="AJ114" s="43"/>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
       <c r="AM114" s="17"/>
@@ -13948,7 +13957,7 @@
       <c r="CT114" s="18"/>
       <c r="CU114" s="18"/>
       <c r="CV114" s="17"/>
-      <c r="CW114" s="17"/>
+      <c r="CW114" s="33"/>
     </row>
     <row r="115" customHeight="1" spans="1:101">
       <c r="A115" s="9"/>
@@ -13957,36 +13966,36 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="42"/>
-      <c r="M115" s="42"/>
-      <c r="N115" s="42"/>
-      <c r="O115" s="42"/>
-      <c r="P115" s="42"/>
-      <c r="Q115" s="42"/>
-      <c r="R115" s="42"/>
-      <c r="S115" s="42"/>
-      <c r="T115" s="42"/>
-      <c r="U115" s="42"/>
-      <c r="V115" s="42"/>
-      <c r="W115" s="42"/>
-      <c r="X115" s="42"/>
-      <c r="Y115" s="42"/>
-      <c r="Z115" s="42"/>
-      <c r="AA115" s="42"/>
-      <c r="AB115" s="42"/>
-      <c r="AC115" s="42"/>
-      <c r="AD115" s="42"/>
-      <c r="AE115" s="42"/>
-      <c r="AF115" s="42"/>
-      <c r="AG115" s="42"/>
-      <c r="AH115" s="42"/>
-      <c r="AI115" s="42"/>
-      <c r="AJ115" s="42"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
+      <c r="R115" s="43"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="43"/>
+      <c r="U115" s="43"/>
+      <c r="V115" s="43"/>
+      <c r="W115" s="43"/>
+      <c r="X115" s="43"/>
+      <c r="Y115" s="43"/>
+      <c r="Z115" s="43"/>
+      <c r="AA115" s="43"/>
+      <c r="AB115" s="43"/>
+      <c r="AC115" s="43"/>
+      <c r="AD115" s="43"/>
+      <c r="AE115" s="43"/>
+      <c r="AF115" s="43"/>
+      <c r="AG115" s="43"/>
+      <c r="AH115" s="43"/>
+      <c r="AI115" s="43"/>
+      <c r="AJ115" s="43"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
       <c r="AM115" s="17"/>
@@ -14051,7 +14060,7 @@
       <c r="CT115" s="18"/>
       <c r="CU115" s="18"/>
       <c r="CV115" s="17"/>
-      <c r="CW115" s="17"/>
+      <c r="CW115" s="33"/>
     </row>
     <row r="116" customHeight="1" spans="1:101">
       <c r="A116" s="9"/>
@@ -14060,36 +14069,36 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="42"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="42"/>
-      <c r="S116" s="42"/>
-      <c r="T116" s="42"/>
-      <c r="U116" s="42"/>
-      <c r="V116" s="42"/>
-      <c r="W116" s="42"/>
-      <c r="X116" s="42"/>
-      <c r="Y116" s="42"/>
-      <c r="Z116" s="42"/>
-      <c r="AA116" s="42"/>
-      <c r="AB116" s="42"/>
-      <c r="AC116" s="42"/>
-      <c r="AD116" s="42"/>
-      <c r="AE116" s="42"/>
-      <c r="AF116" s="42"/>
-      <c r="AG116" s="42"/>
-      <c r="AH116" s="42"/>
-      <c r="AI116" s="42"/>
-      <c r="AJ116" s="42"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+      <c r="V116" s="43"/>
+      <c r="W116" s="43"/>
+      <c r="X116" s="43"/>
+      <c r="Y116" s="43"/>
+      <c r="Z116" s="43"/>
+      <c r="AA116" s="43"/>
+      <c r="AB116" s="43"/>
+      <c r="AC116" s="43"/>
+      <c r="AD116" s="43"/>
+      <c r="AE116" s="43"/>
+      <c r="AF116" s="43"/>
+      <c r="AG116" s="43"/>
+      <c r="AH116" s="43"/>
+      <c r="AI116" s="43"/>
+      <c r="AJ116" s="43"/>
       <c r="AK116" s="9"/>
       <c r="AL116" s="9"/>
       <c r="AM116" s="17"/>
@@ -14154,7 +14163,7 @@
       <c r="CT116" s="18"/>
       <c r="CU116" s="18"/>
       <c r="CV116" s="17"/>
-      <c r="CW116" s="17"/>
+      <c r="CW116" s="33"/>
     </row>
     <row r="117" customHeight="1" spans="1:101">
       <c r="A117" s="9"/>
@@ -14163,36 +14172,36 @@
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="42"/>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="42"/>
-      <c r="T117" s="42"/>
-      <c r="U117" s="42"/>
-      <c r="V117" s="42"/>
-      <c r="W117" s="42"/>
-      <c r="X117" s="42"/>
-      <c r="Y117" s="42"/>
-      <c r="Z117" s="42"/>
-      <c r="AA117" s="42"/>
-      <c r="AB117" s="42"/>
-      <c r="AC117" s="42"/>
-      <c r="AD117" s="42"/>
-      <c r="AE117" s="42"/>
-      <c r="AF117" s="42"/>
-      <c r="AG117" s="42"/>
-      <c r="AH117" s="42"/>
-      <c r="AI117" s="42"/>
-      <c r="AJ117" s="42"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="43"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+      <c r="V117" s="43"/>
+      <c r="W117" s="43"/>
+      <c r="X117" s="43"/>
+      <c r="Y117" s="43"/>
+      <c r="Z117" s="43"/>
+      <c r="AA117" s="43"/>
+      <c r="AB117" s="43"/>
+      <c r="AC117" s="43"/>
+      <c r="AD117" s="43"/>
+      <c r="AE117" s="43"/>
+      <c r="AF117" s="43"/>
+      <c r="AG117" s="43"/>
+      <c r="AH117" s="43"/>
+      <c r="AI117" s="43"/>
+      <c r="AJ117" s="43"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9"/>
       <c r="AM117" s="17"/>
@@ -14257,7 +14266,7 @@
       <c r="CT117" s="18"/>
       <c r="CU117" s="18"/>
       <c r="CV117" s="17"/>
-      <c r="CW117" s="17"/>
+      <c r="CW117" s="33"/>
     </row>
     <row r="118" customHeight="1" spans="1:101">
       <c r="A118" s="9"/>
@@ -14266,38 +14275,38 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="42" t="s">
+      <c r="G118" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="42"/>
-      <c r="L118" s="42"/>
-      <c r="M118" s="42"/>
-      <c r="N118" s="42"/>
-      <c r="O118" s="42"/>
-      <c r="P118" s="42"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="42"/>
-      <c r="S118" s="42"/>
-      <c r="T118" s="42"/>
-      <c r="U118" s="42"/>
-      <c r="V118" s="42"/>
-      <c r="W118" s="42"/>
-      <c r="X118" s="42"/>
-      <c r="Y118" s="42"/>
-      <c r="Z118" s="42"/>
-      <c r="AA118" s="42"/>
-      <c r="AB118" s="42"/>
-      <c r="AC118" s="42"/>
-      <c r="AD118" s="42"/>
-      <c r="AE118" s="42"/>
-      <c r="AF118" s="42"/>
-      <c r="AG118" s="42"/>
-      <c r="AH118" s="42"/>
-      <c r="AI118" s="42"/>
-      <c r="AJ118" s="42"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="43"/>
+      <c r="P118" s="43"/>
+      <c r="Q118" s="43"/>
+      <c r="R118" s="43"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="43"/>
+      <c r="W118" s="43"/>
+      <c r="X118" s="43"/>
+      <c r="Y118" s="43"/>
+      <c r="Z118" s="43"/>
+      <c r="AA118" s="43"/>
+      <c r="AB118" s="43"/>
+      <c r="AC118" s="43"/>
+      <c r="AD118" s="43"/>
+      <c r="AE118" s="43"/>
+      <c r="AF118" s="43"/>
+      <c r="AG118" s="43"/>
+      <c r="AH118" s="43"/>
+      <c r="AI118" s="43"/>
+      <c r="AJ118" s="43"/>
       <c r="AK118" s="9"/>
       <c r="AL118" s="9"/>
       <c r="AM118" s="17"/>
@@ -14362,7 +14371,7 @@
       <c r="CT118" s="18"/>
       <c r="CU118" s="18"/>
       <c r="CV118" s="17"/>
-      <c r="CW118" s="17"/>
+      <c r="CW118" s="33"/>
     </row>
     <row r="119" customHeight="1" spans="1:101">
       <c r="A119" s="9"/>
@@ -14371,105 +14380,105 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="42"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="42"/>
-      <c r="T119" s="42"/>
-      <c r="U119" s="42"/>
-      <c r="V119" s="42"/>
-      <c r="W119" s="42"/>
-      <c r="X119" s="42"/>
-      <c r="Y119" s="42"/>
-      <c r="Z119" s="42"/>
-      <c r="AA119" s="42"/>
-      <c r="AB119" s="42"/>
-      <c r="AC119" s="42"/>
-      <c r="AD119" s="42"/>
-      <c r="AE119" s="42"/>
-      <c r="AF119" s="42"/>
-      <c r="AG119" s="42"/>
-      <c r="AH119" s="42"/>
-      <c r="AI119" s="42"/>
-      <c r="AJ119" s="42"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="43"/>
+      <c r="P119" s="43"/>
+      <c r="Q119" s="43"/>
+      <c r="R119" s="43"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="43"/>
+      <c r="W119" s="43"/>
+      <c r="X119" s="43"/>
+      <c r="Y119" s="43"/>
+      <c r="Z119" s="43"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
+      <c r="AC119" s="43"/>
+      <c r="AD119" s="43"/>
+      <c r="AE119" s="43"/>
+      <c r="AF119" s="43"/>
+      <c r="AG119" s="43"/>
+      <c r="AH119" s="43"/>
+      <c r="AI119" s="43"/>
+      <c r="AJ119" s="43"/>
       <c r="AK119" s="9"/>
       <c r="AL119" s="9"/>
       <c r="AM119" s="17"/>
       <c r="AN119" s="17"/>
       <c r="AO119" s="18"/>
       <c r="AP119" s="18"/>
-      <c r="AQ119" s="49" t="s">
+      <c r="AQ119" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AR119" s="49"/>
-      <c r="AS119" s="49"/>
-      <c r="AT119" s="49"/>
-      <c r="AU119" s="49"/>
-      <c r="AV119" s="49"/>
-      <c r="AW119" s="49"/>
-      <c r="AX119" s="49"/>
-      <c r="AY119" s="49"/>
-      <c r="AZ119" s="49"/>
-      <c r="BA119" s="49"/>
-      <c r="BB119" s="49"/>
-      <c r="BC119" s="49"/>
-      <c r="BD119" s="49"/>
-      <c r="BE119" s="49"/>
-      <c r="BF119" s="49"/>
-      <c r="BG119" s="49"/>
-      <c r="BH119" s="49"/>
-      <c r="BI119" s="49"/>
-      <c r="BJ119" s="49"/>
-      <c r="BK119" s="49"/>
-      <c r="BL119" s="49"/>
-      <c r="BM119" s="49"/>
-      <c r="BN119" s="49"/>
-      <c r="BO119" s="49"/>
-      <c r="BP119" s="49"/>
+      <c r="AR119" s="50"/>
+      <c r="AS119" s="50"/>
+      <c r="AT119" s="50"/>
+      <c r="AU119" s="50"/>
+      <c r="AV119" s="50"/>
+      <c r="AW119" s="50"/>
+      <c r="AX119" s="50"/>
+      <c r="AY119" s="50"/>
+      <c r="AZ119" s="50"/>
+      <c r="BA119" s="50"/>
+      <c r="BB119" s="50"/>
+      <c r="BC119" s="50"/>
+      <c r="BD119" s="50"/>
+      <c r="BE119" s="50"/>
+      <c r="BF119" s="50"/>
+      <c r="BG119" s="50"/>
+      <c r="BH119" s="50"/>
+      <c r="BI119" s="50"/>
+      <c r="BJ119" s="50"/>
+      <c r="BK119" s="50"/>
+      <c r="BL119" s="50"/>
+      <c r="BM119" s="50"/>
+      <c r="BN119" s="50"/>
+      <c r="BO119" s="50"/>
+      <c r="BP119" s="50"/>
       <c r="BQ119" s="31"/>
       <c r="BR119" s="31"/>
       <c r="BS119" s="31"/>
-      <c r="BT119" s="49" t="s">
+      <c r="BT119" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="BU119" s="49"/>
-      <c r="BV119" s="49"/>
-      <c r="BW119" s="49"/>
-      <c r="BX119" s="49"/>
-      <c r="BY119" s="49"/>
-      <c r="BZ119" s="49"/>
-      <c r="CA119" s="49"/>
-      <c r="CB119" s="49"/>
-      <c r="CC119" s="49"/>
-      <c r="CD119" s="49"/>
-      <c r="CE119" s="49"/>
-      <c r="CF119" s="49"/>
-      <c r="CG119" s="49"/>
-      <c r="CH119" s="49"/>
-      <c r="CI119" s="49"/>
-      <c r="CJ119" s="49"/>
-      <c r="CK119" s="49"/>
-      <c r="CL119" s="49"/>
-      <c r="CM119" s="49"/>
-      <c r="CN119" s="49"/>
-      <c r="CO119" s="49"/>
-      <c r="CP119" s="49"/>
-      <c r="CQ119" s="49"/>
-      <c r="CR119" s="49"/>
-      <c r="CS119" s="49"/>
+      <c r="BU119" s="50"/>
+      <c r="BV119" s="50"/>
+      <c r="BW119" s="50"/>
+      <c r="BX119" s="50"/>
+      <c r="BY119" s="50"/>
+      <c r="BZ119" s="50"/>
+      <c r="CA119" s="50"/>
+      <c r="CB119" s="50"/>
+      <c r="CC119" s="50"/>
+      <c r="CD119" s="50"/>
+      <c r="CE119" s="50"/>
+      <c r="CF119" s="50"/>
+      <c r="CG119" s="50"/>
+      <c r="CH119" s="50"/>
+      <c r="CI119" s="50"/>
+      <c r="CJ119" s="50"/>
+      <c r="CK119" s="50"/>
+      <c r="CL119" s="50"/>
+      <c r="CM119" s="50"/>
+      <c r="CN119" s="50"/>
+      <c r="CO119" s="50"/>
+      <c r="CP119" s="50"/>
+      <c r="CQ119" s="50"/>
+      <c r="CR119" s="50"/>
+      <c r="CS119" s="50"/>
       <c r="CT119" s="18"/>
       <c r="CU119" s="18"/>
       <c r="CV119" s="17"/>
-      <c r="CW119" s="17"/>
+      <c r="CW119" s="33"/>
     </row>
     <row r="120" customHeight="1" spans="1:101">
       <c r="A120" s="9"/>
@@ -14478,101 +14487,101 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="12"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
-      <c r="M120" s="42"/>
-      <c r="N120" s="42"/>
-      <c r="O120" s="42"/>
-      <c r="P120" s="42"/>
-      <c r="Q120" s="42"/>
-      <c r="R120" s="42"/>
-      <c r="S120" s="42"/>
-      <c r="T120" s="42"/>
-      <c r="U120" s="42"/>
-      <c r="V120" s="42"/>
-      <c r="W120" s="42"/>
-      <c r="X120" s="42"/>
-      <c r="Y120" s="42"/>
-      <c r="Z120" s="42"/>
-      <c r="AA120" s="42"/>
-      <c r="AB120" s="42"/>
-      <c r="AC120" s="42"/>
-      <c r="AD120" s="42"/>
-      <c r="AE120" s="42"/>
-      <c r="AF120" s="42"/>
-      <c r="AG120" s="42"/>
-      <c r="AH120" s="42"/>
-      <c r="AI120" s="42"/>
-      <c r="AJ120" s="42"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
+      <c r="P120" s="43"/>
+      <c r="Q120" s="43"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
+      <c r="U120" s="43"/>
+      <c r="V120" s="43"/>
+      <c r="W120" s="43"/>
+      <c r="X120" s="43"/>
+      <c r="Y120" s="43"/>
+      <c r="Z120" s="43"/>
+      <c r="AA120" s="43"/>
+      <c r="AB120" s="43"/>
+      <c r="AC120" s="43"/>
+      <c r="AD120" s="43"/>
+      <c r="AE120" s="43"/>
+      <c r="AF120" s="43"/>
+      <c r="AG120" s="43"/>
+      <c r="AH120" s="43"/>
+      <c r="AI120" s="43"/>
+      <c r="AJ120" s="43"/>
       <c r="AK120" s="9"/>
       <c r="AL120" s="9"/>
       <c r="AM120" s="17"/>
       <c r="AN120" s="17"/>
       <c r="AO120" s="18"/>
       <c r="AP120" s="18"/>
-      <c r="AQ120" s="49"/>
-      <c r="AR120" s="49"/>
-      <c r="AS120" s="49"/>
-      <c r="AT120" s="49"/>
-      <c r="AU120" s="49"/>
-      <c r="AV120" s="49"/>
-      <c r="AW120" s="49"/>
-      <c r="AX120" s="49"/>
-      <c r="AY120" s="49"/>
-      <c r="AZ120" s="49"/>
-      <c r="BA120" s="49"/>
-      <c r="BB120" s="49"/>
-      <c r="BC120" s="49"/>
-      <c r="BD120" s="49"/>
-      <c r="BE120" s="49"/>
-      <c r="BF120" s="49"/>
-      <c r="BG120" s="49"/>
-      <c r="BH120" s="49"/>
-      <c r="BI120" s="49"/>
-      <c r="BJ120" s="49"/>
-      <c r="BK120" s="49"/>
-      <c r="BL120" s="49"/>
-      <c r="BM120" s="49"/>
-      <c r="BN120" s="49"/>
-      <c r="BO120" s="49"/>
-      <c r="BP120" s="49"/>
+      <c r="AQ120" s="50"/>
+      <c r="AR120" s="50"/>
+      <c r="AS120" s="50"/>
+      <c r="AT120" s="50"/>
+      <c r="AU120" s="50"/>
+      <c r="AV120" s="50"/>
+      <c r="AW120" s="50"/>
+      <c r="AX120" s="50"/>
+      <c r="AY120" s="50"/>
+      <c r="AZ120" s="50"/>
+      <c r="BA120" s="50"/>
+      <c r="BB120" s="50"/>
+      <c r="BC120" s="50"/>
+      <c r="BD120" s="50"/>
+      <c r="BE120" s="50"/>
+      <c r="BF120" s="50"/>
+      <c r="BG120" s="50"/>
+      <c r="BH120" s="50"/>
+      <c r="BI120" s="50"/>
+      <c r="BJ120" s="50"/>
+      <c r="BK120" s="50"/>
+      <c r="BL120" s="50"/>
+      <c r="BM120" s="50"/>
+      <c r="BN120" s="50"/>
+      <c r="BO120" s="50"/>
+      <c r="BP120" s="50"/>
       <c r="BQ120" s="31"/>
       <c r="BR120" s="31"/>
       <c r="BS120" s="31"/>
-      <c r="BT120" s="49"/>
-      <c r="BU120" s="49"/>
-      <c r="BV120" s="49"/>
-      <c r="BW120" s="49"/>
-      <c r="BX120" s="49"/>
-      <c r="BY120" s="49"/>
-      <c r="BZ120" s="49"/>
-      <c r="CA120" s="49"/>
-      <c r="CB120" s="49"/>
-      <c r="CC120" s="49"/>
-      <c r="CD120" s="49"/>
-      <c r="CE120" s="49"/>
-      <c r="CF120" s="49"/>
-      <c r="CG120" s="49"/>
-      <c r="CH120" s="49"/>
-      <c r="CI120" s="49"/>
-      <c r="CJ120" s="49"/>
-      <c r="CK120" s="49"/>
-      <c r="CL120" s="49"/>
-      <c r="CM120" s="49"/>
-      <c r="CN120" s="49"/>
-      <c r="CO120" s="49"/>
-      <c r="CP120" s="49"/>
-      <c r="CQ120" s="49"/>
-      <c r="CR120" s="49"/>
-      <c r="CS120" s="49"/>
+      <c r="BT120" s="50"/>
+      <c r="BU120" s="50"/>
+      <c r="BV120" s="50"/>
+      <c r="BW120" s="50"/>
+      <c r="BX120" s="50"/>
+      <c r="BY120" s="50"/>
+      <c r="BZ120" s="50"/>
+      <c r="CA120" s="50"/>
+      <c r="CB120" s="50"/>
+      <c r="CC120" s="50"/>
+      <c r="CD120" s="50"/>
+      <c r="CE120" s="50"/>
+      <c r="CF120" s="50"/>
+      <c r="CG120" s="50"/>
+      <c r="CH120" s="50"/>
+      <c r="CI120" s="50"/>
+      <c r="CJ120" s="50"/>
+      <c r="CK120" s="50"/>
+      <c r="CL120" s="50"/>
+      <c r="CM120" s="50"/>
+      <c r="CN120" s="50"/>
+      <c r="CO120" s="50"/>
+      <c r="CP120" s="50"/>
+      <c r="CQ120" s="50"/>
+      <c r="CR120" s="50"/>
+      <c r="CS120" s="50"/>
       <c r="CT120" s="18"/>
       <c r="CU120" s="18"/>
       <c r="CV120" s="17"/>
-      <c r="CW120" s="17"/>
+      <c r="CW120" s="33"/>
     </row>
     <row r="121" customHeight="1" spans="1:101">
       <c r="A121" s="9"/>
@@ -14617,65 +14626,65 @@
       <c r="AN121" s="17"/>
       <c r="AO121" s="18"/>
       <c r="AP121" s="18"/>
-      <c r="AQ121" s="49"/>
-      <c r="AR121" s="49"/>
-      <c r="AS121" s="49"/>
-      <c r="AT121" s="49"/>
-      <c r="AU121" s="49"/>
-      <c r="AV121" s="49"/>
-      <c r="AW121" s="49"/>
-      <c r="AX121" s="49"/>
-      <c r="AY121" s="49"/>
-      <c r="AZ121" s="49"/>
-      <c r="BA121" s="49"/>
-      <c r="BB121" s="49"/>
-      <c r="BC121" s="49"/>
-      <c r="BD121" s="49"/>
-      <c r="BE121" s="49"/>
-      <c r="BF121" s="49"/>
-      <c r="BG121" s="49"/>
-      <c r="BH121" s="49"/>
-      <c r="BI121" s="49"/>
-      <c r="BJ121" s="49"/>
-      <c r="BK121" s="49"/>
-      <c r="BL121" s="49"/>
-      <c r="BM121" s="49"/>
-      <c r="BN121" s="49"/>
-      <c r="BO121" s="49"/>
-      <c r="BP121" s="49"/>
+      <c r="AQ121" s="50"/>
+      <c r="AR121" s="50"/>
+      <c r="AS121" s="50"/>
+      <c r="AT121" s="50"/>
+      <c r="AU121" s="50"/>
+      <c r="AV121" s="50"/>
+      <c r="AW121" s="50"/>
+      <c r="AX121" s="50"/>
+      <c r="AY121" s="50"/>
+      <c r="AZ121" s="50"/>
+      <c r="BA121" s="50"/>
+      <c r="BB121" s="50"/>
+      <c r="BC121" s="50"/>
+      <c r="BD121" s="50"/>
+      <c r="BE121" s="50"/>
+      <c r="BF121" s="50"/>
+      <c r="BG121" s="50"/>
+      <c r="BH121" s="50"/>
+      <c r="BI121" s="50"/>
+      <c r="BJ121" s="50"/>
+      <c r="BK121" s="50"/>
+      <c r="BL121" s="50"/>
+      <c r="BM121" s="50"/>
+      <c r="BN121" s="50"/>
+      <c r="BO121" s="50"/>
+      <c r="BP121" s="50"/>
       <c r="BQ121" s="31"/>
       <c r="BR121" s="31"/>
       <c r="BS121" s="31"/>
-      <c r="BT121" s="49"/>
-      <c r="BU121" s="49"/>
-      <c r="BV121" s="49"/>
-      <c r="BW121" s="49"/>
-      <c r="BX121" s="49"/>
-      <c r="BY121" s="49"/>
-      <c r="BZ121" s="49"/>
-      <c r="CA121" s="49"/>
-      <c r="CB121" s="49"/>
-      <c r="CC121" s="49"/>
-      <c r="CD121" s="49"/>
-      <c r="CE121" s="49"/>
-      <c r="CF121" s="49"/>
-      <c r="CG121" s="49"/>
-      <c r="CH121" s="49"/>
-      <c r="CI121" s="49"/>
-      <c r="CJ121" s="49"/>
-      <c r="CK121" s="49"/>
-      <c r="CL121" s="49"/>
-      <c r="CM121" s="49"/>
-      <c r="CN121" s="49"/>
-      <c r="CO121" s="49"/>
-      <c r="CP121" s="49"/>
-      <c r="CQ121" s="49"/>
-      <c r="CR121" s="49"/>
-      <c r="CS121" s="49"/>
+      <c r="BT121" s="50"/>
+      <c r="BU121" s="50"/>
+      <c r="BV121" s="50"/>
+      <c r="BW121" s="50"/>
+      <c r="BX121" s="50"/>
+      <c r="BY121" s="50"/>
+      <c r="BZ121" s="50"/>
+      <c r="CA121" s="50"/>
+      <c r="CB121" s="50"/>
+      <c r="CC121" s="50"/>
+      <c r="CD121" s="50"/>
+      <c r="CE121" s="50"/>
+      <c r="CF121" s="50"/>
+      <c r="CG121" s="50"/>
+      <c r="CH121" s="50"/>
+      <c r="CI121" s="50"/>
+      <c r="CJ121" s="50"/>
+      <c r="CK121" s="50"/>
+      <c r="CL121" s="50"/>
+      <c r="CM121" s="50"/>
+      <c r="CN121" s="50"/>
+      <c r="CO121" s="50"/>
+      <c r="CP121" s="50"/>
+      <c r="CQ121" s="50"/>
+      <c r="CR121" s="50"/>
+      <c r="CS121" s="50"/>
       <c r="CT121" s="18"/>
       <c r="CU121" s="18"/>
       <c r="CV121" s="17"/>
-      <c r="CW121" s="17"/>
+      <c r="CW121" s="33"/>
     </row>
     <row r="122" customHeight="1" spans="1:101">
       <c r="A122" s="9"/>
@@ -14720,65 +14729,65 @@
       <c r="AN122" s="17"/>
       <c r="AO122" s="18"/>
       <c r="AP122" s="18"/>
-      <c r="AQ122" s="50"/>
-      <c r="AR122" s="51"/>
-      <c r="AS122" s="51"/>
-      <c r="AT122" s="51"/>
-      <c r="AU122" s="51"/>
-      <c r="AV122" s="51"/>
-      <c r="AW122" s="51"/>
-      <c r="AX122" s="51"/>
-      <c r="AY122" s="51"/>
-      <c r="AZ122" s="51"/>
-      <c r="BA122" s="51"/>
-      <c r="BB122" s="51"/>
-      <c r="BC122" s="51"/>
-      <c r="BD122" s="54"/>
-      <c r="BE122" s="54"/>
-      <c r="BF122" s="54"/>
-      <c r="BG122" s="54"/>
-      <c r="BH122" s="54"/>
-      <c r="BI122" s="54"/>
-      <c r="BJ122" s="54"/>
-      <c r="BK122" s="54"/>
-      <c r="BL122" s="54"/>
-      <c r="BM122" s="54"/>
-      <c r="BN122" s="54"/>
-      <c r="BO122" s="54"/>
-      <c r="BP122" s="55"/>
+      <c r="AQ122" s="51"/>
+      <c r="AR122" s="52"/>
+      <c r="AS122" s="52"/>
+      <c r="AT122" s="52"/>
+      <c r="AU122" s="52"/>
+      <c r="AV122" s="52"/>
+      <c r="AW122" s="52"/>
+      <c r="AX122" s="52"/>
+      <c r="AY122" s="52"/>
+      <c r="AZ122" s="52"/>
+      <c r="BA122" s="52"/>
+      <c r="BB122" s="52"/>
+      <c r="BC122" s="52"/>
+      <c r="BD122" s="55"/>
+      <c r="BE122" s="55"/>
+      <c r="BF122" s="55"/>
+      <c r="BG122" s="55"/>
+      <c r="BH122" s="55"/>
+      <c r="BI122" s="55"/>
+      <c r="BJ122" s="55"/>
+      <c r="BK122" s="55"/>
+      <c r="BL122" s="55"/>
+      <c r="BM122" s="55"/>
+      <c r="BN122" s="55"/>
+      <c r="BO122" s="55"/>
+      <c r="BP122" s="56"/>
       <c r="BQ122" s="31"/>
       <c r="BR122" s="31"/>
       <c r="BS122" s="31"/>
-      <c r="BT122" s="50"/>
-      <c r="BU122" s="51"/>
-      <c r="BV122" s="51"/>
-      <c r="BW122" s="51"/>
-      <c r="BX122" s="51"/>
-      <c r="BY122" s="51"/>
-      <c r="BZ122" s="51"/>
-      <c r="CA122" s="51"/>
-      <c r="CB122" s="51"/>
-      <c r="CC122" s="54"/>
-      <c r="CD122" s="54"/>
-      <c r="CE122" s="54"/>
-      <c r="CF122" s="54"/>
-      <c r="CG122" s="54"/>
-      <c r="CH122" s="54"/>
-      <c r="CI122" s="54"/>
-      <c r="CJ122" s="54"/>
-      <c r="CK122" s="54"/>
-      <c r="CL122" s="54"/>
-      <c r="CM122" s="54"/>
-      <c r="CN122" s="54"/>
-      <c r="CO122" s="54"/>
-      <c r="CP122" s="54"/>
-      <c r="CQ122" s="54"/>
-      <c r="CR122" s="54"/>
-      <c r="CS122" s="55"/>
+      <c r="BT122" s="51"/>
+      <c r="BU122" s="52"/>
+      <c r="BV122" s="52"/>
+      <c r="BW122" s="52"/>
+      <c r="BX122" s="52"/>
+      <c r="BY122" s="52"/>
+      <c r="BZ122" s="52"/>
+      <c r="CA122" s="52"/>
+      <c r="CB122" s="52"/>
+      <c r="CC122" s="55"/>
+      <c r="CD122" s="55"/>
+      <c r="CE122" s="55"/>
+      <c r="CF122" s="55"/>
+      <c r="CG122" s="55"/>
+      <c r="CH122" s="55"/>
+      <c r="CI122" s="55"/>
+      <c r="CJ122" s="55"/>
+      <c r="CK122" s="55"/>
+      <c r="CL122" s="55"/>
+      <c r="CM122" s="55"/>
+      <c r="CN122" s="55"/>
+      <c r="CO122" s="55"/>
+      <c r="CP122" s="55"/>
+      <c r="CQ122" s="55"/>
+      <c r="CR122" s="55"/>
+      <c r="CS122" s="56"/>
       <c r="CT122" s="18"/>
       <c r="CU122" s="18"/>
       <c r="CV122" s="17"/>
-      <c r="CW122" s="17"/>
+      <c r="CW122" s="33"/>
     </row>
     <row r="123" customHeight="1" spans="1:101">
       <c r="A123" s="9"/>
@@ -14881,7 +14890,7 @@
       <c r="CT123" s="18"/>
       <c r="CU123" s="18"/>
       <c r="CV123" s="17"/>
-      <c r="CW123" s="17"/>
+      <c r="CW123" s="33"/>
     </row>
     <row r="124" customHeight="1" spans="1:101">
       <c r="A124" s="9"/>
@@ -14928,69 +14937,69 @@
       <c r="AN124" s="17"/>
       <c r="AO124" s="18"/>
       <c r="AP124" s="18"/>
-      <c r="AQ124" s="49" t="s">
+      <c r="AQ124" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AR124" s="49"/>
-      <c r="AS124" s="49"/>
-      <c r="AT124" s="49"/>
-      <c r="AU124" s="49"/>
-      <c r="AV124" s="49"/>
-      <c r="AW124" s="49"/>
-      <c r="AX124" s="49"/>
-      <c r="AY124" s="49"/>
-      <c r="AZ124" s="49"/>
-      <c r="BA124" s="49"/>
-      <c r="BB124" s="49"/>
-      <c r="BC124" s="49"/>
-      <c r="BD124" s="49"/>
-      <c r="BE124" s="49"/>
-      <c r="BF124" s="49"/>
-      <c r="BG124" s="49"/>
-      <c r="BH124" s="49"/>
-      <c r="BI124" s="49"/>
-      <c r="BJ124" s="49"/>
-      <c r="BK124" s="49"/>
-      <c r="BL124" s="49"/>
-      <c r="BM124" s="49"/>
-      <c r="BN124" s="49"/>
-      <c r="BO124" s="49"/>
-      <c r="BP124" s="49"/>
+      <c r="AR124" s="50"/>
+      <c r="AS124" s="50"/>
+      <c r="AT124" s="50"/>
+      <c r="AU124" s="50"/>
+      <c r="AV124" s="50"/>
+      <c r="AW124" s="50"/>
+      <c r="AX124" s="50"/>
+      <c r="AY124" s="50"/>
+      <c r="AZ124" s="50"/>
+      <c r="BA124" s="50"/>
+      <c r="BB124" s="50"/>
+      <c r="BC124" s="50"/>
+      <c r="BD124" s="50"/>
+      <c r="BE124" s="50"/>
+      <c r="BF124" s="50"/>
+      <c r="BG124" s="50"/>
+      <c r="BH124" s="50"/>
+      <c r="BI124" s="50"/>
+      <c r="BJ124" s="50"/>
+      <c r="BK124" s="50"/>
+      <c r="BL124" s="50"/>
+      <c r="BM124" s="50"/>
+      <c r="BN124" s="50"/>
+      <c r="BO124" s="50"/>
+      <c r="BP124" s="50"/>
       <c r="BQ124" s="31"/>
       <c r="BR124" s="31"/>
       <c r="BS124" s="31"/>
-      <c r="BT124" s="49" t="s">
+      <c r="BT124" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="BU124" s="49"/>
-      <c r="BV124" s="49"/>
-      <c r="BW124" s="49"/>
-      <c r="BX124" s="49"/>
-      <c r="BY124" s="49"/>
-      <c r="BZ124" s="49"/>
-      <c r="CA124" s="49"/>
-      <c r="CB124" s="49"/>
-      <c r="CC124" s="49"/>
-      <c r="CD124" s="49"/>
-      <c r="CE124" s="49"/>
-      <c r="CF124" s="49"/>
-      <c r="CG124" s="49"/>
-      <c r="CH124" s="49"/>
-      <c r="CI124" s="49"/>
-      <c r="CJ124" s="49"/>
-      <c r="CK124" s="49"/>
-      <c r="CL124" s="49"/>
-      <c r="CM124" s="49"/>
-      <c r="CN124" s="49"/>
-      <c r="CO124" s="49"/>
-      <c r="CP124" s="49"/>
-      <c r="CQ124" s="49"/>
-      <c r="CR124" s="49"/>
-      <c r="CS124" s="49"/>
+      <c r="BU124" s="50"/>
+      <c r="BV124" s="50"/>
+      <c r="BW124" s="50"/>
+      <c r="BX124" s="50"/>
+      <c r="BY124" s="50"/>
+      <c r="BZ124" s="50"/>
+      <c r="CA124" s="50"/>
+      <c r="CB124" s="50"/>
+      <c r="CC124" s="50"/>
+      <c r="CD124" s="50"/>
+      <c r="CE124" s="50"/>
+      <c r="CF124" s="50"/>
+      <c r="CG124" s="50"/>
+      <c r="CH124" s="50"/>
+      <c r="CI124" s="50"/>
+      <c r="CJ124" s="50"/>
+      <c r="CK124" s="50"/>
+      <c r="CL124" s="50"/>
+      <c r="CM124" s="50"/>
+      <c r="CN124" s="50"/>
+      <c r="CO124" s="50"/>
+      <c r="CP124" s="50"/>
+      <c r="CQ124" s="50"/>
+      <c r="CR124" s="50"/>
+      <c r="CS124" s="50"/>
       <c r="CT124" s="18"/>
       <c r="CU124" s="18"/>
       <c r="CV124" s="17"/>
-      <c r="CW124" s="17"/>
+      <c r="CW124" s="33"/>
     </row>
     <row r="125" customHeight="1" spans="1:101">
       <c r="A125" s="9"/>
@@ -15035,65 +15044,65 @@
       <c r="AN125" s="17"/>
       <c r="AO125" s="18"/>
       <c r="AP125" s="18"/>
-      <c r="AQ125" s="49"/>
-      <c r="AR125" s="49"/>
-      <c r="AS125" s="49"/>
-      <c r="AT125" s="49"/>
-      <c r="AU125" s="49"/>
-      <c r="AV125" s="49"/>
-      <c r="AW125" s="49"/>
-      <c r="AX125" s="49"/>
-      <c r="AY125" s="49"/>
-      <c r="AZ125" s="49"/>
-      <c r="BA125" s="49"/>
-      <c r="BB125" s="49"/>
-      <c r="BC125" s="49"/>
-      <c r="BD125" s="49"/>
-      <c r="BE125" s="49"/>
-      <c r="BF125" s="49"/>
-      <c r="BG125" s="49"/>
-      <c r="BH125" s="49"/>
-      <c r="BI125" s="49"/>
-      <c r="BJ125" s="49"/>
-      <c r="BK125" s="49"/>
-      <c r="BL125" s="49"/>
-      <c r="BM125" s="49"/>
-      <c r="BN125" s="49"/>
-      <c r="BO125" s="49"/>
-      <c r="BP125" s="49"/>
+      <c r="AQ125" s="50"/>
+      <c r="AR125" s="50"/>
+      <c r="AS125" s="50"/>
+      <c r="AT125" s="50"/>
+      <c r="AU125" s="50"/>
+      <c r="AV125" s="50"/>
+      <c r="AW125" s="50"/>
+      <c r="AX125" s="50"/>
+      <c r="AY125" s="50"/>
+      <c r="AZ125" s="50"/>
+      <c r="BA125" s="50"/>
+      <c r="BB125" s="50"/>
+      <c r="BC125" s="50"/>
+      <c r="BD125" s="50"/>
+      <c r="BE125" s="50"/>
+      <c r="BF125" s="50"/>
+      <c r="BG125" s="50"/>
+      <c r="BH125" s="50"/>
+      <c r="BI125" s="50"/>
+      <c r="BJ125" s="50"/>
+      <c r="BK125" s="50"/>
+      <c r="BL125" s="50"/>
+      <c r="BM125" s="50"/>
+      <c r="BN125" s="50"/>
+      <c r="BO125" s="50"/>
+      <c r="BP125" s="50"/>
       <c r="BQ125" s="31"/>
       <c r="BR125" s="31"/>
       <c r="BS125" s="31"/>
-      <c r="BT125" s="49"/>
-      <c r="BU125" s="49"/>
-      <c r="BV125" s="49"/>
-      <c r="BW125" s="49"/>
-      <c r="BX125" s="49"/>
-      <c r="BY125" s="49"/>
-      <c r="BZ125" s="49"/>
-      <c r="CA125" s="49"/>
-      <c r="CB125" s="49"/>
-      <c r="CC125" s="49"/>
-      <c r="CD125" s="49"/>
-      <c r="CE125" s="49"/>
-      <c r="CF125" s="49"/>
-      <c r="CG125" s="49"/>
-      <c r="CH125" s="49"/>
-      <c r="CI125" s="49"/>
-      <c r="CJ125" s="49"/>
-      <c r="CK125" s="49"/>
-      <c r="CL125" s="49"/>
-      <c r="CM125" s="49"/>
-      <c r="CN125" s="49"/>
-      <c r="CO125" s="49"/>
-      <c r="CP125" s="49"/>
-      <c r="CQ125" s="49"/>
-      <c r="CR125" s="49"/>
-      <c r="CS125" s="49"/>
+      <c r="BT125" s="50"/>
+      <c r="BU125" s="50"/>
+      <c r="BV125" s="50"/>
+      <c r="BW125" s="50"/>
+      <c r="BX125" s="50"/>
+      <c r="BY125" s="50"/>
+      <c r="BZ125" s="50"/>
+      <c r="CA125" s="50"/>
+      <c r="CB125" s="50"/>
+      <c r="CC125" s="50"/>
+      <c r="CD125" s="50"/>
+      <c r="CE125" s="50"/>
+      <c r="CF125" s="50"/>
+      <c r="CG125" s="50"/>
+      <c r="CH125" s="50"/>
+      <c r="CI125" s="50"/>
+      <c r="CJ125" s="50"/>
+      <c r="CK125" s="50"/>
+      <c r="CL125" s="50"/>
+      <c r="CM125" s="50"/>
+      <c r="CN125" s="50"/>
+      <c r="CO125" s="50"/>
+      <c r="CP125" s="50"/>
+      <c r="CQ125" s="50"/>
+      <c r="CR125" s="50"/>
+      <c r="CS125" s="50"/>
       <c r="CT125" s="18"/>
       <c r="CU125" s="18"/>
       <c r="CV125" s="17"/>
-      <c r="CW125" s="17"/>
+      <c r="CW125" s="33"/>
     </row>
     <row r="126" customHeight="1" spans="1:101">
       <c r="A126" s="9"/>
@@ -15138,65 +15147,65 @@
       <c r="AN126" s="17"/>
       <c r="AO126" s="18"/>
       <c r="AP126" s="18"/>
-      <c r="AQ126" s="49"/>
-      <c r="AR126" s="49"/>
-      <c r="AS126" s="49"/>
-      <c r="AT126" s="49"/>
-      <c r="AU126" s="49"/>
-      <c r="AV126" s="49"/>
-      <c r="AW126" s="49"/>
-      <c r="AX126" s="49"/>
-      <c r="AY126" s="49"/>
-      <c r="AZ126" s="49"/>
-      <c r="BA126" s="49"/>
-      <c r="BB126" s="49"/>
-      <c r="BC126" s="49"/>
-      <c r="BD126" s="49"/>
-      <c r="BE126" s="49"/>
-      <c r="BF126" s="49"/>
-      <c r="BG126" s="49"/>
-      <c r="BH126" s="49"/>
-      <c r="BI126" s="49"/>
-      <c r="BJ126" s="49"/>
-      <c r="BK126" s="49"/>
-      <c r="BL126" s="49"/>
-      <c r="BM126" s="49"/>
-      <c r="BN126" s="49"/>
-      <c r="BO126" s="49"/>
-      <c r="BP126" s="49"/>
+      <c r="AQ126" s="50"/>
+      <c r="AR126" s="50"/>
+      <c r="AS126" s="50"/>
+      <c r="AT126" s="50"/>
+      <c r="AU126" s="50"/>
+      <c r="AV126" s="50"/>
+      <c r="AW126" s="50"/>
+      <c r="AX126" s="50"/>
+      <c r="AY126" s="50"/>
+      <c r="AZ126" s="50"/>
+      <c r="BA126" s="50"/>
+      <c r="BB126" s="50"/>
+      <c r="BC126" s="50"/>
+      <c r="BD126" s="50"/>
+      <c r="BE126" s="50"/>
+      <c r="BF126" s="50"/>
+      <c r="BG126" s="50"/>
+      <c r="BH126" s="50"/>
+      <c r="BI126" s="50"/>
+      <c r="BJ126" s="50"/>
+      <c r="BK126" s="50"/>
+      <c r="BL126" s="50"/>
+      <c r="BM126" s="50"/>
+      <c r="BN126" s="50"/>
+      <c r="BO126" s="50"/>
+      <c r="BP126" s="50"/>
       <c r="BQ126" s="31"/>
       <c r="BR126" s="31"/>
       <c r="BS126" s="31"/>
-      <c r="BT126" s="49"/>
-      <c r="BU126" s="49"/>
-      <c r="BV126" s="49"/>
-      <c r="BW126" s="49"/>
-      <c r="BX126" s="49"/>
-      <c r="BY126" s="49"/>
-      <c r="BZ126" s="49"/>
-      <c r="CA126" s="49"/>
-      <c r="CB126" s="49"/>
-      <c r="CC126" s="49"/>
-      <c r="CD126" s="49"/>
-      <c r="CE126" s="49"/>
-      <c r="CF126" s="49"/>
-      <c r="CG126" s="49"/>
-      <c r="CH126" s="49"/>
-      <c r="CI126" s="49"/>
-      <c r="CJ126" s="49"/>
-      <c r="CK126" s="49"/>
-      <c r="CL126" s="49"/>
-      <c r="CM126" s="49"/>
-      <c r="CN126" s="49"/>
-      <c r="CO126" s="49"/>
-      <c r="CP126" s="49"/>
-      <c r="CQ126" s="49"/>
-      <c r="CR126" s="49"/>
-      <c r="CS126" s="49"/>
+      <c r="BT126" s="50"/>
+      <c r="BU126" s="50"/>
+      <c r="BV126" s="50"/>
+      <c r="BW126" s="50"/>
+      <c r="BX126" s="50"/>
+      <c r="BY126" s="50"/>
+      <c r="BZ126" s="50"/>
+      <c r="CA126" s="50"/>
+      <c r="CB126" s="50"/>
+      <c r="CC126" s="50"/>
+      <c r="CD126" s="50"/>
+      <c r="CE126" s="50"/>
+      <c r="CF126" s="50"/>
+      <c r="CG126" s="50"/>
+      <c r="CH126" s="50"/>
+      <c r="CI126" s="50"/>
+      <c r="CJ126" s="50"/>
+      <c r="CK126" s="50"/>
+      <c r="CL126" s="50"/>
+      <c r="CM126" s="50"/>
+      <c r="CN126" s="50"/>
+      <c r="CO126" s="50"/>
+      <c r="CP126" s="50"/>
+      <c r="CQ126" s="50"/>
+      <c r="CR126" s="50"/>
+      <c r="CS126" s="50"/>
       <c r="CT126" s="18"/>
       <c r="CU126" s="18"/>
       <c r="CV126" s="17"/>
-      <c r="CW126" s="17"/>
+      <c r="CW126" s="33"/>
     </row>
     <row r="127" customHeight="1" spans="1:101">
       <c r="A127" s="9"/>
@@ -15241,65 +15250,65 @@
       <c r="AN127" s="17"/>
       <c r="AO127" s="18"/>
       <c r="AP127" s="18"/>
-      <c r="AQ127" s="50"/>
-      <c r="AR127" s="51"/>
-      <c r="AS127" s="51"/>
-      <c r="AT127" s="51"/>
-      <c r="AU127" s="51"/>
-      <c r="AV127" s="51"/>
-      <c r="AW127" s="51"/>
-      <c r="AX127" s="51"/>
-      <c r="AY127" s="51"/>
-      <c r="AZ127" s="51"/>
-      <c r="BA127" s="51"/>
-      <c r="BB127" s="51"/>
-      <c r="BC127" s="51"/>
-      <c r="BD127" s="51"/>
-      <c r="BE127" s="51"/>
-      <c r="BF127" s="54"/>
-      <c r="BG127" s="54"/>
-      <c r="BH127" s="54"/>
-      <c r="BI127" s="54"/>
-      <c r="BJ127" s="54"/>
-      <c r="BK127" s="54"/>
-      <c r="BL127" s="54"/>
-      <c r="BM127" s="54"/>
-      <c r="BN127" s="54"/>
-      <c r="BO127" s="54"/>
-      <c r="BP127" s="55"/>
+      <c r="AQ127" s="51"/>
+      <c r="AR127" s="52"/>
+      <c r="AS127" s="52"/>
+      <c r="AT127" s="52"/>
+      <c r="AU127" s="52"/>
+      <c r="AV127" s="52"/>
+      <c r="AW127" s="52"/>
+      <c r="AX127" s="52"/>
+      <c r="AY127" s="52"/>
+      <c r="AZ127" s="52"/>
+      <c r="BA127" s="52"/>
+      <c r="BB127" s="52"/>
+      <c r="BC127" s="52"/>
+      <c r="BD127" s="52"/>
+      <c r="BE127" s="52"/>
+      <c r="BF127" s="55"/>
+      <c r="BG127" s="55"/>
+      <c r="BH127" s="55"/>
+      <c r="BI127" s="55"/>
+      <c r="BJ127" s="55"/>
+      <c r="BK127" s="55"/>
+      <c r="BL127" s="55"/>
+      <c r="BM127" s="55"/>
+      <c r="BN127" s="55"/>
+      <c r="BO127" s="55"/>
+      <c r="BP127" s="56"/>
       <c r="BQ127" s="31"/>
       <c r="BR127" s="31"/>
       <c r="BS127" s="31"/>
-      <c r="BT127" s="50"/>
-      <c r="BU127" s="51"/>
-      <c r="BV127" s="51"/>
-      <c r="BW127" s="51"/>
-      <c r="BX127" s="51"/>
-      <c r="BY127" s="51"/>
-      <c r="BZ127" s="54"/>
-      <c r="CA127" s="54"/>
-      <c r="CB127" s="54"/>
-      <c r="CC127" s="54"/>
-      <c r="CD127" s="54"/>
-      <c r="CE127" s="54"/>
-      <c r="CF127" s="54"/>
-      <c r="CG127" s="54"/>
-      <c r="CH127" s="54"/>
-      <c r="CI127" s="54"/>
-      <c r="CJ127" s="54"/>
-      <c r="CK127" s="54"/>
-      <c r="CL127" s="54"/>
-      <c r="CM127" s="54"/>
-      <c r="CN127" s="54"/>
-      <c r="CO127" s="54"/>
-      <c r="CP127" s="54"/>
-      <c r="CQ127" s="54"/>
-      <c r="CR127" s="54"/>
-      <c r="CS127" s="55"/>
+      <c r="BT127" s="51"/>
+      <c r="BU127" s="52"/>
+      <c r="BV127" s="52"/>
+      <c r="BW127" s="52"/>
+      <c r="BX127" s="52"/>
+      <c r="BY127" s="52"/>
+      <c r="BZ127" s="55"/>
+      <c r="CA127" s="55"/>
+      <c r="CB127" s="55"/>
+      <c r="CC127" s="55"/>
+      <c r="CD127" s="55"/>
+      <c r="CE127" s="55"/>
+      <c r="CF127" s="55"/>
+      <c r="CG127" s="55"/>
+      <c r="CH127" s="55"/>
+      <c r="CI127" s="55"/>
+      <c r="CJ127" s="55"/>
+      <c r="CK127" s="55"/>
+      <c r="CL127" s="55"/>
+      <c r="CM127" s="55"/>
+      <c r="CN127" s="55"/>
+      <c r="CO127" s="55"/>
+      <c r="CP127" s="55"/>
+      <c r="CQ127" s="55"/>
+      <c r="CR127" s="55"/>
+      <c r="CS127" s="56"/>
       <c r="CT127" s="18"/>
       <c r="CU127" s="18"/>
       <c r="CV127" s="17"/>
-      <c r="CW127" s="17"/>
+      <c r="CW127" s="33"/>
     </row>
     <row r="128" customHeight="1" spans="1:101">
       <c r="A128" s="9"/>
@@ -15402,322 +15411,322 @@
       <c r="CT128" s="18"/>
       <c r="CU128" s="18"/>
       <c r="CV128" s="17"/>
-      <c r="CW128" s="17"/>
+      <c r="CW128" s="33"/>
     </row>
     <row r="129" customHeight="1" spans="1:101">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
-      <c r="C129" s="56" t="s">
+      <c r="C129" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="56"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="56"/>
-      <c r="L129" s="56"/>
-      <c r="M129" s="56"/>
-      <c r="N129" s="56"/>
-      <c r="O129" s="56"/>
-      <c r="P129" s="56"/>
-      <c r="Q129" s="56"/>
-      <c r="R129" s="56"/>
-      <c r="S129" s="56"/>
-      <c r="T129" s="56"/>
-      <c r="U129" s="56"/>
-      <c r="V129" s="56"/>
-      <c r="W129" s="56"/>
-      <c r="X129" s="56"/>
-      <c r="Y129" s="56"/>
-      <c r="Z129" s="56"/>
-      <c r="AA129" s="56"/>
-      <c r="AB129" s="56"/>
-      <c r="AC129" s="56"/>
-      <c r="AD129" s="56"/>
-      <c r="AE129" s="56"/>
-      <c r="AF129" s="56"/>
-      <c r="AG129" s="56"/>
-      <c r="AH129" s="56"/>
-      <c r="AI129" s="56"/>
-      <c r="AJ129" s="56"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="57"/>
+      <c r="L129" s="57"/>
+      <c r="M129" s="57"/>
+      <c r="N129" s="57"/>
+      <c r="O129" s="57"/>
+      <c r="P129" s="57"/>
+      <c r="Q129" s="57"/>
+      <c r="R129" s="57"/>
+      <c r="S129" s="57"/>
+      <c r="T129" s="57"/>
+      <c r="U129" s="57"/>
+      <c r="V129" s="57"/>
+      <c r="W129" s="57"/>
+      <c r="X129" s="57"/>
+      <c r="Y129" s="57"/>
+      <c r="Z129" s="57"/>
+      <c r="AA129" s="57"/>
+      <c r="AB129" s="57"/>
+      <c r="AC129" s="57"/>
+      <c r="AD129" s="57"/>
+      <c r="AE129" s="57"/>
+      <c r="AF129" s="57"/>
+      <c r="AG129" s="57"/>
+      <c r="AH129" s="57"/>
+      <c r="AI129" s="57"/>
+      <c r="AJ129" s="57"/>
       <c r="AK129" s="9"/>
       <c r="AL129" s="9"/>
       <c r="AM129" s="17"/>
       <c r="AN129" s="17"/>
       <c r="AO129" s="18"/>
       <c r="AP129" s="18"/>
-      <c r="AQ129" s="49" t="s">
+      <c r="AQ129" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AR129" s="49"/>
-      <c r="AS129" s="49"/>
-      <c r="AT129" s="49"/>
-      <c r="AU129" s="49"/>
-      <c r="AV129" s="49"/>
-      <c r="AW129" s="49"/>
-      <c r="AX129" s="49"/>
-      <c r="AY129" s="49"/>
-      <c r="AZ129" s="49"/>
-      <c r="BA129" s="49"/>
-      <c r="BB129" s="49"/>
-      <c r="BC129" s="49"/>
-      <c r="BD129" s="49"/>
-      <c r="BE129" s="49"/>
-      <c r="BF129" s="49"/>
-      <c r="BG129" s="49"/>
-      <c r="BH129" s="49"/>
-      <c r="BI129" s="49"/>
-      <c r="BJ129" s="49"/>
-      <c r="BK129" s="49"/>
-      <c r="BL129" s="49"/>
-      <c r="BM129" s="49"/>
-      <c r="BN129" s="49"/>
-      <c r="BO129" s="49"/>
-      <c r="BP129" s="49"/>
+      <c r="AR129" s="50"/>
+      <c r="AS129" s="50"/>
+      <c r="AT129" s="50"/>
+      <c r="AU129" s="50"/>
+      <c r="AV129" s="50"/>
+      <c r="AW129" s="50"/>
+      <c r="AX129" s="50"/>
+      <c r="AY129" s="50"/>
+      <c r="AZ129" s="50"/>
+      <c r="BA129" s="50"/>
+      <c r="BB129" s="50"/>
+      <c r="BC129" s="50"/>
+      <c r="BD129" s="50"/>
+      <c r="BE129" s="50"/>
+      <c r="BF129" s="50"/>
+      <c r="BG129" s="50"/>
+      <c r="BH129" s="50"/>
+      <c r="BI129" s="50"/>
+      <c r="BJ129" s="50"/>
+      <c r="BK129" s="50"/>
+      <c r="BL129" s="50"/>
+      <c r="BM129" s="50"/>
+      <c r="BN129" s="50"/>
+      <c r="BO129" s="50"/>
+      <c r="BP129" s="50"/>
       <c r="BQ129" s="31"/>
       <c r="BR129" s="31"/>
       <c r="BS129" s="31"/>
-      <c r="BT129" s="58" t="s">
+      <c r="BT129" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="BU129" s="49"/>
-      <c r="BV129" s="49"/>
-      <c r="BW129" s="49"/>
-      <c r="BX129" s="49"/>
-      <c r="BY129" s="49"/>
-      <c r="BZ129" s="49"/>
-      <c r="CA129" s="49"/>
-      <c r="CB129" s="49"/>
-      <c r="CC129" s="49"/>
-      <c r="CD129" s="49"/>
-      <c r="CE129" s="49"/>
-      <c r="CF129" s="49"/>
-      <c r="CG129" s="49"/>
-      <c r="CH129" s="49"/>
-      <c r="CI129" s="49"/>
-      <c r="CJ129" s="49"/>
-      <c r="CK129" s="49"/>
-      <c r="CL129" s="49"/>
-      <c r="CM129" s="49"/>
-      <c r="CN129" s="49"/>
-      <c r="CO129" s="49"/>
-      <c r="CP129" s="49"/>
-      <c r="CQ129" s="49"/>
-      <c r="CR129" s="49"/>
-      <c r="CS129" s="49"/>
+      <c r="BU129" s="50"/>
+      <c r="BV129" s="50"/>
+      <c r="BW129" s="50"/>
+      <c r="BX129" s="50"/>
+      <c r="BY129" s="50"/>
+      <c r="BZ129" s="50"/>
+      <c r="CA129" s="50"/>
+      <c r="CB129" s="50"/>
+      <c r="CC129" s="50"/>
+      <c r="CD129" s="50"/>
+      <c r="CE129" s="50"/>
+      <c r="CF129" s="50"/>
+      <c r="CG129" s="50"/>
+      <c r="CH129" s="50"/>
+      <c r="CI129" s="50"/>
+      <c r="CJ129" s="50"/>
+      <c r="CK129" s="50"/>
+      <c r="CL129" s="50"/>
+      <c r="CM129" s="50"/>
+      <c r="CN129" s="50"/>
+      <c r="CO129" s="50"/>
+      <c r="CP129" s="50"/>
+      <c r="CQ129" s="50"/>
+      <c r="CR129" s="50"/>
+      <c r="CS129" s="50"/>
       <c r="CT129" s="18"/>
       <c r="CU129" s="18"/>
       <c r="CV129" s="17"/>
-      <c r="CW129" s="17"/>
+      <c r="CW129" s="33"/>
     </row>
     <row r="130" customHeight="1" spans="1:101">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
-      <c r="M130" s="56"/>
-      <c r="N130" s="56"/>
-      <c r="O130" s="56"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="56"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="56"/>
-      <c r="W130" s="56"/>
-      <c r="X130" s="56"/>
-      <c r="Y130" s="56"/>
-      <c r="Z130" s="56"/>
-      <c r="AA130" s="56"/>
-      <c r="AB130" s="56"/>
-      <c r="AC130" s="56"/>
-      <c r="AD130" s="56"/>
-      <c r="AE130" s="56"/>
-      <c r="AF130" s="56"/>
-      <c r="AG130" s="56"/>
-      <c r="AH130" s="56"/>
-      <c r="AI130" s="56"/>
-      <c r="AJ130" s="56"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
+      <c r="L130" s="57"/>
+      <c r="M130" s="57"/>
+      <c r="N130" s="57"/>
+      <c r="O130" s="57"/>
+      <c r="P130" s="57"/>
+      <c r="Q130" s="57"/>
+      <c r="R130" s="57"/>
+      <c r="S130" s="57"/>
+      <c r="T130" s="57"/>
+      <c r="U130" s="57"/>
+      <c r="V130" s="57"/>
+      <c r="W130" s="57"/>
+      <c r="X130" s="57"/>
+      <c r="Y130" s="57"/>
+      <c r="Z130" s="57"/>
+      <c r="AA130" s="57"/>
+      <c r="AB130" s="57"/>
+      <c r="AC130" s="57"/>
+      <c r="AD130" s="57"/>
+      <c r="AE130" s="57"/>
+      <c r="AF130" s="57"/>
+      <c r="AG130" s="57"/>
+      <c r="AH130" s="57"/>
+      <c r="AI130" s="57"/>
+      <c r="AJ130" s="57"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
       <c r="AM130" s="17"/>
       <c r="AN130" s="17"/>
       <c r="AO130" s="18"/>
       <c r="AP130" s="18"/>
-      <c r="AQ130" s="49"/>
-      <c r="AR130" s="49"/>
-      <c r="AS130" s="49"/>
-      <c r="AT130" s="49"/>
-      <c r="AU130" s="49"/>
-      <c r="AV130" s="49"/>
-      <c r="AW130" s="49"/>
-      <c r="AX130" s="49"/>
-      <c r="AY130" s="49"/>
-      <c r="AZ130" s="49"/>
-      <c r="BA130" s="49"/>
-      <c r="BB130" s="49"/>
-      <c r="BC130" s="49"/>
-      <c r="BD130" s="49"/>
-      <c r="BE130" s="49"/>
-      <c r="BF130" s="49"/>
-      <c r="BG130" s="49"/>
-      <c r="BH130" s="49"/>
-      <c r="BI130" s="49"/>
-      <c r="BJ130" s="49"/>
-      <c r="BK130" s="49"/>
-      <c r="BL130" s="49"/>
-      <c r="BM130" s="49"/>
-      <c r="BN130" s="49"/>
-      <c r="BO130" s="49"/>
-      <c r="BP130" s="49"/>
+      <c r="AQ130" s="50"/>
+      <c r="AR130" s="50"/>
+      <c r="AS130" s="50"/>
+      <c r="AT130" s="50"/>
+      <c r="AU130" s="50"/>
+      <c r="AV130" s="50"/>
+      <c r="AW130" s="50"/>
+      <c r="AX130" s="50"/>
+      <c r="AY130" s="50"/>
+      <c r="AZ130" s="50"/>
+      <c r="BA130" s="50"/>
+      <c r="BB130" s="50"/>
+      <c r="BC130" s="50"/>
+      <c r="BD130" s="50"/>
+      <c r="BE130" s="50"/>
+      <c r="BF130" s="50"/>
+      <c r="BG130" s="50"/>
+      <c r="BH130" s="50"/>
+      <c r="BI130" s="50"/>
+      <c r="BJ130" s="50"/>
+      <c r="BK130" s="50"/>
+      <c r="BL130" s="50"/>
+      <c r="BM130" s="50"/>
+      <c r="BN130" s="50"/>
+      <c r="BO130" s="50"/>
+      <c r="BP130" s="50"/>
       <c r="BQ130" s="31"/>
       <c r="BR130" s="31"/>
       <c r="BS130" s="31"/>
-      <c r="BT130" s="49"/>
-      <c r="BU130" s="49"/>
-      <c r="BV130" s="49"/>
-      <c r="BW130" s="49"/>
-      <c r="BX130" s="49"/>
-      <c r="BY130" s="49"/>
-      <c r="BZ130" s="49"/>
-      <c r="CA130" s="49"/>
-      <c r="CB130" s="49"/>
-      <c r="CC130" s="49"/>
-      <c r="CD130" s="49"/>
-      <c r="CE130" s="49"/>
-      <c r="CF130" s="49"/>
-      <c r="CG130" s="49"/>
-      <c r="CH130" s="49"/>
-      <c r="CI130" s="49"/>
-      <c r="CJ130" s="49"/>
-      <c r="CK130" s="49"/>
-      <c r="CL130" s="49"/>
-      <c r="CM130" s="49"/>
-      <c r="CN130" s="49"/>
-      <c r="CO130" s="49"/>
-      <c r="CP130" s="49"/>
-      <c r="CQ130" s="49"/>
-      <c r="CR130" s="49"/>
-      <c r="CS130" s="49"/>
+      <c r="BT130" s="50"/>
+      <c r="BU130" s="50"/>
+      <c r="BV130" s="50"/>
+      <c r="BW130" s="50"/>
+      <c r="BX130" s="50"/>
+      <c r="BY130" s="50"/>
+      <c r="BZ130" s="50"/>
+      <c r="CA130" s="50"/>
+      <c r="CB130" s="50"/>
+      <c r="CC130" s="50"/>
+      <c r="CD130" s="50"/>
+      <c r="CE130" s="50"/>
+      <c r="CF130" s="50"/>
+      <c r="CG130" s="50"/>
+      <c r="CH130" s="50"/>
+      <c r="CI130" s="50"/>
+      <c r="CJ130" s="50"/>
+      <c r="CK130" s="50"/>
+      <c r="CL130" s="50"/>
+      <c r="CM130" s="50"/>
+      <c r="CN130" s="50"/>
+      <c r="CO130" s="50"/>
+      <c r="CP130" s="50"/>
+      <c r="CQ130" s="50"/>
+      <c r="CR130" s="50"/>
+      <c r="CS130" s="50"/>
       <c r="CT130" s="18"/>
       <c r="CU130" s="18"/>
       <c r="CV130" s="17"/>
-      <c r="CW130" s="17"/>
+      <c r="CW130" s="33"/>
     </row>
     <row r="131" customHeight="1" spans="1:101">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
-      <c r="M131" s="56"/>
-      <c r="N131" s="56"/>
-      <c r="O131" s="56"/>
-      <c r="P131" s="56"/>
-      <c r="Q131" s="56"/>
-      <c r="R131" s="56"/>
-      <c r="S131" s="56"/>
-      <c r="T131" s="56"/>
-      <c r="U131" s="56"/>
-      <c r="V131" s="56"/>
-      <c r="W131" s="56"/>
-      <c r="X131" s="56"/>
-      <c r="Y131" s="56"/>
-      <c r="Z131" s="56"/>
-      <c r="AA131" s="56"/>
-      <c r="AB131" s="56"/>
-      <c r="AC131" s="56"/>
-      <c r="AD131" s="56"/>
-      <c r="AE131" s="56"/>
-      <c r="AF131" s="56"/>
-      <c r="AG131" s="56"/>
-      <c r="AH131" s="56"/>
-      <c r="AI131" s="56"/>
-      <c r="AJ131" s="56"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="57"/>
+      <c r="M131" s="57"/>
+      <c r="N131" s="57"/>
+      <c r="O131" s="57"/>
+      <c r="P131" s="57"/>
+      <c r="Q131" s="57"/>
+      <c r="R131" s="57"/>
+      <c r="S131" s="57"/>
+      <c r="T131" s="57"/>
+      <c r="U131" s="57"/>
+      <c r="V131" s="57"/>
+      <c r="W131" s="57"/>
+      <c r="X131" s="57"/>
+      <c r="Y131" s="57"/>
+      <c r="Z131" s="57"/>
+      <c r="AA131" s="57"/>
+      <c r="AB131" s="57"/>
+      <c r="AC131" s="57"/>
+      <c r="AD131" s="57"/>
+      <c r="AE131" s="57"/>
+      <c r="AF131" s="57"/>
+      <c r="AG131" s="57"/>
+      <c r="AH131" s="57"/>
+      <c r="AI131" s="57"/>
+      <c r="AJ131" s="57"/>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
       <c r="AM131" s="17"/>
       <c r="AN131" s="17"/>
       <c r="AO131" s="18"/>
       <c r="AP131" s="18"/>
-      <c r="AQ131" s="49"/>
-      <c r="AR131" s="49"/>
-      <c r="AS131" s="49"/>
-      <c r="AT131" s="49"/>
-      <c r="AU131" s="49"/>
-      <c r="AV131" s="49"/>
-      <c r="AW131" s="49"/>
-      <c r="AX131" s="49"/>
-      <c r="AY131" s="49"/>
-      <c r="AZ131" s="49"/>
-      <c r="BA131" s="49"/>
-      <c r="BB131" s="49"/>
-      <c r="BC131" s="49"/>
-      <c r="BD131" s="49"/>
-      <c r="BE131" s="49"/>
-      <c r="BF131" s="49"/>
-      <c r="BG131" s="49"/>
-      <c r="BH131" s="49"/>
-      <c r="BI131" s="49"/>
-      <c r="BJ131" s="49"/>
-      <c r="BK131" s="49"/>
-      <c r="BL131" s="49"/>
-      <c r="BM131" s="49"/>
-      <c r="BN131" s="49"/>
-      <c r="BO131" s="49"/>
-      <c r="BP131" s="49"/>
+      <c r="AQ131" s="50"/>
+      <c r="AR131" s="50"/>
+      <c r="AS131" s="50"/>
+      <c r="AT131" s="50"/>
+      <c r="AU131" s="50"/>
+      <c r="AV131" s="50"/>
+      <c r="AW131" s="50"/>
+      <c r="AX131" s="50"/>
+      <c r="AY131" s="50"/>
+      <c r="AZ131" s="50"/>
+      <c r="BA131" s="50"/>
+      <c r="BB131" s="50"/>
+      <c r="BC131" s="50"/>
+      <c r="BD131" s="50"/>
+      <c r="BE131" s="50"/>
+      <c r="BF131" s="50"/>
+      <c r="BG131" s="50"/>
+      <c r="BH131" s="50"/>
+      <c r="BI131" s="50"/>
+      <c r="BJ131" s="50"/>
+      <c r="BK131" s="50"/>
+      <c r="BL131" s="50"/>
+      <c r="BM131" s="50"/>
+      <c r="BN131" s="50"/>
+      <c r="BO131" s="50"/>
+      <c r="BP131" s="50"/>
       <c r="BQ131" s="31"/>
       <c r="BR131" s="31"/>
       <c r="BS131" s="31"/>
-      <c r="BT131" s="49"/>
-      <c r="BU131" s="49"/>
-      <c r="BV131" s="49"/>
-      <c r="BW131" s="49"/>
-      <c r="BX131" s="49"/>
-      <c r="BY131" s="49"/>
-      <c r="BZ131" s="49"/>
-      <c r="CA131" s="49"/>
-      <c r="CB131" s="49"/>
-      <c r="CC131" s="49"/>
-      <c r="CD131" s="49"/>
-      <c r="CE131" s="49"/>
-      <c r="CF131" s="49"/>
-      <c r="CG131" s="49"/>
-      <c r="CH131" s="49"/>
-      <c r="CI131" s="49"/>
-      <c r="CJ131" s="49"/>
-      <c r="CK131" s="49"/>
-      <c r="CL131" s="49"/>
-      <c r="CM131" s="49"/>
-      <c r="CN131" s="49"/>
-      <c r="CO131" s="49"/>
-      <c r="CP131" s="49"/>
-      <c r="CQ131" s="49"/>
-      <c r="CR131" s="49"/>
-      <c r="CS131" s="49"/>
+      <c r="BT131" s="50"/>
+      <c r="BU131" s="50"/>
+      <c r="BV131" s="50"/>
+      <c r="BW131" s="50"/>
+      <c r="BX131" s="50"/>
+      <c r="BY131" s="50"/>
+      <c r="BZ131" s="50"/>
+      <c r="CA131" s="50"/>
+      <c r="CB131" s="50"/>
+      <c r="CC131" s="50"/>
+      <c r="CD131" s="50"/>
+      <c r="CE131" s="50"/>
+      <c r="CF131" s="50"/>
+      <c r="CG131" s="50"/>
+      <c r="CH131" s="50"/>
+      <c r="CI131" s="50"/>
+      <c r="CJ131" s="50"/>
+      <c r="CK131" s="50"/>
+      <c r="CL131" s="50"/>
+      <c r="CM131" s="50"/>
+      <c r="CN131" s="50"/>
+      <c r="CO131" s="50"/>
+      <c r="CP131" s="50"/>
+      <c r="CQ131" s="50"/>
+      <c r="CR131" s="50"/>
+      <c r="CS131" s="50"/>
       <c r="CT131" s="18"/>
       <c r="CU131" s="18"/>
       <c r="CV131" s="17"/>
-      <c r="CW131" s="17"/>
+      <c r="CW131" s="33"/>
     </row>
     <row r="132" customHeight="1" spans="1:101">
       <c r="A132" s="9"/>
@@ -15762,105 +15771,105 @@
       <c r="AN132" s="17"/>
       <c r="AO132" s="18"/>
       <c r="AP132" s="18"/>
-      <c r="AQ132" s="50"/>
-      <c r="AR132" s="51"/>
-      <c r="AS132" s="51"/>
-      <c r="AT132" s="51"/>
-      <c r="AU132" s="51"/>
-      <c r="AV132" s="51"/>
-      <c r="AW132" s="51"/>
-      <c r="AX132" s="51"/>
-      <c r="AY132" s="51"/>
-      <c r="AZ132" s="51"/>
-      <c r="BA132" s="51"/>
-      <c r="BB132" s="51"/>
-      <c r="BC132" s="51"/>
-      <c r="BD132" s="51"/>
-      <c r="BE132" s="51"/>
-      <c r="BF132" s="51"/>
-      <c r="BG132" s="51"/>
-      <c r="BH132" s="51"/>
-      <c r="BI132" s="51"/>
-      <c r="BJ132" s="54"/>
-      <c r="BK132" s="54"/>
-      <c r="BL132" s="54"/>
-      <c r="BM132" s="54"/>
-      <c r="BN132" s="54"/>
-      <c r="BO132" s="54"/>
-      <c r="BP132" s="55"/>
+      <c r="AQ132" s="51"/>
+      <c r="AR132" s="52"/>
+      <c r="AS132" s="52"/>
+      <c r="AT132" s="52"/>
+      <c r="AU132" s="52"/>
+      <c r="AV132" s="52"/>
+      <c r="AW132" s="52"/>
+      <c r="AX132" s="52"/>
+      <c r="AY132" s="52"/>
+      <c r="AZ132" s="52"/>
+      <c r="BA132" s="52"/>
+      <c r="BB132" s="52"/>
+      <c r="BC132" s="52"/>
+      <c r="BD132" s="52"/>
+      <c r="BE132" s="52"/>
+      <c r="BF132" s="52"/>
+      <c r="BG132" s="52"/>
+      <c r="BH132" s="52"/>
+      <c r="BI132" s="52"/>
+      <c r="BJ132" s="55"/>
+      <c r="BK132" s="55"/>
+      <c r="BL132" s="55"/>
+      <c r="BM132" s="55"/>
+      <c r="BN132" s="55"/>
+      <c r="BO132" s="55"/>
+      <c r="BP132" s="56"/>
       <c r="BQ132" s="31"/>
       <c r="BR132" s="31"/>
       <c r="BS132" s="31"/>
-      <c r="BT132" s="50"/>
-      <c r="BU132" s="51"/>
-      <c r="BV132" s="51"/>
-      <c r="BW132" s="51"/>
-      <c r="BX132" s="51"/>
-      <c r="BY132" s="51"/>
-      <c r="BZ132" s="51"/>
-      <c r="CA132" s="51"/>
-      <c r="CB132" s="54"/>
-      <c r="CC132" s="54"/>
-      <c r="CD132" s="54"/>
-      <c r="CE132" s="54"/>
-      <c r="CF132" s="54"/>
-      <c r="CG132" s="54"/>
-      <c r="CH132" s="54"/>
-      <c r="CI132" s="54"/>
-      <c r="CJ132" s="54"/>
-      <c r="CK132" s="54"/>
-      <c r="CL132" s="54"/>
-      <c r="CM132" s="54"/>
-      <c r="CN132" s="54"/>
-      <c r="CO132" s="54"/>
-      <c r="CP132" s="54"/>
-      <c r="CQ132" s="54"/>
-      <c r="CR132" s="54"/>
-      <c r="CS132" s="55"/>
+      <c r="BT132" s="51"/>
+      <c r="BU132" s="52"/>
+      <c r="BV132" s="52"/>
+      <c r="BW132" s="52"/>
+      <c r="BX132" s="52"/>
+      <c r="BY132" s="52"/>
+      <c r="BZ132" s="52"/>
+      <c r="CA132" s="52"/>
+      <c r="CB132" s="55"/>
+      <c r="CC132" s="55"/>
+      <c r="CD132" s="55"/>
+      <c r="CE132" s="55"/>
+      <c r="CF132" s="55"/>
+      <c r="CG132" s="55"/>
+      <c r="CH132" s="55"/>
+      <c r="CI132" s="55"/>
+      <c r="CJ132" s="55"/>
+      <c r="CK132" s="55"/>
+      <c r="CL132" s="55"/>
+      <c r="CM132" s="55"/>
+      <c r="CN132" s="55"/>
+      <c r="CO132" s="55"/>
+      <c r="CP132" s="55"/>
+      <c r="CQ132" s="55"/>
+      <c r="CR132" s="55"/>
+      <c r="CS132" s="56"/>
       <c r="CT132" s="18"/>
       <c r="CU132" s="18"/>
       <c r="CV132" s="17"/>
-      <c r="CW132" s="17"/>
+      <c r="CW132" s="33"/>
     </row>
     <row r="133" customHeight="1" spans="1:101">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="57" t="s">
+      <c r="C133" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="56"/>
-      <c r="L133" s="56"/>
-      <c r="M133" s="56"/>
-      <c r="N133" s="56"/>
-      <c r="O133" s="56"/>
-      <c r="P133" s="56"/>
-      <c r="Q133" s="56"/>
-      <c r="R133" s="56"/>
-      <c r="S133" s="56"/>
-      <c r="T133" s="56"/>
-      <c r="U133" s="56"/>
-      <c r="V133" s="56"/>
-      <c r="W133" s="56"/>
-      <c r="X133" s="56"/>
-      <c r="Y133" s="56"/>
-      <c r="Z133" s="56"/>
-      <c r="AA133" s="56"/>
-      <c r="AB133" s="56"/>
-      <c r="AC133" s="56"/>
-      <c r="AD133" s="56"/>
-      <c r="AE133" s="56"/>
-      <c r="AF133" s="56"/>
-      <c r="AG133" s="56"/>
-      <c r="AH133" s="56"/>
-      <c r="AI133" s="56"/>
-      <c r="AJ133" s="56"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
+      <c r="L133" s="57"/>
+      <c r="M133" s="57"/>
+      <c r="N133" s="57"/>
+      <c r="O133" s="57"/>
+      <c r="P133" s="57"/>
+      <c r="Q133" s="57"/>
+      <c r="R133" s="57"/>
+      <c r="S133" s="57"/>
+      <c r="T133" s="57"/>
+      <c r="U133" s="57"/>
+      <c r="V133" s="57"/>
+      <c r="W133" s="57"/>
+      <c r="X133" s="57"/>
+      <c r="Y133" s="57"/>
+      <c r="Z133" s="57"/>
+      <c r="AA133" s="57"/>
+      <c r="AB133" s="57"/>
+      <c r="AC133" s="57"/>
+      <c r="AD133" s="57"/>
+      <c r="AE133" s="57"/>
+      <c r="AF133" s="57"/>
+      <c r="AG133" s="57"/>
+      <c r="AH133" s="57"/>
+      <c r="AI133" s="57"/>
+      <c r="AJ133" s="57"/>
       <c r="AK133" s="9"/>
       <c r="AL133" s="9"/>
       <c r="AM133" s="17"/>
@@ -15925,217 +15934,217 @@
       <c r="CT133" s="18"/>
       <c r="CU133" s="18"/>
       <c r="CV133" s="17"/>
-      <c r="CW133" s="17"/>
+      <c r="CW133" s="33"/>
     </row>
     <row r="134" customHeight="1" spans="1:101">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="56"/>
-      <c r="L134" s="56"/>
-      <c r="M134" s="56"/>
-      <c r="N134" s="56"/>
-      <c r="O134" s="56"/>
-      <c r="P134" s="56"/>
-      <c r="Q134" s="56"/>
-      <c r="R134" s="56"/>
-      <c r="S134" s="56"/>
-      <c r="T134" s="56"/>
-      <c r="U134" s="56"/>
-      <c r="V134" s="56"/>
-      <c r="W134" s="56"/>
-      <c r="X134" s="56"/>
-      <c r="Y134" s="56"/>
-      <c r="Z134" s="56"/>
-      <c r="AA134" s="56"/>
-      <c r="AB134" s="56"/>
-      <c r="AC134" s="56"/>
-      <c r="AD134" s="56"/>
-      <c r="AE134" s="56"/>
-      <c r="AF134" s="56"/>
-      <c r="AG134" s="56"/>
-      <c r="AH134" s="56"/>
-      <c r="AI134" s="56"/>
-      <c r="AJ134" s="56"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
+      <c r="L134" s="57"/>
+      <c r="M134" s="57"/>
+      <c r="N134" s="57"/>
+      <c r="O134" s="57"/>
+      <c r="P134" s="57"/>
+      <c r="Q134" s="57"/>
+      <c r="R134" s="57"/>
+      <c r="S134" s="57"/>
+      <c r="T134" s="57"/>
+      <c r="U134" s="57"/>
+      <c r="V134" s="57"/>
+      <c r="W134" s="57"/>
+      <c r="X134" s="57"/>
+      <c r="Y134" s="57"/>
+      <c r="Z134" s="57"/>
+      <c r="AA134" s="57"/>
+      <c r="AB134" s="57"/>
+      <c r="AC134" s="57"/>
+      <c r="AD134" s="57"/>
+      <c r="AE134" s="57"/>
+      <c r="AF134" s="57"/>
+      <c r="AG134" s="57"/>
+      <c r="AH134" s="57"/>
+      <c r="AI134" s="57"/>
+      <c r="AJ134" s="57"/>
       <c r="AK134" s="9"/>
       <c r="AL134" s="9"/>
       <c r="AM134" s="17"/>
       <c r="AN134" s="17"/>
       <c r="AO134" s="18"/>
       <c r="AP134" s="18"/>
-      <c r="AQ134" s="49" t="s">
+      <c r="AQ134" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AR134" s="49"/>
-      <c r="AS134" s="49"/>
-      <c r="AT134" s="49"/>
-      <c r="AU134" s="49"/>
-      <c r="AV134" s="49"/>
-      <c r="AW134" s="49"/>
-      <c r="AX134" s="49"/>
-      <c r="AY134" s="49"/>
-      <c r="AZ134" s="49"/>
-      <c r="BA134" s="49"/>
-      <c r="BB134" s="49"/>
-      <c r="BC134" s="49"/>
-      <c r="BD134" s="49"/>
-      <c r="BE134" s="49"/>
-      <c r="BF134" s="49"/>
-      <c r="BG134" s="49"/>
-      <c r="BH134" s="49"/>
-      <c r="BI134" s="49"/>
-      <c r="BJ134" s="49"/>
-      <c r="BK134" s="49"/>
-      <c r="BL134" s="49"/>
-      <c r="BM134" s="49"/>
-      <c r="BN134" s="49"/>
-      <c r="BO134" s="49"/>
-      <c r="BP134" s="49"/>
+      <c r="AR134" s="50"/>
+      <c r="AS134" s="50"/>
+      <c r="AT134" s="50"/>
+      <c r="AU134" s="50"/>
+      <c r="AV134" s="50"/>
+      <c r="AW134" s="50"/>
+      <c r="AX134" s="50"/>
+      <c r="AY134" s="50"/>
+      <c r="AZ134" s="50"/>
+      <c r="BA134" s="50"/>
+      <c r="BB134" s="50"/>
+      <c r="BC134" s="50"/>
+      <c r="BD134" s="50"/>
+      <c r="BE134" s="50"/>
+      <c r="BF134" s="50"/>
+      <c r="BG134" s="50"/>
+      <c r="BH134" s="50"/>
+      <c r="BI134" s="50"/>
+      <c r="BJ134" s="50"/>
+      <c r="BK134" s="50"/>
+      <c r="BL134" s="50"/>
+      <c r="BM134" s="50"/>
+      <c r="BN134" s="50"/>
+      <c r="BO134" s="50"/>
+      <c r="BP134" s="50"/>
       <c r="BQ134" s="31"/>
       <c r="BR134" s="31"/>
       <c r="BS134" s="31"/>
-      <c r="BT134" s="49" t="s">
+      <c r="BT134" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="BU134" s="49"/>
-      <c r="BV134" s="49"/>
-      <c r="BW134" s="49"/>
-      <c r="BX134" s="49"/>
-      <c r="BY134" s="49"/>
-      <c r="BZ134" s="49"/>
-      <c r="CA134" s="49"/>
-      <c r="CB134" s="49"/>
-      <c r="CC134" s="49"/>
-      <c r="CD134" s="49"/>
-      <c r="CE134" s="49"/>
-      <c r="CF134" s="49"/>
-      <c r="CG134" s="49"/>
-      <c r="CH134" s="49"/>
-      <c r="CI134" s="49"/>
-      <c r="CJ134" s="49"/>
-      <c r="CK134" s="49"/>
-      <c r="CL134" s="49"/>
-      <c r="CM134" s="49"/>
-      <c r="CN134" s="49"/>
-      <c r="CO134" s="49"/>
-      <c r="CP134" s="49"/>
-      <c r="CQ134" s="49"/>
-      <c r="CR134" s="49"/>
-      <c r="CS134" s="49"/>
+      <c r="BU134" s="50"/>
+      <c r="BV134" s="50"/>
+      <c r="BW134" s="50"/>
+      <c r="BX134" s="50"/>
+      <c r="BY134" s="50"/>
+      <c r="BZ134" s="50"/>
+      <c r="CA134" s="50"/>
+      <c r="CB134" s="50"/>
+      <c r="CC134" s="50"/>
+      <c r="CD134" s="50"/>
+      <c r="CE134" s="50"/>
+      <c r="CF134" s="50"/>
+      <c r="CG134" s="50"/>
+      <c r="CH134" s="50"/>
+      <c r="CI134" s="50"/>
+      <c r="CJ134" s="50"/>
+      <c r="CK134" s="50"/>
+      <c r="CL134" s="50"/>
+      <c r="CM134" s="50"/>
+      <c r="CN134" s="50"/>
+      <c r="CO134" s="50"/>
+      <c r="CP134" s="50"/>
+      <c r="CQ134" s="50"/>
+      <c r="CR134" s="50"/>
+      <c r="CS134" s="50"/>
       <c r="CT134" s="18"/>
       <c r="CU134" s="18"/>
       <c r="CV134" s="17"/>
-      <c r="CW134" s="17"/>
+      <c r="CW134" s="33"/>
     </row>
     <row r="135" customHeight="1" spans="1:101">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="56"/>
-      <c r="L135" s="56"/>
-      <c r="M135" s="56"/>
-      <c r="N135" s="56"/>
-      <c r="O135" s="56"/>
-      <c r="P135" s="56"/>
-      <c r="Q135" s="56"/>
-      <c r="R135" s="56"/>
-      <c r="S135" s="56"/>
-      <c r="T135" s="56"/>
-      <c r="U135" s="56"/>
-      <c r="V135" s="56"/>
-      <c r="W135" s="56"/>
-      <c r="X135" s="56"/>
-      <c r="Y135" s="56"/>
-      <c r="Z135" s="56"/>
-      <c r="AA135" s="56"/>
-      <c r="AB135" s="56"/>
-      <c r="AC135" s="56"/>
-      <c r="AD135" s="56"/>
-      <c r="AE135" s="56"/>
-      <c r="AF135" s="56"/>
-      <c r="AG135" s="56"/>
-      <c r="AH135" s="56"/>
-      <c r="AI135" s="56"/>
-      <c r="AJ135" s="56"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="57"/>
+      <c r="M135" s="57"/>
+      <c r="N135" s="57"/>
+      <c r="O135" s="57"/>
+      <c r="P135" s="57"/>
+      <c r="Q135" s="57"/>
+      <c r="R135" s="57"/>
+      <c r="S135" s="57"/>
+      <c r="T135" s="57"/>
+      <c r="U135" s="57"/>
+      <c r="V135" s="57"/>
+      <c r="W135" s="57"/>
+      <c r="X135" s="57"/>
+      <c r="Y135" s="57"/>
+      <c r="Z135" s="57"/>
+      <c r="AA135" s="57"/>
+      <c r="AB135" s="57"/>
+      <c r="AC135" s="57"/>
+      <c r="AD135" s="57"/>
+      <c r="AE135" s="57"/>
+      <c r="AF135" s="57"/>
+      <c r="AG135" s="57"/>
+      <c r="AH135" s="57"/>
+      <c r="AI135" s="57"/>
+      <c r="AJ135" s="57"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9"/>
       <c r="AM135" s="17"/>
       <c r="AN135" s="17"/>
       <c r="AO135" s="18"/>
       <c r="AP135" s="18"/>
-      <c r="AQ135" s="49"/>
-      <c r="AR135" s="49"/>
-      <c r="AS135" s="49"/>
-      <c r="AT135" s="49"/>
-      <c r="AU135" s="49"/>
-      <c r="AV135" s="49"/>
-      <c r="AW135" s="49"/>
-      <c r="AX135" s="49"/>
-      <c r="AY135" s="49"/>
-      <c r="AZ135" s="49"/>
-      <c r="BA135" s="49"/>
-      <c r="BB135" s="49"/>
-      <c r="BC135" s="49"/>
-      <c r="BD135" s="49"/>
-      <c r="BE135" s="49"/>
-      <c r="BF135" s="49"/>
-      <c r="BG135" s="49"/>
-      <c r="BH135" s="49"/>
-      <c r="BI135" s="49"/>
-      <c r="BJ135" s="49"/>
-      <c r="BK135" s="49"/>
-      <c r="BL135" s="49"/>
-      <c r="BM135" s="49"/>
-      <c r="BN135" s="49"/>
-      <c r="BO135" s="49"/>
-      <c r="BP135" s="49"/>
+      <c r="AQ135" s="50"/>
+      <c r="AR135" s="50"/>
+      <c r="AS135" s="50"/>
+      <c r="AT135" s="50"/>
+      <c r="AU135" s="50"/>
+      <c r="AV135" s="50"/>
+      <c r="AW135" s="50"/>
+      <c r="AX135" s="50"/>
+      <c r="AY135" s="50"/>
+      <c r="AZ135" s="50"/>
+      <c r="BA135" s="50"/>
+      <c r="BB135" s="50"/>
+      <c r="BC135" s="50"/>
+      <c r="BD135" s="50"/>
+      <c r="BE135" s="50"/>
+      <c r="BF135" s="50"/>
+      <c r="BG135" s="50"/>
+      <c r="BH135" s="50"/>
+      <c r="BI135" s="50"/>
+      <c r="BJ135" s="50"/>
+      <c r="BK135" s="50"/>
+      <c r="BL135" s="50"/>
+      <c r="BM135" s="50"/>
+      <c r="BN135" s="50"/>
+      <c r="BO135" s="50"/>
+      <c r="BP135" s="50"/>
       <c r="BQ135" s="31"/>
       <c r="BR135" s="31"/>
       <c r="BS135" s="31"/>
-      <c r="BT135" s="49"/>
-      <c r="BU135" s="49"/>
-      <c r="BV135" s="49"/>
-      <c r="BW135" s="49"/>
-      <c r="BX135" s="49"/>
-      <c r="BY135" s="49"/>
-      <c r="BZ135" s="49"/>
-      <c r="CA135" s="49"/>
-      <c r="CB135" s="49"/>
-      <c r="CC135" s="49"/>
-      <c r="CD135" s="49"/>
-      <c r="CE135" s="49"/>
-      <c r="CF135" s="49"/>
-      <c r="CG135" s="49"/>
-      <c r="CH135" s="49"/>
-      <c r="CI135" s="49"/>
-      <c r="CJ135" s="49"/>
-      <c r="CK135" s="49"/>
-      <c r="CL135" s="49"/>
-      <c r="CM135" s="49"/>
-      <c r="CN135" s="49"/>
-      <c r="CO135" s="49"/>
-      <c r="CP135" s="49"/>
-      <c r="CQ135" s="49"/>
-      <c r="CR135" s="49"/>
-      <c r="CS135" s="49"/>
+      <c r="BT135" s="50"/>
+      <c r="BU135" s="50"/>
+      <c r="BV135" s="50"/>
+      <c r="BW135" s="50"/>
+      <c r="BX135" s="50"/>
+      <c r="BY135" s="50"/>
+      <c r="BZ135" s="50"/>
+      <c r="CA135" s="50"/>
+      <c r="CB135" s="50"/>
+      <c r="CC135" s="50"/>
+      <c r="CD135" s="50"/>
+      <c r="CE135" s="50"/>
+      <c r="CF135" s="50"/>
+      <c r="CG135" s="50"/>
+      <c r="CH135" s="50"/>
+      <c r="CI135" s="50"/>
+      <c r="CJ135" s="50"/>
+      <c r="CK135" s="50"/>
+      <c r="CL135" s="50"/>
+      <c r="CM135" s="50"/>
+      <c r="CN135" s="50"/>
+      <c r="CO135" s="50"/>
+      <c r="CP135" s="50"/>
+      <c r="CQ135" s="50"/>
+      <c r="CR135" s="50"/>
+      <c r="CS135" s="50"/>
       <c r="CT135" s="18"/>
       <c r="CU135" s="18"/>
       <c r="CV135" s="17"/>
-      <c r="CW135" s="17"/>
+      <c r="CW135" s="33"/>
     </row>
     <row r="136" customHeight="1" spans="1:101">
       <c r="A136" s="9"/>
@@ -16180,208 +16189,208 @@
       <c r="AN136" s="17"/>
       <c r="AO136" s="18"/>
       <c r="AP136" s="18"/>
-      <c r="AQ136" s="49"/>
-      <c r="AR136" s="49"/>
-      <c r="AS136" s="49"/>
-      <c r="AT136" s="49"/>
-      <c r="AU136" s="49"/>
-      <c r="AV136" s="49"/>
-      <c r="AW136" s="49"/>
-      <c r="AX136" s="49"/>
-      <c r="AY136" s="49"/>
-      <c r="AZ136" s="49"/>
-      <c r="BA136" s="49"/>
-      <c r="BB136" s="49"/>
-      <c r="BC136" s="49"/>
-      <c r="BD136" s="49"/>
-      <c r="BE136" s="49"/>
-      <c r="BF136" s="49"/>
-      <c r="BG136" s="49"/>
-      <c r="BH136" s="49"/>
-      <c r="BI136" s="49"/>
-      <c r="BJ136" s="49"/>
-      <c r="BK136" s="49"/>
-      <c r="BL136" s="49"/>
-      <c r="BM136" s="49"/>
-      <c r="BN136" s="49"/>
-      <c r="BO136" s="49"/>
-      <c r="BP136" s="49"/>
+      <c r="AQ136" s="50"/>
+      <c r="AR136" s="50"/>
+      <c r="AS136" s="50"/>
+      <c r="AT136" s="50"/>
+      <c r="AU136" s="50"/>
+      <c r="AV136" s="50"/>
+      <c r="AW136" s="50"/>
+      <c r="AX136" s="50"/>
+      <c r="AY136" s="50"/>
+      <c r="AZ136" s="50"/>
+      <c r="BA136" s="50"/>
+      <c r="BB136" s="50"/>
+      <c r="BC136" s="50"/>
+      <c r="BD136" s="50"/>
+      <c r="BE136" s="50"/>
+      <c r="BF136" s="50"/>
+      <c r="BG136" s="50"/>
+      <c r="BH136" s="50"/>
+      <c r="BI136" s="50"/>
+      <c r="BJ136" s="50"/>
+      <c r="BK136" s="50"/>
+      <c r="BL136" s="50"/>
+      <c r="BM136" s="50"/>
+      <c r="BN136" s="50"/>
+      <c r="BO136" s="50"/>
+      <c r="BP136" s="50"/>
       <c r="BQ136" s="31"/>
       <c r="BR136" s="31"/>
       <c r="BS136" s="31"/>
-      <c r="BT136" s="49"/>
-      <c r="BU136" s="49"/>
-      <c r="BV136" s="49"/>
-      <c r="BW136" s="49"/>
-      <c r="BX136" s="49"/>
-      <c r="BY136" s="49"/>
-      <c r="BZ136" s="49"/>
-      <c r="CA136" s="49"/>
-      <c r="CB136" s="49"/>
-      <c r="CC136" s="49"/>
-      <c r="CD136" s="49"/>
-      <c r="CE136" s="49"/>
-      <c r="CF136" s="49"/>
-      <c r="CG136" s="49"/>
-      <c r="CH136" s="49"/>
-      <c r="CI136" s="49"/>
-      <c r="CJ136" s="49"/>
-      <c r="CK136" s="49"/>
-      <c r="CL136" s="49"/>
-      <c r="CM136" s="49"/>
-      <c r="CN136" s="49"/>
-      <c r="CO136" s="49"/>
-      <c r="CP136" s="49"/>
-      <c r="CQ136" s="49"/>
-      <c r="CR136" s="49"/>
-      <c r="CS136" s="49"/>
+      <c r="BT136" s="50"/>
+      <c r="BU136" s="50"/>
+      <c r="BV136" s="50"/>
+      <c r="BW136" s="50"/>
+      <c r="BX136" s="50"/>
+      <c r="BY136" s="50"/>
+      <c r="BZ136" s="50"/>
+      <c r="CA136" s="50"/>
+      <c r="CB136" s="50"/>
+      <c r="CC136" s="50"/>
+      <c r="CD136" s="50"/>
+      <c r="CE136" s="50"/>
+      <c r="CF136" s="50"/>
+      <c r="CG136" s="50"/>
+      <c r="CH136" s="50"/>
+      <c r="CI136" s="50"/>
+      <c r="CJ136" s="50"/>
+      <c r="CK136" s="50"/>
+      <c r="CL136" s="50"/>
+      <c r="CM136" s="50"/>
+      <c r="CN136" s="50"/>
+      <c r="CO136" s="50"/>
+      <c r="CP136" s="50"/>
+      <c r="CQ136" s="50"/>
+      <c r="CR136" s="50"/>
+      <c r="CS136" s="50"/>
       <c r="CT136" s="18"/>
       <c r="CU136" s="18"/>
       <c r="CV136" s="17"/>
-      <c r="CW136" s="17"/>
+      <c r="CW136" s="33"/>
     </row>
     <row r="137" customHeight="1" spans="1:101">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
-      <c r="C137" s="56" t="s">
+      <c r="C137" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="56"/>
-      <c r="L137" s="56"/>
-      <c r="M137" s="56"/>
-      <c r="N137" s="56"/>
-      <c r="O137" s="56"/>
-      <c r="P137" s="56"/>
-      <c r="Q137" s="56"/>
-      <c r="R137" s="56"/>
-      <c r="S137" s="56"/>
-      <c r="T137" s="56"/>
-      <c r="U137" s="56"/>
-      <c r="V137" s="56"/>
-      <c r="W137" s="56"/>
-      <c r="X137" s="56"/>
-      <c r="Y137" s="56"/>
-      <c r="Z137" s="56"/>
-      <c r="AA137" s="56"/>
-      <c r="AB137" s="56"/>
-      <c r="AC137" s="56"/>
-      <c r="AD137" s="56"/>
-      <c r="AE137" s="56"/>
-      <c r="AF137" s="56"/>
-      <c r="AG137" s="56"/>
-      <c r="AH137" s="56"/>
-      <c r="AI137" s="56"/>
-      <c r="AJ137" s="56"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="57"/>
+      <c r="L137" s="57"/>
+      <c r="M137" s="57"/>
+      <c r="N137" s="57"/>
+      <c r="O137" s="57"/>
+      <c r="P137" s="57"/>
+      <c r="Q137" s="57"/>
+      <c r="R137" s="57"/>
+      <c r="S137" s="57"/>
+      <c r="T137" s="57"/>
+      <c r="U137" s="57"/>
+      <c r="V137" s="57"/>
+      <c r="W137" s="57"/>
+      <c r="X137" s="57"/>
+      <c r="Y137" s="57"/>
+      <c r="Z137" s="57"/>
+      <c r="AA137" s="57"/>
+      <c r="AB137" s="57"/>
+      <c r="AC137" s="57"/>
+      <c r="AD137" s="57"/>
+      <c r="AE137" s="57"/>
+      <c r="AF137" s="57"/>
+      <c r="AG137" s="57"/>
+      <c r="AH137" s="57"/>
+      <c r="AI137" s="57"/>
+      <c r="AJ137" s="57"/>
       <c r="AK137" s="9"/>
       <c r="AL137" s="9"/>
       <c r="AM137" s="17"/>
       <c r="AN137" s="17"/>
       <c r="AO137" s="18"/>
       <c r="AP137" s="18"/>
-      <c r="AQ137" s="50"/>
-      <c r="AR137" s="51"/>
-      <c r="AS137" s="51"/>
-      <c r="AT137" s="51"/>
-      <c r="AU137" s="51"/>
-      <c r="AV137" s="51"/>
-      <c r="AW137" s="51"/>
-      <c r="AX137" s="51"/>
-      <c r="AY137" s="51"/>
-      <c r="AZ137" s="51"/>
-      <c r="BA137" s="51"/>
-      <c r="BB137" s="51"/>
-      <c r="BC137" s="51"/>
-      <c r="BD137" s="54"/>
-      <c r="BE137" s="54"/>
-      <c r="BF137" s="54"/>
-      <c r="BG137" s="54"/>
-      <c r="BH137" s="54"/>
-      <c r="BI137" s="54"/>
-      <c r="BJ137" s="54"/>
-      <c r="BK137" s="54"/>
-      <c r="BL137" s="54"/>
-      <c r="BM137" s="54"/>
-      <c r="BN137" s="54"/>
-      <c r="BO137" s="54"/>
-      <c r="BP137" s="55"/>
+      <c r="AQ137" s="51"/>
+      <c r="AR137" s="52"/>
+      <c r="AS137" s="52"/>
+      <c r="AT137" s="52"/>
+      <c r="AU137" s="52"/>
+      <c r="AV137" s="52"/>
+      <c r="AW137" s="52"/>
+      <c r="AX137" s="52"/>
+      <c r="AY137" s="52"/>
+      <c r="AZ137" s="52"/>
+      <c r="BA137" s="52"/>
+      <c r="BB137" s="52"/>
+      <c r="BC137" s="52"/>
+      <c r="BD137" s="55"/>
+      <c r="BE137" s="55"/>
+      <c r="BF137" s="55"/>
+      <c r="BG137" s="55"/>
+      <c r="BH137" s="55"/>
+      <c r="BI137" s="55"/>
+      <c r="BJ137" s="55"/>
+      <c r="BK137" s="55"/>
+      <c r="BL137" s="55"/>
+      <c r="BM137" s="55"/>
+      <c r="BN137" s="55"/>
+      <c r="BO137" s="55"/>
+      <c r="BP137" s="56"/>
       <c r="BQ137" s="31"/>
       <c r="BR137" s="31"/>
       <c r="BS137" s="31"/>
-      <c r="BT137" s="50"/>
-      <c r="BU137" s="51"/>
-      <c r="BV137" s="51"/>
-      <c r="BW137" s="51"/>
-      <c r="BX137" s="51"/>
-      <c r="BY137" s="51"/>
-      <c r="BZ137" s="54"/>
-      <c r="CA137" s="54"/>
-      <c r="CB137" s="54"/>
-      <c r="CC137" s="54"/>
-      <c r="CD137" s="54"/>
-      <c r="CE137" s="54"/>
-      <c r="CF137" s="54"/>
-      <c r="CG137" s="54"/>
-      <c r="CH137" s="54"/>
-      <c r="CI137" s="54"/>
-      <c r="CJ137" s="54"/>
-      <c r="CK137" s="54"/>
-      <c r="CL137" s="54"/>
-      <c r="CM137" s="54"/>
-      <c r="CN137" s="54"/>
-      <c r="CO137" s="54"/>
-      <c r="CP137" s="54"/>
-      <c r="CQ137" s="54"/>
-      <c r="CR137" s="54"/>
-      <c r="CS137" s="55"/>
+      <c r="BT137" s="51"/>
+      <c r="BU137" s="52"/>
+      <c r="BV137" s="52"/>
+      <c r="BW137" s="52"/>
+      <c r="BX137" s="52"/>
+      <c r="BY137" s="52"/>
+      <c r="BZ137" s="55"/>
+      <c r="CA137" s="55"/>
+      <c r="CB137" s="55"/>
+      <c r="CC137" s="55"/>
+      <c r="CD137" s="55"/>
+      <c r="CE137" s="55"/>
+      <c r="CF137" s="55"/>
+      <c r="CG137" s="55"/>
+      <c r="CH137" s="55"/>
+      <c r="CI137" s="55"/>
+      <c r="CJ137" s="55"/>
+      <c r="CK137" s="55"/>
+      <c r="CL137" s="55"/>
+      <c r="CM137" s="55"/>
+      <c r="CN137" s="55"/>
+      <c r="CO137" s="55"/>
+      <c r="CP137" s="55"/>
+      <c r="CQ137" s="55"/>
+      <c r="CR137" s="55"/>
+      <c r="CS137" s="56"/>
       <c r="CT137" s="18"/>
       <c r="CU137" s="18"/>
       <c r="CV137" s="17"/>
-      <c r="CW137" s="17"/>
+      <c r="CW137" s="33"/>
     </row>
     <row r="138" customHeight="1" spans="1:101">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
-      <c r="G138" s="56"/>
-      <c r="H138" s="56"/>
-      <c r="I138" s="56"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="56"/>
-      <c r="L138" s="56"/>
-      <c r="M138" s="56"/>
-      <c r="N138" s="56"/>
-      <c r="O138" s="56"/>
-      <c r="P138" s="56"/>
-      <c r="Q138" s="56"/>
-      <c r="R138" s="56"/>
-      <c r="S138" s="56"/>
-      <c r="T138" s="56"/>
-      <c r="U138" s="56"/>
-      <c r="V138" s="56"/>
-      <c r="W138" s="56"/>
-      <c r="X138" s="56"/>
-      <c r="Y138" s="56"/>
-      <c r="Z138" s="56"/>
-      <c r="AA138" s="56"/>
-      <c r="AB138" s="56"/>
-      <c r="AC138" s="56"/>
-      <c r="AD138" s="56"/>
-      <c r="AE138" s="56"/>
-      <c r="AF138" s="56"/>
-      <c r="AG138" s="56"/>
-      <c r="AH138" s="56"/>
-      <c r="AI138" s="56"/>
-      <c r="AJ138" s="56"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="57"/>
+      <c r="K138" s="57"/>
+      <c r="L138" s="57"/>
+      <c r="M138" s="57"/>
+      <c r="N138" s="57"/>
+      <c r="O138" s="57"/>
+      <c r="P138" s="57"/>
+      <c r="Q138" s="57"/>
+      <c r="R138" s="57"/>
+      <c r="S138" s="57"/>
+      <c r="T138" s="57"/>
+      <c r="U138" s="57"/>
+      <c r="V138" s="57"/>
+      <c r="W138" s="57"/>
+      <c r="X138" s="57"/>
+      <c r="Y138" s="57"/>
+      <c r="Z138" s="57"/>
+      <c r="AA138" s="57"/>
+      <c r="AB138" s="57"/>
+      <c r="AC138" s="57"/>
+      <c r="AD138" s="57"/>
+      <c r="AE138" s="57"/>
+      <c r="AF138" s="57"/>
+      <c r="AG138" s="57"/>
+      <c r="AH138" s="57"/>
+      <c r="AI138" s="57"/>
+      <c r="AJ138" s="57"/>
       <c r="AK138" s="9"/>
       <c r="AL138" s="9"/>
       <c r="AM138" s="17"/>
@@ -16446,114 +16455,114 @@
       <c r="CT138" s="18"/>
       <c r="CU138" s="18"/>
       <c r="CV138" s="17"/>
-      <c r="CW138" s="17"/>
+      <c r="CW138" s="33"/>
     </row>
     <row r="139" customHeight="1" spans="1:101">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
-      <c r="C139" s="56"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="56"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="56"/>
-      <c r="L139" s="56"/>
-      <c r="M139" s="56"/>
-      <c r="N139" s="56"/>
-      <c r="O139" s="56"/>
-      <c r="P139" s="56"/>
-      <c r="Q139" s="56"/>
-      <c r="R139" s="56"/>
-      <c r="S139" s="56"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
-      <c r="V139" s="56"/>
-      <c r="W139" s="56"/>
-      <c r="X139" s="56"/>
-      <c r="Y139" s="56"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
-      <c r="AB139" s="56"/>
-      <c r="AC139" s="56"/>
-      <c r="AD139" s="56"/>
-      <c r="AE139" s="56"/>
-      <c r="AF139" s="56"/>
-      <c r="AG139" s="56"/>
-      <c r="AH139" s="56"/>
-      <c r="AI139" s="56"/>
-      <c r="AJ139" s="56"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="57"/>
+      <c r="L139" s="57"/>
+      <c r="M139" s="57"/>
+      <c r="N139" s="57"/>
+      <c r="O139" s="57"/>
+      <c r="P139" s="57"/>
+      <c r="Q139" s="57"/>
+      <c r="R139" s="57"/>
+      <c r="S139" s="57"/>
+      <c r="T139" s="57"/>
+      <c r="U139" s="57"/>
+      <c r="V139" s="57"/>
+      <c r="W139" s="57"/>
+      <c r="X139" s="57"/>
+      <c r="Y139" s="57"/>
+      <c r="Z139" s="57"/>
+      <c r="AA139" s="57"/>
+      <c r="AB139" s="57"/>
+      <c r="AC139" s="57"/>
+      <c r="AD139" s="57"/>
+      <c r="AE139" s="57"/>
+      <c r="AF139" s="57"/>
+      <c r="AG139" s="57"/>
+      <c r="AH139" s="57"/>
+      <c r="AI139" s="57"/>
+      <c r="AJ139" s="57"/>
       <c r="AK139" s="9"/>
       <c r="AL139" s="9"/>
       <c r="AM139" s="17"/>
       <c r="AN139" s="17"/>
       <c r="AO139" s="18"/>
       <c r="AP139" s="18"/>
-      <c r="AQ139" s="49" t="s">
+      <c r="AQ139" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AR139" s="49"/>
-      <c r="AS139" s="49"/>
-      <c r="AT139" s="49"/>
-      <c r="AU139" s="49"/>
-      <c r="AV139" s="49"/>
-      <c r="AW139" s="49"/>
-      <c r="AX139" s="49"/>
-      <c r="AY139" s="49"/>
-      <c r="AZ139" s="49"/>
-      <c r="BA139" s="49"/>
-      <c r="BB139" s="49"/>
-      <c r="BC139" s="49"/>
-      <c r="BD139" s="49"/>
-      <c r="BE139" s="49"/>
-      <c r="BF139" s="49"/>
-      <c r="BG139" s="49"/>
-      <c r="BH139" s="49"/>
-      <c r="BI139" s="49"/>
-      <c r="BJ139" s="49"/>
-      <c r="BK139" s="49"/>
-      <c r="BL139" s="49"/>
-      <c r="BM139" s="49"/>
-      <c r="BN139" s="49"/>
-      <c r="BO139" s="49"/>
-      <c r="BP139" s="49"/>
+      <c r="AR139" s="50"/>
+      <c r="AS139" s="50"/>
+      <c r="AT139" s="50"/>
+      <c r="AU139" s="50"/>
+      <c r="AV139" s="50"/>
+      <c r="AW139" s="50"/>
+      <c r="AX139" s="50"/>
+      <c r="AY139" s="50"/>
+      <c r="AZ139" s="50"/>
+      <c r="BA139" s="50"/>
+      <c r="BB139" s="50"/>
+      <c r="BC139" s="50"/>
+      <c r="BD139" s="50"/>
+      <c r="BE139" s="50"/>
+      <c r="BF139" s="50"/>
+      <c r="BG139" s="50"/>
+      <c r="BH139" s="50"/>
+      <c r="BI139" s="50"/>
+      <c r="BJ139" s="50"/>
+      <c r="BK139" s="50"/>
+      <c r="BL139" s="50"/>
+      <c r="BM139" s="50"/>
+      <c r="BN139" s="50"/>
+      <c r="BO139" s="50"/>
+      <c r="BP139" s="50"/>
       <c r="BQ139" s="31"/>
       <c r="BR139" s="31"/>
       <c r="BS139" s="31"/>
-      <c r="BT139" s="49" t="s">
+      <c r="BT139" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BU139" s="49"/>
-      <c r="BV139" s="49"/>
-      <c r="BW139" s="49"/>
-      <c r="BX139" s="49"/>
-      <c r="BY139" s="49"/>
-      <c r="BZ139" s="49"/>
-      <c r="CA139" s="49"/>
-      <c r="CB139" s="49"/>
-      <c r="CC139" s="49"/>
-      <c r="CD139" s="49"/>
-      <c r="CE139" s="49"/>
-      <c r="CF139" s="49"/>
-      <c r="CG139" s="49"/>
-      <c r="CH139" s="49"/>
-      <c r="CI139" s="49"/>
-      <c r="CJ139" s="49"/>
-      <c r="CK139" s="49"/>
-      <c r="CL139" s="49"/>
-      <c r="CM139" s="49"/>
-      <c r="CN139" s="49"/>
-      <c r="CO139" s="49"/>
-      <c r="CP139" s="49"/>
-      <c r="CQ139" s="49"/>
-      <c r="CR139" s="49"/>
-      <c r="CS139" s="49"/>
+      <c r="BU139" s="50"/>
+      <c r="BV139" s="50"/>
+      <c r="BW139" s="50"/>
+      <c r="BX139" s="50"/>
+      <c r="BY139" s="50"/>
+      <c r="BZ139" s="50"/>
+      <c r="CA139" s="50"/>
+      <c r="CB139" s="50"/>
+      <c r="CC139" s="50"/>
+      <c r="CD139" s="50"/>
+      <c r="CE139" s="50"/>
+      <c r="CF139" s="50"/>
+      <c r="CG139" s="50"/>
+      <c r="CH139" s="50"/>
+      <c r="CI139" s="50"/>
+      <c r="CJ139" s="50"/>
+      <c r="CK139" s="50"/>
+      <c r="CL139" s="50"/>
+      <c r="CM139" s="50"/>
+      <c r="CN139" s="50"/>
+      <c r="CO139" s="50"/>
+      <c r="CP139" s="50"/>
+      <c r="CQ139" s="50"/>
+      <c r="CR139" s="50"/>
+      <c r="CS139" s="50"/>
       <c r="CT139" s="18"/>
       <c r="CU139" s="18"/>
       <c r="CV139" s="17"/>
-      <c r="CW139" s="17"/>
+      <c r="CW139" s="33"/>
     </row>
     <row r="140" customHeight="1" spans="1:101">
       <c r="A140" s="9"/>
@@ -16598,311 +16607,311 @@
       <c r="AN140" s="17"/>
       <c r="AO140" s="18"/>
       <c r="AP140" s="18"/>
-      <c r="AQ140" s="49"/>
-      <c r="AR140" s="49"/>
-      <c r="AS140" s="49"/>
-      <c r="AT140" s="49"/>
-      <c r="AU140" s="49"/>
-      <c r="AV140" s="49"/>
-      <c r="AW140" s="49"/>
-      <c r="AX140" s="49"/>
-      <c r="AY140" s="49"/>
-      <c r="AZ140" s="49"/>
-      <c r="BA140" s="49"/>
-      <c r="BB140" s="49"/>
-      <c r="BC140" s="49"/>
-      <c r="BD140" s="49"/>
-      <c r="BE140" s="49"/>
-      <c r="BF140" s="49"/>
-      <c r="BG140" s="49"/>
-      <c r="BH140" s="49"/>
-      <c r="BI140" s="49"/>
-      <c r="BJ140" s="49"/>
-      <c r="BK140" s="49"/>
-      <c r="BL140" s="49"/>
-      <c r="BM140" s="49"/>
-      <c r="BN140" s="49"/>
-      <c r="BO140" s="49"/>
-      <c r="BP140" s="49"/>
+      <c r="AQ140" s="50"/>
+      <c r="AR140" s="50"/>
+      <c r="AS140" s="50"/>
+      <c r="AT140" s="50"/>
+      <c r="AU140" s="50"/>
+      <c r="AV140" s="50"/>
+      <c r="AW140" s="50"/>
+      <c r="AX140" s="50"/>
+      <c r="AY140" s="50"/>
+      <c r="AZ140" s="50"/>
+      <c r="BA140" s="50"/>
+      <c r="BB140" s="50"/>
+      <c r="BC140" s="50"/>
+      <c r="BD140" s="50"/>
+      <c r="BE140" s="50"/>
+      <c r="BF140" s="50"/>
+      <c r="BG140" s="50"/>
+      <c r="BH140" s="50"/>
+      <c r="BI140" s="50"/>
+      <c r="BJ140" s="50"/>
+      <c r="BK140" s="50"/>
+      <c r="BL140" s="50"/>
+      <c r="BM140" s="50"/>
+      <c r="BN140" s="50"/>
+      <c r="BO140" s="50"/>
+      <c r="BP140" s="50"/>
       <c r="BQ140" s="31"/>
       <c r="BR140" s="31"/>
       <c r="BS140" s="31"/>
-      <c r="BT140" s="49"/>
-      <c r="BU140" s="49"/>
-      <c r="BV140" s="49"/>
-      <c r="BW140" s="49"/>
-      <c r="BX140" s="49"/>
-      <c r="BY140" s="49"/>
-      <c r="BZ140" s="49"/>
-      <c r="CA140" s="49"/>
-      <c r="CB140" s="49"/>
-      <c r="CC140" s="49"/>
-      <c r="CD140" s="49"/>
-      <c r="CE140" s="49"/>
-      <c r="CF140" s="49"/>
-      <c r="CG140" s="49"/>
-      <c r="CH140" s="49"/>
-      <c r="CI140" s="49"/>
-      <c r="CJ140" s="49"/>
-      <c r="CK140" s="49"/>
-      <c r="CL140" s="49"/>
-      <c r="CM140" s="49"/>
-      <c r="CN140" s="49"/>
-      <c r="CO140" s="49"/>
-      <c r="CP140" s="49"/>
-      <c r="CQ140" s="49"/>
-      <c r="CR140" s="49"/>
-      <c r="CS140" s="49"/>
+      <c r="BT140" s="50"/>
+      <c r="BU140" s="50"/>
+      <c r="BV140" s="50"/>
+      <c r="BW140" s="50"/>
+      <c r="BX140" s="50"/>
+      <c r="BY140" s="50"/>
+      <c r="BZ140" s="50"/>
+      <c r="CA140" s="50"/>
+      <c r="CB140" s="50"/>
+      <c r="CC140" s="50"/>
+      <c r="CD140" s="50"/>
+      <c r="CE140" s="50"/>
+      <c r="CF140" s="50"/>
+      <c r="CG140" s="50"/>
+      <c r="CH140" s="50"/>
+      <c r="CI140" s="50"/>
+      <c r="CJ140" s="50"/>
+      <c r="CK140" s="50"/>
+      <c r="CL140" s="50"/>
+      <c r="CM140" s="50"/>
+      <c r="CN140" s="50"/>
+      <c r="CO140" s="50"/>
+      <c r="CP140" s="50"/>
+      <c r="CQ140" s="50"/>
+      <c r="CR140" s="50"/>
+      <c r="CS140" s="50"/>
       <c r="CT140" s="18"/>
       <c r="CU140" s="18"/>
       <c r="CV140" s="17"/>
-      <c r="CW140" s="17"/>
+      <c r="CW140" s="33"/>
     </row>
     <row r="141" customHeight="1" spans="1:101">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
-      <c r="C141" s="56" t="s">
+      <c r="C141" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="56"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="56"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="56"/>
-      <c r="L141" s="56"/>
-      <c r="M141" s="56"/>
-      <c r="N141" s="56"/>
-      <c r="O141" s="56"/>
-      <c r="P141" s="56"/>
-      <c r="Q141" s="56"/>
-      <c r="R141" s="56"/>
-      <c r="S141" s="56"/>
-      <c r="T141" s="56"/>
-      <c r="U141" s="56"/>
-      <c r="V141" s="56"/>
-      <c r="W141" s="56"/>
-      <c r="X141" s="56"/>
-      <c r="Y141" s="56"/>
-      <c r="Z141" s="56"/>
-      <c r="AA141" s="56"/>
-      <c r="AB141" s="56"/>
-      <c r="AC141" s="56"/>
-      <c r="AD141" s="56"/>
-      <c r="AE141" s="56"/>
-      <c r="AF141" s="56"/>
-      <c r="AG141" s="56"/>
-      <c r="AH141" s="56"/>
-      <c r="AI141" s="56"/>
-      <c r="AJ141" s="56"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
+      <c r="M141" s="57"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="57"/>
+      <c r="P141" s="57"/>
+      <c r="Q141" s="57"/>
+      <c r="R141" s="57"/>
+      <c r="S141" s="57"/>
+      <c r="T141" s="57"/>
+      <c r="U141" s="57"/>
+      <c r="V141" s="57"/>
+      <c r="W141" s="57"/>
+      <c r="X141" s="57"/>
+      <c r="Y141" s="57"/>
+      <c r="Z141" s="57"/>
+      <c r="AA141" s="57"/>
+      <c r="AB141" s="57"/>
+      <c r="AC141" s="57"/>
+      <c r="AD141" s="57"/>
+      <c r="AE141" s="57"/>
+      <c r="AF141" s="57"/>
+      <c r="AG141" s="57"/>
+      <c r="AH141" s="57"/>
+      <c r="AI141" s="57"/>
+      <c r="AJ141" s="57"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
       <c r="AM141" s="17"/>
       <c r="AN141" s="17"/>
       <c r="AO141" s="18"/>
       <c r="AP141" s="18"/>
-      <c r="AQ141" s="49"/>
-      <c r="AR141" s="49"/>
-      <c r="AS141" s="49"/>
-      <c r="AT141" s="49"/>
-      <c r="AU141" s="49"/>
-      <c r="AV141" s="49"/>
-      <c r="AW141" s="49"/>
-      <c r="AX141" s="49"/>
-      <c r="AY141" s="49"/>
-      <c r="AZ141" s="49"/>
-      <c r="BA141" s="49"/>
-      <c r="BB141" s="49"/>
-      <c r="BC141" s="49"/>
-      <c r="BD141" s="49"/>
-      <c r="BE141" s="49"/>
-      <c r="BF141" s="49"/>
-      <c r="BG141" s="49"/>
-      <c r="BH141" s="49"/>
-      <c r="BI141" s="49"/>
-      <c r="BJ141" s="49"/>
-      <c r="BK141" s="49"/>
-      <c r="BL141" s="49"/>
-      <c r="BM141" s="49"/>
-      <c r="BN141" s="49"/>
-      <c r="BO141" s="49"/>
-      <c r="BP141" s="49"/>
+      <c r="AQ141" s="50"/>
+      <c r="AR141" s="50"/>
+      <c r="AS141" s="50"/>
+      <c r="AT141" s="50"/>
+      <c r="AU141" s="50"/>
+      <c r="AV141" s="50"/>
+      <c r="AW141" s="50"/>
+      <c r="AX141" s="50"/>
+      <c r="AY141" s="50"/>
+      <c r="AZ141" s="50"/>
+      <c r="BA141" s="50"/>
+      <c r="BB141" s="50"/>
+      <c r="BC141" s="50"/>
+      <c r="BD141" s="50"/>
+      <c r="BE141" s="50"/>
+      <c r="BF141" s="50"/>
+      <c r="BG141" s="50"/>
+      <c r="BH141" s="50"/>
+      <c r="BI141" s="50"/>
+      <c r="BJ141" s="50"/>
+      <c r="BK141" s="50"/>
+      <c r="BL141" s="50"/>
+      <c r="BM141" s="50"/>
+      <c r="BN141" s="50"/>
+      <c r="BO141" s="50"/>
+      <c r="BP141" s="50"/>
       <c r="BQ141" s="31"/>
       <c r="BR141" s="31"/>
       <c r="BS141" s="31"/>
-      <c r="BT141" s="49"/>
-      <c r="BU141" s="49"/>
-      <c r="BV141" s="49"/>
-      <c r="BW141" s="49"/>
-      <c r="BX141" s="49"/>
-      <c r="BY141" s="49"/>
-      <c r="BZ141" s="49"/>
-      <c r="CA141" s="49"/>
-      <c r="CB141" s="49"/>
-      <c r="CC141" s="49"/>
-      <c r="CD141" s="49"/>
-      <c r="CE141" s="49"/>
-      <c r="CF141" s="49"/>
-      <c r="CG141" s="49"/>
-      <c r="CH141" s="49"/>
-      <c r="CI141" s="49"/>
-      <c r="CJ141" s="49"/>
-      <c r="CK141" s="49"/>
-      <c r="CL141" s="49"/>
-      <c r="CM141" s="49"/>
-      <c r="CN141" s="49"/>
-      <c r="CO141" s="49"/>
-      <c r="CP141" s="49"/>
-      <c r="CQ141" s="49"/>
-      <c r="CR141" s="49"/>
-      <c r="CS141" s="49"/>
+      <c r="BT141" s="50"/>
+      <c r="BU141" s="50"/>
+      <c r="BV141" s="50"/>
+      <c r="BW141" s="50"/>
+      <c r="BX141" s="50"/>
+      <c r="BY141" s="50"/>
+      <c r="BZ141" s="50"/>
+      <c r="CA141" s="50"/>
+      <c r="CB141" s="50"/>
+      <c r="CC141" s="50"/>
+      <c r="CD141" s="50"/>
+      <c r="CE141" s="50"/>
+      <c r="CF141" s="50"/>
+      <c r="CG141" s="50"/>
+      <c r="CH141" s="50"/>
+      <c r="CI141" s="50"/>
+      <c r="CJ141" s="50"/>
+      <c r="CK141" s="50"/>
+      <c r="CL141" s="50"/>
+      <c r="CM141" s="50"/>
+      <c r="CN141" s="50"/>
+      <c r="CO141" s="50"/>
+      <c r="CP141" s="50"/>
+      <c r="CQ141" s="50"/>
+      <c r="CR141" s="50"/>
+      <c r="CS141" s="50"/>
       <c r="CT141" s="18"/>
       <c r="CU141" s="18"/>
       <c r="CV141" s="17"/>
-      <c r="CW141" s="17"/>
+      <c r="CW141" s="33"/>
     </row>
     <row r="142" customHeight="1" spans="1:101">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="56"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="56"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="56"/>
-      <c r="L142" s="56"/>
-      <c r="M142" s="56"/>
-      <c r="N142" s="56"/>
-      <c r="O142" s="56"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="56"/>
-      <c r="S142" s="56"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
-      <c r="V142" s="56"/>
-      <c r="W142" s="56"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
-      <c r="AB142" s="56"/>
-      <c r="AC142" s="56"/>
-      <c r="AD142" s="56"/>
-      <c r="AE142" s="56"/>
-      <c r="AF142" s="56"/>
-      <c r="AG142" s="56"/>
-      <c r="AH142" s="56"/>
-      <c r="AI142" s="56"/>
-      <c r="AJ142" s="56"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="57"/>
+      <c r="L142" s="57"/>
+      <c r="M142" s="57"/>
+      <c r="N142" s="57"/>
+      <c r="O142" s="57"/>
+      <c r="P142" s="57"/>
+      <c r="Q142" s="57"/>
+      <c r="R142" s="57"/>
+      <c r="S142" s="57"/>
+      <c r="T142" s="57"/>
+      <c r="U142" s="57"/>
+      <c r="V142" s="57"/>
+      <c r="W142" s="57"/>
+      <c r="X142" s="57"/>
+      <c r="Y142" s="57"/>
+      <c r="Z142" s="57"/>
+      <c r="AA142" s="57"/>
+      <c r="AB142" s="57"/>
+      <c r="AC142" s="57"/>
+      <c r="AD142" s="57"/>
+      <c r="AE142" s="57"/>
+      <c r="AF142" s="57"/>
+      <c r="AG142" s="57"/>
+      <c r="AH142" s="57"/>
+      <c r="AI142" s="57"/>
+      <c r="AJ142" s="57"/>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
       <c r="AM142" s="17"/>
       <c r="AN142" s="17"/>
       <c r="AO142" s="18"/>
       <c r="AP142" s="18"/>
-      <c r="AQ142" s="50"/>
-      <c r="AR142" s="51"/>
-      <c r="AS142" s="51"/>
-      <c r="AT142" s="51"/>
-      <c r="AU142" s="51"/>
-      <c r="AV142" s="51"/>
-      <c r="AW142" s="51"/>
-      <c r="AX142" s="51"/>
-      <c r="AY142" s="51"/>
-      <c r="AZ142" s="51"/>
-      <c r="BA142" s="51"/>
-      <c r="BB142" s="51"/>
-      <c r="BC142" s="51"/>
-      <c r="BD142" s="54"/>
-      <c r="BE142" s="54"/>
-      <c r="BF142" s="54"/>
-      <c r="BG142" s="54"/>
-      <c r="BH142" s="54"/>
-      <c r="BI142" s="54"/>
-      <c r="BJ142" s="54"/>
-      <c r="BK142" s="54"/>
-      <c r="BL142" s="54"/>
-      <c r="BM142" s="54"/>
-      <c r="BN142" s="54"/>
-      <c r="BO142" s="54"/>
-      <c r="BP142" s="55"/>
+      <c r="AQ142" s="51"/>
+      <c r="AR142" s="52"/>
+      <c r="AS142" s="52"/>
+      <c r="AT142" s="52"/>
+      <c r="AU142" s="52"/>
+      <c r="AV142" s="52"/>
+      <c r="AW142" s="52"/>
+      <c r="AX142" s="52"/>
+      <c r="AY142" s="52"/>
+      <c r="AZ142" s="52"/>
+      <c r="BA142" s="52"/>
+      <c r="BB142" s="52"/>
+      <c r="BC142" s="52"/>
+      <c r="BD142" s="55"/>
+      <c r="BE142" s="55"/>
+      <c r="BF142" s="55"/>
+      <c r="BG142" s="55"/>
+      <c r="BH142" s="55"/>
+      <c r="BI142" s="55"/>
+      <c r="BJ142" s="55"/>
+      <c r="BK142" s="55"/>
+      <c r="BL142" s="55"/>
+      <c r="BM142" s="55"/>
+      <c r="BN142" s="55"/>
+      <c r="BO142" s="55"/>
+      <c r="BP142" s="56"/>
       <c r="BQ142" s="31"/>
       <c r="BR142" s="31"/>
       <c r="BS142" s="31"/>
-      <c r="BT142" s="50"/>
-      <c r="BU142" s="51"/>
-      <c r="BV142" s="51"/>
-      <c r="BW142" s="51"/>
-      <c r="BX142" s="51"/>
-      <c r="BY142" s="51"/>
-      <c r="BZ142" s="51"/>
-      <c r="CA142" s="51"/>
-      <c r="CB142" s="51"/>
-      <c r="CC142" s="51"/>
-      <c r="CD142" s="51"/>
-      <c r="CE142" s="54"/>
-      <c r="CF142" s="54"/>
-      <c r="CG142" s="54"/>
-      <c r="CH142" s="54"/>
-      <c r="CI142" s="54"/>
-      <c r="CJ142" s="54"/>
-      <c r="CK142" s="54"/>
-      <c r="CL142" s="54"/>
-      <c r="CM142" s="54"/>
-      <c r="CN142" s="54"/>
-      <c r="CO142" s="54"/>
-      <c r="CP142" s="54"/>
-      <c r="CQ142" s="54"/>
-      <c r="CR142" s="54"/>
-      <c r="CS142" s="55"/>
+      <c r="BT142" s="51"/>
+      <c r="BU142" s="52"/>
+      <c r="BV142" s="52"/>
+      <c r="BW142" s="52"/>
+      <c r="BX142" s="52"/>
+      <c r="BY142" s="52"/>
+      <c r="BZ142" s="52"/>
+      <c r="CA142" s="52"/>
+      <c r="CB142" s="55"/>
+      <c r="CC142" s="55"/>
+      <c r="CD142" s="55"/>
+      <c r="CE142" s="55"/>
+      <c r="CF142" s="55"/>
+      <c r="CG142" s="55"/>
+      <c r="CH142" s="55"/>
+      <c r="CI142" s="55"/>
+      <c r="CJ142" s="55"/>
+      <c r="CK142" s="55"/>
+      <c r="CL142" s="55"/>
+      <c r="CM142" s="55"/>
+      <c r="CN142" s="55"/>
+      <c r="CO142" s="55"/>
+      <c r="CP142" s="55"/>
+      <c r="CQ142" s="55"/>
+      <c r="CR142" s="55"/>
+      <c r="CS142" s="56"/>
       <c r="CT142" s="18"/>
       <c r="CU142" s="18"/>
       <c r="CV142" s="17"/>
-      <c r="CW142" s="17"/>
+      <c r="CW142" s="33"/>
     </row>
     <row r="143" customHeight="1" spans="1:101">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="56"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="56"/>
-      <c r="L143" s="56"/>
-      <c r="M143" s="56"/>
-      <c r="N143" s="56"/>
-      <c r="O143" s="56"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="56"/>
-      <c r="R143" s="56"/>
-      <c r="S143" s="56"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
-      <c r="V143" s="56"/>
-      <c r="W143" s="56"/>
-      <c r="X143" s="56"/>
-      <c r="Y143" s="56"/>
-      <c r="Z143" s="56"/>
-      <c r="AA143" s="56"/>
-      <c r="AB143" s="56"/>
-      <c r="AC143" s="56"/>
-      <c r="AD143" s="56"/>
-      <c r="AE143" s="56"/>
-      <c r="AF143" s="56"/>
-      <c r="AG143" s="56"/>
-      <c r="AH143" s="56"/>
-      <c r="AI143" s="56"/>
-      <c r="AJ143" s="56"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="57"/>
+      <c r="L143" s="57"/>
+      <c r="M143" s="57"/>
+      <c r="N143" s="57"/>
+      <c r="O143" s="57"/>
+      <c r="P143" s="57"/>
+      <c r="Q143" s="57"/>
+      <c r="R143" s="57"/>
+      <c r="S143" s="57"/>
+      <c r="T143" s="57"/>
+      <c r="U143" s="57"/>
+      <c r="V143" s="57"/>
+      <c r="W143" s="57"/>
+      <c r="X143" s="57"/>
+      <c r="Y143" s="57"/>
+      <c r="Z143" s="57"/>
+      <c r="AA143" s="57"/>
+      <c r="AB143" s="57"/>
+      <c r="AC143" s="57"/>
+      <c r="AD143" s="57"/>
+      <c r="AE143" s="57"/>
+      <c r="AF143" s="57"/>
+      <c r="AG143" s="57"/>
+      <c r="AH143" s="57"/>
+      <c r="AI143" s="57"/>
+      <c r="AJ143" s="57"/>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
       <c r="AM143" s="17"/>
@@ -16967,7 +16976,7 @@
       <c r="CT143" s="18"/>
       <c r="CU143" s="18"/>
       <c r="CV143" s="17"/>
-      <c r="CW143" s="17"/>
+      <c r="CW143" s="33"/>
     </row>
     <row r="144" customHeight="1" spans="1:101">
       <c r="A144" s="9"/>
@@ -17070,47 +17079,47 @@
       <c r="CT144" s="18"/>
       <c r="CU144" s="18"/>
       <c r="CV144" s="17"/>
-      <c r="CW144" s="17"/>
+      <c r="CW144" s="33"/>
     </row>
     <row r="145" customHeight="1" spans="1:101">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
-      <c r="C145" s="56" t="s">
+      <c r="C145" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="56"/>
-      <c r="L145" s="56"/>
-      <c r="M145" s="56"/>
-      <c r="N145" s="56"/>
-      <c r="O145" s="56"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="56"/>
-      <c r="R145" s="56"/>
-      <c r="S145" s="56"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
-      <c r="V145" s="56"/>
-      <c r="W145" s="56"/>
-      <c r="X145" s="56"/>
-      <c r="Y145" s="56"/>
-      <c r="Z145" s="56"/>
-      <c r="AA145" s="56"/>
-      <c r="AB145" s="56"/>
-      <c r="AC145" s="56"/>
-      <c r="AD145" s="56"/>
-      <c r="AE145" s="56"/>
-      <c r="AF145" s="56"/>
-      <c r="AG145" s="56"/>
-      <c r="AH145" s="56"/>
-      <c r="AI145" s="56"/>
-      <c r="AJ145" s="56"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="57"/>
+      <c r="L145" s="57"/>
+      <c r="M145" s="57"/>
+      <c r="N145" s="57"/>
+      <c r="O145" s="57"/>
+      <c r="P145" s="57"/>
+      <c r="Q145" s="57"/>
+      <c r="R145" s="57"/>
+      <c r="S145" s="57"/>
+      <c r="T145" s="57"/>
+      <c r="U145" s="57"/>
+      <c r="V145" s="57"/>
+      <c r="W145" s="57"/>
+      <c r="X145" s="57"/>
+      <c r="Y145" s="57"/>
+      <c r="Z145" s="57"/>
+      <c r="AA145" s="57"/>
+      <c r="AB145" s="57"/>
+      <c r="AC145" s="57"/>
+      <c r="AD145" s="57"/>
+      <c r="AE145" s="57"/>
+      <c r="AF145" s="57"/>
+      <c r="AG145" s="57"/>
+      <c r="AH145" s="57"/>
+      <c r="AI145" s="57"/>
+      <c r="AJ145" s="57"/>
       <c r="AK145" s="10"/>
       <c r="AL145" s="10"/>
       <c r="AM145" s="17"/>
@@ -17175,45 +17184,45 @@
       <c r="CT145" s="18"/>
       <c r="CU145" s="18"/>
       <c r="CV145" s="17"/>
-      <c r="CW145" s="17"/>
+      <c r="CW145" s="33"/>
     </row>
     <row r="146" customHeight="1" spans="1:101">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
-      <c r="C146" s="56"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="56"/>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
-      <c r="O146" s="56"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="56"/>
-      <c r="R146" s="56"/>
-      <c r="S146" s="56"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
-      <c r="V146" s="56"/>
-      <c r="W146" s="56"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
-      <c r="AB146" s="56"/>
-      <c r="AC146" s="56"/>
-      <c r="AD146" s="56"/>
-      <c r="AE146" s="56"/>
-      <c r="AF146" s="56"/>
-      <c r="AG146" s="56"/>
-      <c r="AH146" s="56"/>
-      <c r="AI146" s="56"/>
-      <c r="AJ146" s="56"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="57"/>
+      <c r="L146" s="57"/>
+      <c r="M146" s="57"/>
+      <c r="N146" s="57"/>
+      <c r="O146" s="57"/>
+      <c r="P146" s="57"/>
+      <c r="Q146" s="57"/>
+      <c r="R146" s="57"/>
+      <c r="S146" s="57"/>
+      <c r="T146" s="57"/>
+      <c r="U146" s="57"/>
+      <c r="V146" s="57"/>
+      <c r="W146" s="57"/>
+      <c r="X146" s="57"/>
+      <c r="Y146" s="57"/>
+      <c r="Z146" s="57"/>
+      <c r="AA146" s="57"/>
+      <c r="AB146" s="57"/>
+      <c r="AC146" s="57"/>
+      <c r="AD146" s="57"/>
+      <c r="AE146" s="57"/>
+      <c r="AF146" s="57"/>
+      <c r="AG146" s="57"/>
+      <c r="AH146" s="57"/>
+      <c r="AI146" s="57"/>
+      <c r="AJ146" s="57"/>
       <c r="AK146" s="10"/>
       <c r="AL146" s="10"/>
       <c r="AM146" s="17"/>
@@ -17278,110 +17287,110 @@
       <c r="CT146" s="18"/>
       <c r="CU146" s="18"/>
       <c r="CV146" s="17"/>
-      <c r="CW146" s="17"/>
+      <c r="CW146" s="33"/>
     </row>
     <row r="147" customHeight="1" spans="1:101">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
-      <c r="C147" s="56"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="56"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="56"/>
-      <c r="L147" s="56"/>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
-      <c r="O147" s="56"/>
-      <c r="P147" s="56"/>
-      <c r="Q147" s="56"/>
-      <c r="R147" s="56"/>
-      <c r="S147" s="56"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
-      <c r="V147" s="56"/>
-      <c r="W147" s="56"/>
-      <c r="X147" s="56"/>
-      <c r="Y147" s="56"/>
-      <c r="Z147" s="56"/>
-      <c r="AA147" s="56"/>
-      <c r="AB147" s="56"/>
-      <c r="AC147" s="56"/>
-      <c r="AD147" s="56"/>
-      <c r="AE147" s="56"/>
-      <c r="AF147" s="56"/>
-      <c r="AG147" s="56"/>
-      <c r="AH147" s="56"/>
-      <c r="AI147" s="56"/>
-      <c r="AJ147" s="56"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
+      <c r="M147" s="57"/>
+      <c r="N147" s="57"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="57"/>
+      <c r="Q147" s="57"/>
+      <c r="R147" s="57"/>
+      <c r="S147" s="57"/>
+      <c r="T147" s="57"/>
+      <c r="U147" s="57"/>
+      <c r="V147" s="57"/>
+      <c r="W147" s="57"/>
+      <c r="X147" s="57"/>
+      <c r="Y147" s="57"/>
+      <c r="Z147" s="57"/>
+      <c r="AA147" s="57"/>
+      <c r="AB147" s="57"/>
+      <c r="AC147" s="57"/>
+      <c r="AD147" s="57"/>
+      <c r="AE147" s="57"/>
+      <c r="AF147" s="57"/>
+      <c r="AG147" s="57"/>
+      <c r="AH147" s="57"/>
+      <c r="AI147" s="57"/>
+      <c r="AJ147" s="57"/>
       <c r="AK147" s="10"/>
       <c r="AL147" s="10"/>
       <c r="AM147" s="17"/>
       <c r="AN147" s="17"/>
-      <c r="AO147" s="47"/>
-      <c r="AP147" s="47"/>
-      <c r="AQ147" s="47"/>
-      <c r="AR147" s="47"/>
-      <c r="AS147" s="47"/>
-      <c r="AT147" s="47"/>
-      <c r="AU147" s="47"/>
-      <c r="AV147" s="47"/>
-      <c r="AW147" s="47"/>
-      <c r="AX147" s="47"/>
-      <c r="AY147" s="47"/>
-      <c r="AZ147" s="47"/>
-      <c r="BA147" s="47"/>
-      <c r="BB147" s="47"/>
-      <c r="BC147" s="47"/>
-      <c r="BD147" s="47"/>
-      <c r="BE147" s="47"/>
-      <c r="BF147" s="47"/>
-      <c r="BG147" s="47"/>
-      <c r="BH147" s="47"/>
-      <c r="BI147" s="47"/>
-      <c r="BJ147" s="47"/>
-      <c r="BK147" s="47"/>
-      <c r="BL147" s="47"/>
-      <c r="BM147" s="47"/>
-      <c r="BN147" s="47"/>
-      <c r="BO147" s="47"/>
-      <c r="BP147" s="47"/>
-      <c r="BQ147" s="47"/>
-      <c r="BR147" s="47"/>
-      <c r="BS147" s="47"/>
-      <c r="BT147" s="47"/>
-      <c r="BU147" s="47"/>
-      <c r="BV147" s="47"/>
-      <c r="BW147" s="47"/>
-      <c r="BX147" s="47"/>
-      <c r="BY147" s="47"/>
-      <c r="BZ147" s="47"/>
-      <c r="CA147" s="47"/>
-      <c r="CB147" s="47"/>
-      <c r="CC147" s="47"/>
-      <c r="CD147" s="47"/>
-      <c r="CE147" s="47"/>
-      <c r="CF147" s="47"/>
-      <c r="CG147" s="47"/>
-      <c r="CH147" s="47"/>
-      <c r="CI147" s="47"/>
-      <c r="CJ147" s="47"/>
-      <c r="CK147" s="47"/>
-      <c r="CL147" s="47"/>
-      <c r="CM147" s="47"/>
-      <c r="CN147" s="47"/>
-      <c r="CO147" s="47"/>
-      <c r="CP147" s="47"/>
-      <c r="CQ147" s="47"/>
-      <c r="CR147" s="47"/>
-      <c r="CS147" s="47"/>
-      <c r="CT147" s="47"/>
-      <c r="CU147" s="47"/>
+      <c r="AO147" s="48"/>
+      <c r="AP147" s="48"/>
+      <c r="AQ147" s="48"/>
+      <c r="AR147" s="48"/>
+      <c r="AS147" s="48"/>
+      <c r="AT147" s="48"/>
+      <c r="AU147" s="48"/>
+      <c r="AV147" s="48"/>
+      <c r="AW147" s="48"/>
+      <c r="AX147" s="48"/>
+      <c r="AY147" s="48"/>
+      <c r="AZ147" s="48"/>
+      <c r="BA147" s="48"/>
+      <c r="BB147" s="48"/>
+      <c r="BC147" s="48"/>
+      <c r="BD147" s="48"/>
+      <c r="BE147" s="48"/>
+      <c r="BF147" s="48"/>
+      <c r="BG147" s="48"/>
+      <c r="BH147" s="48"/>
+      <c r="BI147" s="48"/>
+      <c r="BJ147" s="48"/>
+      <c r="BK147" s="48"/>
+      <c r="BL147" s="48"/>
+      <c r="BM147" s="48"/>
+      <c r="BN147" s="48"/>
+      <c r="BO147" s="48"/>
+      <c r="BP147" s="48"/>
+      <c r="BQ147" s="48"/>
+      <c r="BR147" s="48"/>
+      <c r="BS147" s="48"/>
+      <c r="BT147" s="48"/>
+      <c r="BU147" s="48"/>
+      <c r="BV147" s="48"/>
+      <c r="BW147" s="48"/>
+      <c r="BX147" s="48"/>
+      <c r="BY147" s="48"/>
+      <c r="BZ147" s="48"/>
+      <c r="CA147" s="48"/>
+      <c r="CB147" s="48"/>
+      <c r="CC147" s="48"/>
+      <c r="CD147" s="48"/>
+      <c r="CE147" s="48"/>
+      <c r="CF147" s="48"/>
+      <c r="CG147" s="48"/>
+      <c r="CH147" s="48"/>
+      <c r="CI147" s="48"/>
+      <c r="CJ147" s="48"/>
+      <c r="CK147" s="48"/>
+      <c r="CL147" s="48"/>
+      <c r="CM147" s="48"/>
+      <c r="CN147" s="48"/>
+      <c r="CO147" s="48"/>
+      <c r="CP147" s="48"/>
+      <c r="CQ147" s="48"/>
+      <c r="CR147" s="48"/>
+      <c r="CS147" s="48"/>
+      <c r="CT147" s="48"/>
+      <c r="CU147" s="48"/>
       <c r="CV147" s="17"/>
-      <c r="CW147" s="17"/>
+      <c r="CW147" s="33"/>
     </row>
     <row r="148" customHeight="1" spans="1:101">
       <c r="A148" s="10"/>
@@ -17424,67 +17433,67 @@
       <c r="AL148" s="10"/>
       <c r="AM148" s="17"/>
       <c r="AN148" s="17"/>
-      <c r="AO148" s="47"/>
-      <c r="AP148" s="47"/>
-      <c r="AQ148" s="47"/>
-      <c r="AR148" s="47"/>
-      <c r="AS148" s="47"/>
-      <c r="AT148" s="47"/>
-      <c r="AU148" s="47"/>
-      <c r="AV148" s="47"/>
-      <c r="AW148" s="47"/>
-      <c r="AX148" s="47"/>
-      <c r="AY148" s="47"/>
-      <c r="AZ148" s="47"/>
-      <c r="BA148" s="47"/>
-      <c r="BB148" s="47"/>
-      <c r="BC148" s="47"/>
-      <c r="BD148" s="47"/>
-      <c r="BE148" s="47"/>
-      <c r="BF148" s="47"/>
-      <c r="BG148" s="47"/>
-      <c r="BH148" s="47"/>
-      <c r="BI148" s="47"/>
-      <c r="BJ148" s="47"/>
-      <c r="BK148" s="47"/>
-      <c r="BL148" s="47"/>
-      <c r="BM148" s="47"/>
-      <c r="BN148" s="47"/>
-      <c r="BO148" s="47"/>
-      <c r="BP148" s="47"/>
-      <c r="BQ148" s="47"/>
-      <c r="BR148" s="47"/>
-      <c r="BS148" s="47"/>
-      <c r="BT148" s="47"/>
-      <c r="BU148" s="47"/>
-      <c r="BV148" s="47"/>
-      <c r="BW148" s="47"/>
-      <c r="BX148" s="47"/>
-      <c r="BY148" s="47"/>
-      <c r="BZ148" s="47"/>
-      <c r="CA148" s="47"/>
-      <c r="CB148" s="47"/>
-      <c r="CC148" s="47"/>
-      <c r="CD148" s="47"/>
-      <c r="CE148" s="47"/>
-      <c r="CF148" s="47"/>
-      <c r="CG148" s="47"/>
-      <c r="CH148" s="47"/>
-      <c r="CI148" s="47"/>
-      <c r="CJ148" s="47"/>
-      <c r="CK148" s="47"/>
-      <c r="CL148" s="47"/>
-      <c r="CM148" s="47"/>
-      <c r="CN148" s="47"/>
-      <c r="CO148" s="47"/>
-      <c r="CP148" s="47"/>
-      <c r="CQ148" s="47"/>
-      <c r="CR148" s="47"/>
-      <c r="CS148" s="47"/>
-      <c r="CT148" s="47"/>
-      <c r="CU148" s="47"/>
+      <c r="AO148" s="48"/>
+      <c r="AP148" s="48"/>
+      <c r="AQ148" s="48"/>
+      <c r="AR148" s="48"/>
+      <c r="AS148" s="48"/>
+      <c r="AT148" s="48"/>
+      <c r="AU148" s="48"/>
+      <c r="AV148" s="48"/>
+      <c r="AW148" s="48"/>
+      <c r="AX148" s="48"/>
+      <c r="AY148" s="48"/>
+      <c r="AZ148" s="48"/>
+      <c r="BA148" s="48"/>
+      <c r="BB148" s="48"/>
+      <c r="BC148" s="48"/>
+      <c r="BD148" s="48"/>
+      <c r="BE148" s="48"/>
+      <c r="BF148" s="48"/>
+      <c r="BG148" s="48"/>
+      <c r="BH148" s="48"/>
+      <c r="BI148" s="48"/>
+      <c r="BJ148" s="48"/>
+      <c r="BK148" s="48"/>
+      <c r="BL148" s="48"/>
+      <c r="BM148" s="48"/>
+      <c r="BN148" s="48"/>
+      <c r="BO148" s="48"/>
+      <c r="BP148" s="48"/>
+      <c r="BQ148" s="48"/>
+      <c r="BR148" s="48"/>
+      <c r="BS148" s="48"/>
+      <c r="BT148" s="48"/>
+      <c r="BU148" s="48"/>
+      <c r="BV148" s="48"/>
+      <c r="BW148" s="48"/>
+      <c r="BX148" s="48"/>
+      <c r="BY148" s="48"/>
+      <c r="BZ148" s="48"/>
+      <c r="CA148" s="48"/>
+      <c r="CB148" s="48"/>
+      <c r="CC148" s="48"/>
+      <c r="CD148" s="48"/>
+      <c r="CE148" s="48"/>
+      <c r="CF148" s="48"/>
+      <c r="CG148" s="48"/>
+      <c r="CH148" s="48"/>
+      <c r="CI148" s="48"/>
+      <c r="CJ148" s="48"/>
+      <c r="CK148" s="48"/>
+      <c r="CL148" s="48"/>
+      <c r="CM148" s="48"/>
+      <c r="CN148" s="48"/>
+      <c r="CO148" s="48"/>
+      <c r="CP148" s="48"/>
+      <c r="CQ148" s="48"/>
+      <c r="CR148" s="48"/>
+      <c r="CS148" s="48"/>
+      <c r="CT148" s="48"/>
+      <c r="CU148" s="48"/>
       <c r="CV148" s="17"/>
-      <c r="CW148" s="17"/>
+      <c r="CW148" s="33"/>
     </row>
     <row r="149" customHeight="1" spans="1:101">
       <c r="A149" s="10"/>
@@ -17587,7 +17596,7 @@
       <c r="CT149" s="17"/>
       <c r="CU149" s="17"/>
       <c r="CV149" s="17"/>
-      <c r="CW149" s="17"/>
+      <c r="CW149" s="33"/>
     </row>
     <row r="150" customHeight="1" spans="1:101">
       <c r="A150" s="10"/>
@@ -17690,7 +17699,7 @@
       <c r="CT150" s="17"/>
       <c r="CU150" s="17"/>
       <c r="CV150" s="17"/>
-      <c r="CW150" s="17"/>
+      <c r="CW150" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="114">
@@ -17699,10 +17708,19 @@
     <mergeCell ref="A38:AL38"/>
     <mergeCell ref="AQ47:CS47"/>
     <mergeCell ref="AQ51:CI51"/>
+    <mergeCell ref="CV3:CV150"/>
+    <mergeCell ref="J5:AC24"/>
+    <mergeCell ref="H33:AE35"/>
+    <mergeCell ref="AO1:CV2"/>
     <mergeCell ref="C42:F45"/>
     <mergeCell ref="H42:AJ45"/>
     <mergeCell ref="C89:F92"/>
     <mergeCell ref="H89:AJ92"/>
+    <mergeCell ref="CJ48:CS50"/>
+    <mergeCell ref="CJ51:CS53"/>
+    <mergeCell ref="AQ48:CI50"/>
+    <mergeCell ref="AS52:CI54"/>
+    <mergeCell ref="AS55:CI57"/>
     <mergeCell ref="C124:F127"/>
     <mergeCell ref="H124:AJ127"/>
     <mergeCell ref="AQ5:AT8"/>
@@ -17712,6 +17730,21 @@
     <mergeCell ref="AQ79:AT82"/>
     <mergeCell ref="AV79:CS82"/>
     <mergeCell ref="AO111:CU112"/>
+    <mergeCell ref="CT113:CU146"/>
+    <mergeCell ref="AQ98:AW100"/>
+    <mergeCell ref="AQ101:AW103"/>
+    <mergeCell ref="AZ98:CS103"/>
+    <mergeCell ref="AZ104:CS106"/>
+    <mergeCell ref="AO107:CU108"/>
+    <mergeCell ref="AO79:AP106"/>
+    <mergeCell ref="CT79:CU106"/>
+    <mergeCell ref="AX85:AY106"/>
+    <mergeCell ref="AO109:CU110"/>
+    <mergeCell ref="AO77:CU78"/>
+    <mergeCell ref="AQ85:AW87"/>
+    <mergeCell ref="AZ85:CS87"/>
+    <mergeCell ref="AQ88:AW89"/>
+    <mergeCell ref="AQ90:AW92"/>
     <mergeCell ref="C129:AJ131"/>
     <mergeCell ref="C133:AJ135"/>
     <mergeCell ref="C137:AJ139"/>
@@ -17727,34 +17760,13 @@
     <mergeCell ref="BT134:CS136"/>
     <mergeCell ref="BT139:CS141"/>
     <mergeCell ref="AO113:AP146"/>
-    <mergeCell ref="CT113:CU146"/>
     <mergeCell ref="AQ145:CS146"/>
     <mergeCell ref="C141:AJ143"/>
     <mergeCell ref="C145:AJ147"/>
-    <mergeCell ref="AQ98:AW100"/>
-    <mergeCell ref="AQ101:AW103"/>
-    <mergeCell ref="AZ98:CS103"/>
-    <mergeCell ref="AZ104:CS106"/>
-    <mergeCell ref="AO107:CU108"/>
-    <mergeCell ref="AO79:AP106"/>
-    <mergeCell ref="CT79:CU106"/>
-    <mergeCell ref="AX85:AY106"/>
-    <mergeCell ref="AO109:CU110"/>
-    <mergeCell ref="AO77:CU78"/>
-    <mergeCell ref="AQ85:AW87"/>
-    <mergeCell ref="AZ85:CS87"/>
-    <mergeCell ref="AQ88:AW89"/>
-    <mergeCell ref="AQ90:AW92"/>
-    <mergeCell ref="AQ93:AW95"/>
-    <mergeCell ref="AZ90:CS92"/>
-    <mergeCell ref="AZ93:CS95"/>
-    <mergeCell ref="AQ96:AW97"/>
-    <mergeCell ref="AZ96:CS97"/>
-    <mergeCell ref="AS58:CI60"/>
-    <mergeCell ref="AS61:CI63"/>
-    <mergeCell ref="AS64:CI66"/>
-    <mergeCell ref="AS67:CI69"/>
-    <mergeCell ref="AS70:CI72"/>
+    <mergeCell ref="C114:E116"/>
+    <mergeCell ref="G118:AJ120"/>
+    <mergeCell ref="C118:E120"/>
+    <mergeCell ref="AM1:AN150"/>
     <mergeCell ref="AO73:CU74"/>
     <mergeCell ref="AO5:AP72"/>
     <mergeCell ref="AQ52:AR54"/>
@@ -17765,9 +17777,10 @@
     <mergeCell ref="AQ67:AR69"/>
     <mergeCell ref="AQ70:AR72"/>
     <mergeCell ref="CT5:CU72"/>
-    <mergeCell ref="C114:E116"/>
-    <mergeCell ref="G118:AJ120"/>
-    <mergeCell ref="C118:E120"/>
+    <mergeCell ref="AS34:CI39"/>
+    <mergeCell ref="AQ34:AR39"/>
+    <mergeCell ref="AQ40:CS43"/>
+    <mergeCell ref="AQ44:CS46"/>
     <mergeCell ref="AO3:CU4"/>
     <mergeCell ref="AQ9:CS10"/>
     <mergeCell ref="AQ11:CS13"/>
@@ -17777,23 +17790,9 @@
     <mergeCell ref="AS19:CI24"/>
     <mergeCell ref="AS25:CI30"/>
     <mergeCell ref="AS31:CI33"/>
-    <mergeCell ref="AS34:CI39"/>
     <mergeCell ref="AQ19:AR24"/>
     <mergeCell ref="AQ25:AR30"/>
     <mergeCell ref="AQ31:AR33"/>
-    <mergeCell ref="AQ34:AR39"/>
-    <mergeCell ref="AQ40:CS43"/>
-    <mergeCell ref="AQ44:CS46"/>
-    <mergeCell ref="CJ48:CS50"/>
-    <mergeCell ref="CJ51:CS53"/>
-    <mergeCell ref="AQ48:CI50"/>
-    <mergeCell ref="AS52:CI54"/>
-    <mergeCell ref="AS55:CI57"/>
-    <mergeCell ref="J5:AC24"/>
-    <mergeCell ref="H33:AE35"/>
-    <mergeCell ref="AM1:AN150"/>
-    <mergeCell ref="AO1:CW2"/>
-    <mergeCell ref="CV3:CW150"/>
     <mergeCell ref="AO149:CU150"/>
     <mergeCell ref="C27:AJ30"/>
     <mergeCell ref="C47:AJ85"/>
@@ -17808,6 +17807,16 @@
     <mergeCell ref="G110:AJ112"/>
     <mergeCell ref="C110:E112"/>
     <mergeCell ref="G114:AJ116"/>
+    <mergeCell ref="AQ93:AW95"/>
+    <mergeCell ref="AZ90:CS92"/>
+    <mergeCell ref="AZ93:CS95"/>
+    <mergeCell ref="AQ96:AW97"/>
+    <mergeCell ref="AZ96:CS97"/>
+    <mergeCell ref="AS58:CI60"/>
+    <mergeCell ref="AS61:CI63"/>
+    <mergeCell ref="AS64:CI66"/>
+    <mergeCell ref="AS67:CI69"/>
+    <mergeCell ref="AS70:CI72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G110:AJ112" r:id="rId2" display="mrcat.adr.com.ua"/>
